--- a/mip_winners.xlsx
+++ b/mip_winners.xlsx
@@ -6578,6 +6578,9 @@
       <c r="AD38">
         <v>0</v>
       </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
       <c r="AF38">
         <v>5.8</v>
       </c>

--- a/mip_winners.xlsx
+++ b/mip_winners.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="199">
-  <si>
-    <t>year_x</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="200">
+  <si>
+    <t>season_ending_year_x</t>
   </si>
   <si>
     <t>award</t>
@@ -58,7 +58,7 @@
     <t>seas_id_y</t>
   </si>
   <si>
-    <t>year_y</t>
+    <t>season_ending_year_y</t>
   </si>
   <si>
     <t>player_y</t>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>triple_double_avg</t>
+  </si>
+  <si>
+    <t>calendar_year</t>
   </si>
   <si>
     <t>2024</t>
@@ -968,13 +971,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AX40"/>
+  <dimension ref="A1:AY40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:50">
+    <row r="1" spans="1:51">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1125,22 +1128,25 @@
       <c r="AX1" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:50">
+    <row r="2" spans="1:51">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F2">
         <v>51</v>
@@ -1155,7 +1161,7 @@
         <v>0.644</v>
       </c>
       <c r="J2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K2">
         <v>31843</v>
@@ -1164,19 +1170,22 @@
         <v>4893</v>
       </c>
       <c r="M2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N2">
         <v>31843</v>
       </c>
       <c r="O2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="Q2">
+        <v>2001</v>
       </c>
       <c r="R2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="S2">
         <v>23</v>
@@ -1185,10 +1194,10 @@
         <v>4</v>
       </c>
       <c r="U2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W2">
         <v>70</v>
@@ -1266,30 +1275,33 @@
         <v>25.9</v>
       </c>
       <c r="AV2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AW2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AX2" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AY2">
+        <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:50">
+    <row r="3" spans="1:51">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D3">
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F3">
         <v>69</v>
@@ -1304,7 +1316,7 @@
         <v>0.86</v>
       </c>
       <c r="J3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K3">
         <v>30871</v>
@@ -1313,19 +1325,22 @@
         <v>4535</v>
       </c>
       <c r="M3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N3">
         <v>30871</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="Q3">
+        <v>1998</v>
       </c>
       <c r="R3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S3">
         <v>25</v>
@@ -1334,10 +1349,10 @@
         <v>6</v>
       </c>
       <c r="U3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="W3">
         <v>66</v>
@@ -1415,30 +1430,33 @@
         <v>25.6</v>
       </c>
       <c r="AV3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AW3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AX3" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AY3">
+        <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:50">
+    <row r="4" spans="1:51">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D4">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F4">
         <v>38</v>
@@ -1453,7 +1471,7 @@
         <v>0.442</v>
       </c>
       <c r="J4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K4">
         <v>29959</v>
@@ -1462,19 +1480,22 @@
         <v>4723</v>
       </c>
       <c r="M4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N4">
         <v>29959</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="Q4">
+        <v>2000</v>
       </c>
       <c r="R4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="S4">
         <v>22</v>
@@ -1483,10 +1504,10 @@
         <v>3</v>
       </c>
       <c r="U4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="W4">
         <v>57</v>
@@ -1564,30 +1585,33 @@
         <v>27.4</v>
       </c>
       <c r="AV4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AW4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AX4" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AY4">
+        <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:50">
+    <row r="5" spans="1:51">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D5">
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F5">
         <v>98</v>
@@ -1602,7 +1626,7 @@
         <v>0.986</v>
       </c>
       <c r="J5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K5">
         <v>29311</v>
@@ -1611,19 +1635,22 @@
         <v>4266</v>
       </c>
       <c r="M5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N5">
         <v>29311</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="Q5">
+        <v>1995</v>
       </c>
       <c r="R5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="S5">
         <v>26</v>
@@ -1632,10 +1659,10 @@
         <v>7</v>
       </c>
       <c r="U5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="W5">
         <v>71</v>
@@ -1713,30 +1740,33 @@
         <v>24.1</v>
       </c>
       <c r="AV5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AW5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AX5" t="s">
         <v>198</v>
       </c>
-      <c r="AX5" t="s">
-        <v>197</v>
+      <c r="AY5">
+        <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:50">
+    <row r="6" spans="1:51">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D6">
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F6">
         <v>42</v>
@@ -1751,7 +1781,7 @@
         <v>0.652</v>
       </c>
       <c r="J6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K6">
         <v>28348</v>
@@ -1760,19 +1790,22 @@
         <v>4379</v>
       </c>
       <c r="M6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N6">
         <v>28348</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P6" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="Q6">
+        <v>1998</v>
       </c>
       <c r="R6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="S6">
         <v>22</v>
@@ -1781,10 +1814,10 @@
         <v>4</v>
       </c>
       <c r="U6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="W6">
         <v>62</v>
@@ -1862,30 +1895,33 @@
         <v>23.8</v>
       </c>
       <c r="AV6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AW6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AX6" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AY6">
+        <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="1:50">
+    <row r="7" spans="1:51">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D7">
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F7">
         <v>86</v>
@@ -1900,7 +1936,7 @@
         <v>0.9379999999999999</v>
       </c>
       <c r="J7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K7">
         <v>28100</v>
@@ -1909,19 +1945,22 @@
         <v>4437</v>
       </c>
       <c r="M7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N7">
         <v>28100</v>
       </c>
       <c r="O7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P7" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="Q7">
+        <v>1995</v>
       </c>
       <c r="R7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="S7">
         <v>24</v>
@@ -1930,10 +1969,10 @@
         <v>3</v>
       </c>
       <c r="U7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W7">
         <v>80</v>
@@ -2011,30 +2050,33 @@
         <v>16.9</v>
       </c>
       <c r="AV7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AW7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AX7" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AY7">
+        <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:50">
+    <row r="8" spans="1:51">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D8">
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F8">
         <v>99</v>
@@ -2049,7 +2091,7 @@
         <v>0.988</v>
       </c>
       <c r="J8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K8">
         <v>27554</v>
@@ -2058,19 +2100,22 @@
         <v>4217</v>
       </c>
       <c r="M8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N8">
         <v>27554</v>
       </c>
       <c r="O8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="Q8">
+        <v>1993</v>
       </c>
       <c r="R8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S8">
         <v>25</v>
@@ -2079,10 +2124,10 @@
         <v>5</v>
       </c>
       <c r="U8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W8">
         <v>75</v>
@@ -2160,30 +2205,33 @@
         <v>23.1</v>
       </c>
       <c r="AV8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AW8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AX8" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AY8">
+        <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:50">
+    <row r="9" spans="1:51">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D9">
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F9">
         <v>80</v>
@@ -2198,7 +2246,7 @@
         <v>0.856</v>
       </c>
       <c r="J9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K9">
         <v>26526</v>
@@ -2207,19 +2255,22 @@
         <v>4164</v>
       </c>
       <c r="M9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N9">
         <v>26526</v>
       </c>
       <c r="O9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="Q9">
+        <v>1995</v>
       </c>
       <c r="R9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S9">
         <v>22</v>
@@ -2228,10 +2279,10 @@
         <v>4</v>
       </c>
       <c r="U9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W9">
         <v>80</v>
@@ -2309,30 +2360,33 @@
         <v>22.9</v>
       </c>
       <c r="AV9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AW9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AX9" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AY9">
+        <v>2017</v>
       </c>
     </row>
-    <row r="10" spans="1:50">
+    <row r="10" spans="1:51">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D10">
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F10">
         <v>101</v>
@@ -2347,7 +2401,7 @@
         <v>0.86</v>
       </c>
       <c r="J10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K10">
         <v>25847</v>
@@ -2356,19 +2410,22 @@
         <v>4154</v>
       </c>
       <c r="M10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N10">
         <v>25847</v>
       </c>
       <c r="O10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P10" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="Q10">
+        <v>1992</v>
       </c>
       <c r="R10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S10">
         <v>24</v>
@@ -2377,10 +2434,10 @@
         <v>3</v>
       </c>
       <c r="U10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="W10">
         <v>80</v>
@@ -2458,30 +2515,33 @@
         <v>20.8</v>
       </c>
       <c r="AV10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AW10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AX10" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AY10">
+        <v>2016</v>
       </c>
     </row>
-    <row r="11" spans="1:50">
+    <row r="11" spans="1:51">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D11">
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F11">
         <v>92</v>
@@ -2496,7 +2556,7 @@
         <v>0.829</v>
       </c>
       <c r="J11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K11">
         <v>25402</v>
@@ -2505,19 +2565,22 @@
         <v>4023</v>
       </c>
       <c r="M11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N11">
         <v>25402</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P11" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="Q11">
+        <v>1990</v>
       </c>
       <c r="R11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S11">
         <v>25</v>
@@ -2526,10 +2589,10 @@
         <v>4</v>
       </c>
       <c r="U11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="W11">
         <v>65</v>
@@ -2607,30 +2670,33 @@
         <v>20</v>
       </c>
       <c r="AV11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AW11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AX11" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AY11">
+        <v>2015</v>
       </c>
     </row>
-    <row r="12" spans="1:50">
+    <row r="12" spans="1:51">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D12">
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F12">
         <v>65</v>
@@ -2645,7 +2711,7 @@
         <v>0.648</v>
       </c>
       <c r="J12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K12">
         <v>24695</v>
@@ -2654,19 +2720,22 @@
         <v>3817</v>
       </c>
       <c r="M12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N12">
         <v>24695</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P12" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="Q12">
+        <v>1987</v>
       </c>
       <c r="R12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S12">
         <v>27</v>
@@ -2675,10 +2744,10 @@
         <v>6</v>
       </c>
       <c r="U12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="W12">
         <v>76</v>
@@ -2756,30 +2825,33 @@
         <v>20.3</v>
       </c>
       <c r="AV12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AW12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AX12" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AY12">
+        <v>2014</v>
       </c>
     </row>
-    <row r="13" spans="1:50">
+    <row r="13" spans="1:51">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D13">
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F13">
         <v>52</v>
@@ -2794,7 +2866,7 @@
         <v>0.518</v>
       </c>
       <c r="J13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K13">
         <v>24357</v>
@@ -2803,19 +2875,22 @@
         <v>3969</v>
       </c>
       <c r="M13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N13">
         <v>24357</v>
       </c>
       <c r="O13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P13" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Q13">
+        <v>1991</v>
       </c>
       <c r="R13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S13">
         <v>22</v>
@@ -2824,10 +2899,10 @@
         <v>3</v>
       </c>
       <c r="U13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W13">
         <v>79</v>
@@ -2905,30 +2980,33 @@
         <v>17.4</v>
       </c>
       <c r="AV13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AW13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AX13" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AY13">
+        <v>2013</v>
       </c>
     </row>
-    <row r="14" spans="1:50">
+    <row r="14" spans="1:51">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D14">
         <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F14">
         <v>33</v>
@@ -2943,7 +3021,7 @@
         <v>0.43</v>
       </c>
       <c r="J14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K14">
         <v>23823</v>
@@ -2952,19 +3030,22 @@
         <v>3850</v>
       </c>
       <c r="M14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N14">
         <v>23823</v>
       </c>
       <c r="O14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P14" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="Q14">
+        <v>1989</v>
       </c>
       <c r="R14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="S14">
         <v>23</v>
@@ -2973,10 +3054,10 @@
         <v>4</v>
       </c>
       <c r="U14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W14">
         <v>61</v>
@@ -3054,30 +3135,33 @@
         <v>16.1</v>
       </c>
       <c r="AV14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AW14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AX14" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AY14">
+        <v>2012</v>
       </c>
     </row>
-    <row r="15" spans="1:50">
+    <row r="15" spans="1:51">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D15">
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F15">
         <v>66</v>
@@ -3092,7 +3176,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="J15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K15">
         <v>23088</v>
@@ -3101,19 +3185,22 @@
         <v>3830</v>
       </c>
       <c r="M15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N15">
         <v>23088</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P15" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="Q15">
+        <v>1989</v>
       </c>
       <c r="R15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="S15">
         <v>22</v>
@@ -3122,10 +3209,10 @@
         <v>3</v>
       </c>
       <c r="U15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="W15">
         <v>73</v>
@@ -3203,30 +3290,33 @@
         <v>20.2</v>
       </c>
       <c r="AV15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AW15" t="s">
+        <v>199</v>
+      </c>
+      <c r="AX15" t="s">
         <v>198</v>
       </c>
-      <c r="AX15" t="s">
-        <v>197</v>
+      <c r="AY15">
+        <v>2011</v>
       </c>
     </row>
-    <row r="16" spans="1:50">
+    <row r="16" spans="1:51">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D16">
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F16">
         <v>62</v>
@@ -3241,7 +3331,7 @@
         <v>0.655</v>
       </c>
       <c r="J16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K16">
         <v>22157</v>
@@ -3250,19 +3340,22 @@
         <v>3731</v>
       </c>
       <c r="M16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N16">
         <v>22157</v>
       </c>
       <c r="O16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P16" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Q16">
+        <v>1985</v>
       </c>
       <c r="R16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="S16">
         <v>25</v>
@@ -3271,10 +3364,10 @@
         <v>3</v>
       </c>
       <c r="U16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="W16">
         <v>82</v>
@@ -3352,30 +3445,33 @@
         <v>19.6</v>
       </c>
       <c r="AV16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AW16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AX16" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AY16">
+        <v>2010</v>
       </c>
     </row>
-    <row r="17" spans="1:50">
+    <row r="17" spans="1:51">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D17">
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F17">
         <v>48</v>
@@ -3390,7 +3486,7 @@
         <v>0.602</v>
       </c>
       <c r="J17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K17">
         <v>21718</v>
@@ -3399,19 +3495,22 @@
         <v>3589</v>
       </c>
       <c r="M17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N17">
         <v>21718</v>
       </c>
       <c r="O17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P17" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="Q17">
+        <v>1984</v>
       </c>
       <c r="R17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S17">
         <v>25</v>
@@ -3420,10 +3519,10 @@
         <v>4</v>
       </c>
       <c r="U17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W17">
         <v>67</v>
@@ -3501,30 +3600,33 @@
         <v>25.8</v>
       </c>
       <c r="AV17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AW17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AX17" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AY17">
+        <v>2009</v>
       </c>
     </row>
-    <row r="18" spans="1:50">
+    <row r="18" spans="1:51">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D18">
         <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F18">
         <v>61</v>
@@ -3539,7 +3641,7 @@
         <v>0.608</v>
       </c>
       <c r="J18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K18">
         <v>21195</v>
@@ -3548,19 +3650,22 @@
         <v>3252</v>
       </c>
       <c r="M18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N18">
         <v>21195</v>
       </c>
       <c r="O18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P18" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="Q18">
+        <v>1980</v>
       </c>
       <c r="R18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S18">
         <v>28</v>
@@ -3569,10 +3674,10 @@
         <v>8</v>
       </c>
       <c r="U18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W18">
         <v>82</v>
@@ -3650,30 +3755,33 @@
         <v>19.5</v>
       </c>
       <c r="AV18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AW18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AX18" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AY18">
+        <v>2008</v>
       </c>
     </row>
-    <row r="19" spans="1:50">
+    <row r="19" spans="1:51">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D19">
         <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F19">
         <v>47</v>
@@ -3688,7 +3796,7 @@
         <v>0.546</v>
       </c>
       <c r="J19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K19">
         <v>20828</v>
@@ -3697,19 +3805,22 @@
         <v>3627</v>
       </c>
       <c r="M19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N19">
         <v>20828</v>
       </c>
       <c r="O19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P19" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="Q19">
+        <v>1986</v>
       </c>
       <c r="R19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S19">
         <v>21</v>
@@ -3718,10 +3829,10 @@
         <v>2</v>
       </c>
       <c r="U19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="W19">
         <v>77</v>
@@ -3799,30 +3910,33 @@
         <v>16.5</v>
       </c>
       <c r="AV19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AW19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AX19" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AY19">
+        <v>2007</v>
       </c>
     </row>
-    <row r="20" spans="1:50">
+    <row r="20" spans="1:51">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D20">
         <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F20">
         <v>80</v>
@@ -3837,7 +3951,7 @@
         <v>0.776</v>
       </c>
       <c r="J20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K20">
         <v>19960</v>
@@ -3846,19 +3960,22 @@
         <v>3431</v>
       </c>
       <c r="M20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N20">
         <v>19960</v>
       </c>
       <c r="O20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P20" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="Q20">
+        <v>1983</v>
       </c>
       <c r="R20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="S20">
         <v>23</v>
@@ -3867,10 +3984,10 @@
         <v>3</v>
       </c>
       <c r="U20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="W20">
         <v>81</v>
@@ -3948,30 +4065,33 @@
         <v>13.3</v>
       </c>
       <c r="AV20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AW20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AX20" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AY20">
+        <v>2006</v>
       </c>
     </row>
-    <row r="21" spans="1:50">
+    <row r="21" spans="1:51">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D21">
         <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F21">
         <v>59</v>
@@ -3986,7 +4106,7 @@
         <v>0.624</v>
       </c>
       <c r="J21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K21">
         <v>19374</v>
@@ -3995,19 +4115,22 @@
         <v>3301</v>
       </c>
       <c r="M21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N21">
         <v>19374</v>
       </c>
       <c r="O21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P21" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="Q21">
+        <v>1981</v>
       </c>
       <c r="R21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S21">
         <v>24</v>
@@ -4016,10 +4139,10 @@
         <v>4</v>
       </c>
       <c r="U21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="W21">
         <v>75</v>
@@ -4097,30 +4220,33 @@
         <v>16.4</v>
       </c>
       <c r="AV21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AW21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AX21" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AY21">
+        <v>2005</v>
       </c>
     </row>
-    <row r="22" spans="1:50">
+    <row r="22" spans="1:51">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D22">
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F22">
         <v>59</v>
@@ -4135,7 +4261,7 @@
         <v>0.626</v>
       </c>
       <c r="J22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K22">
         <v>19306</v>
@@ -4144,19 +4270,22 @@
         <v>3363</v>
       </c>
       <c r="M22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N22">
         <v>19306</v>
       </c>
       <c r="O22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P22" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="Q22">
+        <v>1982</v>
       </c>
       <c r="R22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="S22">
         <v>22</v>
@@ -4165,10 +4294,10 @@
         <v>3</v>
       </c>
       <c r="U22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="W22">
         <v>81</v>
@@ -4246,30 +4375,33 @@
         <v>20.1</v>
       </c>
       <c r="AV22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AW22" t="s">
+        <v>199</v>
+      </c>
+      <c r="AX22" t="s">
         <v>198</v>
       </c>
-      <c r="AX22" t="s">
-        <v>197</v>
+      <c r="AY22">
+        <v>2004</v>
       </c>
     </row>
-    <row r="23" spans="1:50">
+    <row r="23" spans="1:51">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D23">
         <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F23">
         <v>41</v>
@@ -4284,7 +4416,7 @@
         <v>0.488</v>
       </c>
       <c r="J23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K23">
         <v>18420</v>
@@ -4293,19 +4425,22 @@
         <v>3317</v>
       </c>
       <c r="M23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N23">
         <v>18420</v>
       </c>
       <c r="O23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P23" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="Q23">
+        <v>1982</v>
       </c>
       <c r="R23" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="S23">
         <v>21</v>
@@ -4314,10 +4449,10 @@
         <v>2</v>
       </c>
       <c r="U23" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="W23">
         <v>82</v>
@@ -4395,30 +4530,33 @@
         <v>18.3</v>
       </c>
       <c r="AV23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AW23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AX23" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AY23">
+        <v>2003</v>
       </c>
     </row>
-    <row r="24" spans="1:50">
+    <row r="24" spans="1:51">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D24">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F24">
         <v>52</v>
@@ -4433,7 +4571,7 @@
         <v>0.413</v>
       </c>
       <c r="J24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K24">
         <v>17982</v>
@@ -4442,19 +4580,22 @@
         <v>2993</v>
       </c>
       <c r="M24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N24">
         <v>17982</v>
       </c>
       <c r="O24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P24" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="Q24">
+        <v>1979</v>
       </c>
       <c r="R24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="S24">
         <v>23</v>
@@ -4463,10 +4604,10 @@
         <v>6</v>
       </c>
       <c r="U24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W24">
         <v>72</v>
@@ -4544,30 +4685,33 @@
         <v>19</v>
       </c>
       <c r="AV24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AW24" t="s">
+        <v>199</v>
+      </c>
+      <c r="AX24" t="s">
         <v>198</v>
       </c>
-      <c r="AX24" t="s">
-        <v>197</v>
+      <c r="AY24">
+        <v>2002</v>
       </c>
     </row>
-    <row r="25" spans="1:50">
+    <row r="25" spans="1:51">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D25">
         <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F25">
         <v>74</v>
@@ -4582,7 +4726,7 @@
         <v>0.597</v>
       </c>
       <c r="J25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K25">
         <v>17709</v>
@@ -4591,19 +4735,22 @@
         <v>3096</v>
       </c>
       <c r="M25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N25">
         <v>17709</v>
       </c>
       <c r="O25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P25" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="Q25">
+        <v>1980</v>
       </c>
       <c r="R25" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S25">
         <v>21</v>
@@ -4612,10 +4759,10 @@
         <v>4</v>
       </c>
       <c r="U25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W25">
         <v>77</v>
@@ -4693,30 +4840,33 @@
         <v>26.8</v>
       </c>
       <c r="AV25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AW25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AX25" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AY25">
+        <v>2001</v>
       </c>
     </row>
-    <row r="26" spans="1:50">
+    <row r="26" spans="1:51">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D26">
         <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F26">
         <v>32</v>
@@ -4731,7 +4881,7 @@
         <v>0.264</v>
       </c>
       <c r="J26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K26">
         <v>16939</v>
@@ -4740,19 +4890,22 @@
         <v>2867</v>
       </c>
       <c r="M26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N26">
         <v>16939</v>
       </c>
       <c r="O26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P26" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="Q26">
+        <v>1973</v>
       </c>
       <c r="R26" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S26">
         <v>27</v>
@@ -4761,10 +4914,10 @@
         <v>6</v>
       </c>
       <c r="U26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W26">
         <v>80</v>
@@ -4842,30 +4995,33 @@
         <v>18.2</v>
       </c>
       <c r="AV26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AW26" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AX26" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AY26">
+        <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="1:50">
+    <row r="27" spans="1:51">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D27">
         <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F27">
         <v>54</v>
@@ -4880,7 +5036,7 @@
         <v>0.458</v>
       </c>
       <c r="J27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K27">
         <v>16338</v>
@@ -4889,19 +5045,22 @@
         <v>2846</v>
       </c>
       <c r="M27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N27">
         <v>16338</v>
       </c>
       <c r="O27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P27" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="Q27">
+        <v>1969</v>
       </c>
       <c r="R27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="S27">
         <v>30</v>
@@ -4910,10 +5069,10 @@
         <v>5</v>
       </c>
       <c r="U27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W27">
         <v>50</v>
@@ -4991,30 +5150,33 @@
         <v>13.8</v>
       </c>
       <c r="AV27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AW27" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AX27" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AY27">
+        <v>1999</v>
       </c>
     </row>
-    <row r="28" spans="1:50">
+    <row r="28" spans="1:51">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D28">
         <v>25</v>
       </c>
       <c r="E28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F28">
         <v>33</v>
@@ -5029,7 +5191,7 @@
         <v>0.284</v>
       </c>
       <c r="J28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K28">
         <v>15668</v>
@@ -5038,19 +5200,22 @@
         <v>2892</v>
       </c>
       <c r="M28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N28">
         <v>15668</v>
       </c>
       <c r="O28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P28" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="Q28">
+        <v>1973</v>
       </c>
       <c r="R28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="S28">
         <v>25</v>
@@ -5059,10 +5224,10 @@
         <v>3</v>
       </c>
       <c r="U28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="W28">
         <v>69</v>
@@ -5140,30 +5305,33 @@
         <v>14.3</v>
       </c>
       <c r="AV28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AW28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AX28" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AY28">
+        <v>1998</v>
       </c>
     </row>
-    <row r="29" spans="1:50">
+    <row r="29" spans="1:51">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D29">
         <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F29">
         <v>41</v>
@@ -5178,7 +5346,7 @@
         <v>0.357</v>
       </c>
       <c r="J29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K29">
         <v>15336</v>
@@ -5187,19 +5355,22 @@
         <v>2656</v>
       </c>
       <c r="M29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N29">
         <v>15336</v>
       </c>
       <c r="O29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P29" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="Q29">
+        <v>1970</v>
       </c>
       <c r="R29" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="S29">
         <v>27</v>
@@ -5208,10 +5379,10 @@
         <v>4</v>
       </c>
       <c r="U29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="W29">
         <v>82</v>
@@ -5289,30 +5460,33 @@
         <v>9.699999999999999</v>
       </c>
       <c r="AV29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AW29" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AX29" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AY29">
+        <v>1997</v>
       </c>
     </row>
-    <row r="30" spans="1:50">
+    <row r="30" spans="1:51">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D30">
         <v>24</v>
       </c>
       <c r="E30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F30">
         <v>50</v>
@@ -5327,7 +5501,7 @@
         <v>0.442</v>
       </c>
       <c r="J30" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K30">
         <v>14759</v>
@@ -5336,19 +5510,22 @@
         <v>2797</v>
       </c>
       <c r="M30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N30">
         <v>14759</v>
       </c>
       <c r="O30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P30" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Q30">
+        <v>1972</v>
       </c>
       <c r="R30" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="S30">
         <v>24</v>
@@ -5357,10 +5534,10 @@
         <v>3</v>
       </c>
       <c r="U30" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="W30">
         <v>76</v>
@@ -5438,30 +5615,33 @@
         <v>14.5</v>
       </c>
       <c r="AV30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AW30" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AX30" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AY30">
+        <v>1996</v>
       </c>
     </row>
-    <row r="31" spans="1:50">
+    <row r="31" spans="1:51">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D31">
         <v>27</v>
       </c>
       <c r="E31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F31">
         <v>50</v>
@@ -5476,7 +5656,7 @@
         <v>0.476</v>
       </c>
       <c r="J31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K31">
         <v>14182</v>
@@ -5485,19 +5665,22 @@
         <v>2493</v>
       </c>
       <c r="M31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N31">
         <v>14182</v>
       </c>
       <c r="O31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P31" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="Q31">
+        <v>1968</v>
       </c>
       <c r="R31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="S31">
         <v>27</v>
@@ -5506,10 +5689,10 @@
         <v>6</v>
       </c>
       <c r="U31" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W31">
         <v>82</v>
@@ -5587,30 +5770,33 @@
         <v>20.6</v>
       </c>
       <c r="AV31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AW31" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AX31" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AY31">
+        <v>1995</v>
       </c>
     </row>
-    <row r="32" spans="1:50">
+    <row r="32" spans="1:51">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D32">
         <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F32">
         <v>55</v>
@@ -5625,7 +5811,7 @@
         <v>0.545</v>
       </c>
       <c r="J32" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K32">
         <v>13739</v>
@@ -5634,19 +5820,22 @@
         <v>2711</v>
       </c>
       <c r="M32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N32">
         <v>13739</v>
       </c>
       <c r="O32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Q32">
+        <v>1970</v>
       </c>
       <c r="R32" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S32">
         <v>24</v>
@@ -5655,10 +5844,10 @@
         <v>2</v>
       </c>
       <c r="U32" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="W32">
         <v>75</v>
@@ -5736,30 +5925,33 @@
         <v>18.2</v>
       </c>
       <c r="AV32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AW32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AX32" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AY32">
+        <v>1994</v>
       </c>
     </row>
-    <row r="33" spans="1:50">
+    <row r="33" spans="1:51">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D33">
         <v>23</v>
       </c>
       <c r="E33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F33">
         <v>25</v>
@@ -5774,7 +5966,7 @@
         <v>0.255</v>
       </c>
       <c r="J33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K33">
         <v>13431</v>
@@ -5783,19 +5975,22 @@
         <v>2608</v>
       </c>
       <c r="M33" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N33">
         <v>13431</v>
       </c>
       <c r="O33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="Q33">
+        <v>1970</v>
       </c>
       <c r="R33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="S33">
         <v>23</v>
@@ -5804,10 +5999,10 @@
         <v>3</v>
       </c>
       <c r="U33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W33">
         <v>81</v>
@@ -5885,30 +6080,33 @@
         <v>19.2</v>
       </c>
       <c r="AV33" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AW33" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AX33" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AY33">
+        <v>1993</v>
       </c>
     </row>
-    <row r="34" spans="1:50">
+    <row r="34" spans="1:51">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D34">
         <v>24</v>
       </c>
       <c r="E34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F34">
         <v>40</v>
@@ -5923,7 +6121,7 @@
         <v>0.417</v>
       </c>
       <c r="J34" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K34">
         <v>13021</v>
@@ -5932,19 +6130,22 @@
         <v>2534</v>
       </c>
       <c r="M34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N34">
         <v>13021</v>
       </c>
       <c r="O34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Q34">
+        <v>1968</v>
       </c>
       <c r="R34" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="S34">
         <v>24</v>
@@ -5953,10 +6154,10 @@
         <v>3</v>
       </c>
       <c r="U34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="W34">
         <v>66</v>
@@ -6034,30 +6235,33 @@
         <v>20</v>
       </c>
       <c r="AV34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AW34" t="s">
+        <v>199</v>
+      </c>
+      <c r="AX34" t="s">
         <v>198</v>
       </c>
-      <c r="AX34" t="s">
-        <v>197</v>
+      <c r="AY34">
+        <v>1992</v>
       </c>
     </row>
-    <row r="35" spans="1:50">
+    <row r="35" spans="1:51">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D35">
         <v>26</v>
       </c>
       <c r="E35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F35">
         <v>25</v>
@@ -6072,7 +6276,7 @@
         <v>0.26</v>
       </c>
       <c r="J35" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K35">
         <v>12625</v>
@@ -6081,19 +6285,22 @@
         <v>2338</v>
       </c>
       <c r="M35" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N35">
         <v>12625</v>
       </c>
       <c r="O35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P35" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="Q35">
+        <v>1965</v>
       </c>
       <c r="R35" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="S35">
         <v>26</v>
@@ -6102,10 +6309,10 @@
         <v>5</v>
       </c>
       <c r="U35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W35">
         <v>79</v>
@@ -6183,30 +6390,33 @@
         <v>17.2</v>
       </c>
       <c r="AV35" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AW35" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AX35" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AY35">
+        <v>1991</v>
       </c>
     </row>
-    <row r="36" spans="1:50">
+    <row r="36" spans="1:51">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D36">
         <v>24</v>
       </c>
       <c r="E36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F36">
         <v>37</v>
@@ -6221,7 +6431,7 @@
         <v>0.402</v>
       </c>
       <c r="J36" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K36">
         <v>12168</v>
@@ -6230,19 +6440,22 @@
         <v>2464</v>
       </c>
       <c r="M36" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N36">
         <v>12168</v>
       </c>
       <c r="O36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P36" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="Q36">
+        <v>1966</v>
       </c>
       <c r="R36" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="S36">
         <v>24</v>
@@ -6251,10 +6464,10 @@
         <v>2</v>
       </c>
       <c r="U36" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="W36">
         <v>74</v>
@@ -6332,30 +6545,33 @@
         <v>16.6</v>
       </c>
       <c r="AV36" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AW36" t="s">
+        <v>199</v>
+      </c>
+      <c r="AX36" t="s">
         <v>198</v>
       </c>
-      <c r="AX36" t="s">
-        <v>197</v>
+      <c r="AY36">
+        <v>1990</v>
       </c>
     </row>
-    <row r="37" spans="1:50">
+    <row r="37" spans="1:51">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D37">
         <v>22</v>
       </c>
       <c r="E37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F37">
         <v>48</v>
@@ -6370,7 +6586,7 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="J37" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K37">
         <v>11605</v>
@@ -6379,19 +6595,22 @@
         <v>2371</v>
       </c>
       <c r="M37" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N37">
         <v>11605</v>
       </c>
       <c r="O37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P37" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="Q37">
+        <v>1967</v>
       </c>
       <c r="R37" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="S37">
         <v>22</v>
@@ -6400,10 +6619,10 @@
         <v>2</v>
       </c>
       <c r="U37" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="W37">
         <v>81</v>
@@ -6481,30 +6700,33 @@
         <v>20.4</v>
       </c>
       <c r="AV37" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AW37" t="s">
+        <v>199</v>
+      </c>
+      <c r="AX37" t="s">
         <v>198</v>
       </c>
-      <c r="AX37" t="s">
-        <v>197</v>
+      <c r="AY37">
+        <v>1989</v>
       </c>
     </row>
-    <row r="38" spans="1:50">
+    <row r="38" spans="1:51">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D38">
         <v>23</v>
       </c>
       <c r="E38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F38">
         <v>33</v>
@@ -6519,7 +6741,7 @@
         <v>0.413</v>
       </c>
       <c r="J38" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K38">
         <v>11152</v>
@@ -6528,19 +6750,22 @@
         <v>2320</v>
       </c>
       <c r="M38" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N38">
         <v>11152</v>
       </c>
       <c r="O38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="Q38">
+        <v>1965</v>
       </c>
       <c r="R38" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="S38">
         <v>23</v>
@@ -6549,10 +6774,10 @@
         <v>2</v>
       </c>
       <c r="U38" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="W38">
         <v>78</v>
@@ -6630,30 +6855,33 @@
         <v>15.8</v>
       </c>
       <c r="AV38" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AW38" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AX38" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AY38">
+        <v>1988</v>
       </c>
     </row>
-    <row r="39" spans="1:50">
+    <row r="39" spans="1:51">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C39" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D39">
         <v>26</v>
       </c>
       <c r="E39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F39">
         <v>33</v>
@@ -6668,7 +6896,7 @@
         <v>0.423</v>
       </c>
       <c r="J39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K39">
         <v>10638</v>
@@ -6677,19 +6905,22 @@
         <v>2112</v>
       </c>
       <c r="M39" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N39">
         <v>10638</v>
       </c>
       <c r="O39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P39" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="Q39">
+        <v>1961</v>
       </c>
       <c r="R39" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S39">
         <v>26</v>
@@ -6698,10 +6929,10 @@
         <v>4</v>
       </c>
       <c r="U39" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="W39">
         <v>82</v>
@@ -6779,30 +7010,33 @@
         <v>24.9</v>
       </c>
       <c r="AV39" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AW39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AX39" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AY39">
+        <v>1987</v>
       </c>
     </row>
-    <row r="40" spans="1:50">
+    <row r="40" spans="1:51">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C40" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D40">
         <v>23</v>
       </c>
       <c r="E40" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F40">
         <v>30</v>
@@ -6817,7 +7051,7 @@
         <v>0.385</v>
       </c>
       <c r="J40" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K40">
         <v>10190</v>
@@ -6826,19 +7060,22 @@
         <v>2158</v>
       </c>
       <c r="M40" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N40">
         <v>10190</v>
       </c>
       <c r="O40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P40" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="Q40">
+        <v>1963</v>
       </c>
       <c r="R40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S40">
         <v>23</v>
@@ -6847,10 +7084,10 @@
         <v>2</v>
       </c>
       <c r="U40" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V40" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="W40">
         <v>82</v>
@@ -6928,13 +7165,16 @@
         <v>17</v>
       </c>
       <c r="AV40" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AW40" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AX40" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AY40">
+        <v>1986</v>
       </c>
     </row>
   </sheetData>

--- a/mip_winners.xlsx
+++ b/mip_winners.xlsx
@@ -1182,13 +1182,13 @@
         <v>91</v>
       </c>
       <c r="Q2">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="R2" t="s">
         <v>192</v>
       </c>
       <c r="S2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T2">
         <v>4</v>
@@ -1337,13 +1337,13 @@
         <v>92</v>
       </c>
       <c r="Q3">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="R3" t="s">
         <v>193</v>
       </c>
       <c r="S3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T3">
         <v>6</v>
@@ -1492,13 +1492,13 @@
         <v>93</v>
       </c>
       <c r="Q4">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="R4" t="s">
         <v>192</v>
       </c>
       <c r="S4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T4">
         <v>3</v>
@@ -1647,13 +1647,13 @@
         <v>94</v>
       </c>
       <c r="Q5">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="R5" t="s">
         <v>194</v>
       </c>
       <c r="S5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T5">
         <v>7</v>
@@ -1802,13 +1802,13 @@
         <v>95</v>
       </c>
       <c r="Q6">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="R6" t="s">
         <v>194</v>
       </c>
       <c r="S6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T6">
         <v>4</v>
@@ -1957,13 +1957,13 @@
         <v>96</v>
       </c>
       <c r="Q7">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="R7" t="s">
         <v>194</v>
       </c>
       <c r="S7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T7">
         <v>3</v>
@@ -2112,13 +2112,13 @@
         <v>97</v>
       </c>
       <c r="Q8">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="R8" t="s">
         <v>195</v>
       </c>
       <c r="S8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T8">
         <v>5</v>
@@ -2267,13 +2267,13 @@
         <v>98</v>
       </c>
       <c r="Q9">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="R9" t="s">
         <v>193</v>
       </c>
       <c r="S9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T9">
         <v>4</v>
@@ -2422,13 +2422,13 @@
         <v>99</v>
       </c>
       <c r="Q10">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="R10" t="s">
         <v>195</v>
       </c>
       <c r="S10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T10">
         <v>3</v>
@@ -2577,13 +2577,13 @@
         <v>100</v>
       </c>
       <c r="Q11">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="R11" t="s">
         <v>195</v>
       </c>
       <c r="S11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T11">
         <v>4</v>
@@ -2732,13 +2732,13 @@
         <v>101</v>
       </c>
       <c r="Q12">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="R12" t="s">
         <v>195</v>
       </c>
       <c r="S12">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T12">
         <v>6</v>
@@ -2887,13 +2887,13 @@
         <v>102</v>
       </c>
       <c r="Q13">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="R13" t="s">
         <v>193</v>
       </c>
       <c r="S13">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T13">
         <v>3</v>
@@ -3042,13 +3042,13 @@
         <v>103</v>
       </c>
       <c r="Q14">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="R14" t="s">
         <v>194</v>
       </c>
       <c r="S14">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T14">
         <v>4</v>
@@ -3197,13 +3197,13 @@
         <v>104</v>
       </c>
       <c r="Q15">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="R15" t="s">
         <v>194</v>
       </c>
       <c r="S15">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T15">
         <v>3</v>
@@ -3352,13 +3352,13 @@
         <v>105</v>
       </c>
       <c r="Q16">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="R16" t="s">
         <v>192</v>
       </c>
       <c r="S16">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T16">
         <v>3</v>
@@ -3507,13 +3507,13 @@
         <v>106</v>
       </c>
       <c r="Q17">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="R17" t="s">
         <v>193</v>
       </c>
       <c r="S17">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T17">
         <v>4</v>
@@ -3662,13 +3662,13 @@
         <v>107</v>
       </c>
       <c r="Q18">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="R18" t="s">
         <v>193</v>
       </c>
       <c r="S18">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T18">
         <v>8</v>
@@ -3817,13 +3817,13 @@
         <v>108</v>
       </c>
       <c r="Q19">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="R19" t="s">
         <v>195</v>
       </c>
       <c r="S19">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T19">
         <v>2</v>
@@ -3972,13 +3972,13 @@
         <v>109</v>
       </c>
       <c r="Q20">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="R20" t="s">
         <v>194</v>
       </c>
       <c r="S20">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T20">
         <v>3</v>
@@ -4127,13 +4127,13 @@
         <v>110</v>
       </c>
       <c r="Q21">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="R21" t="s">
         <v>193</v>
       </c>
       <c r="S21">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T21">
         <v>4</v>
@@ -4282,13 +4282,13 @@
         <v>111</v>
       </c>
       <c r="Q22">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="R22" t="s">
         <v>194</v>
       </c>
       <c r="S22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T22">
         <v>3</v>
@@ -4437,13 +4437,13 @@
         <v>112</v>
       </c>
       <c r="Q23">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="R23" t="s">
         <v>192</v>
       </c>
       <c r="S23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T23">
         <v>2</v>
@@ -4592,13 +4592,13 @@
         <v>113</v>
       </c>
       <c r="Q24">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="R24" t="s">
         <v>194</v>
       </c>
       <c r="S24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T24">
         <v>6</v>
@@ -4747,13 +4747,13 @@
         <v>114</v>
       </c>
       <c r="Q25">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="R25" t="s">
         <v>195</v>
       </c>
       <c r="S25">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T25">
         <v>4</v>
@@ -4902,13 +4902,13 @@
         <v>115</v>
       </c>
       <c r="Q26">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="R26" t="s">
         <v>193</v>
       </c>
       <c r="S26">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T26">
         <v>6</v>
@@ -5057,13 +5057,13 @@
         <v>116</v>
       </c>
       <c r="Q27">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="R27" t="s">
         <v>192</v>
       </c>
       <c r="S27">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T27">
         <v>5</v>
@@ -5212,13 +5212,13 @@
         <v>117</v>
       </c>
       <c r="Q28">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="R28" t="s">
         <v>194</v>
       </c>
       <c r="S28">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T28">
         <v>3</v>
@@ -5367,13 +5367,13 @@
         <v>118</v>
       </c>
       <c r="Q29">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="R29" t="s">
         <v>196</v>
       </c>
       <c r="S29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T29">
         <v>4</v>
@@ -5522,13 +5522,13 @@
         <v>119</v>
       </c>
       <c r="Q30">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="R30" t="s">
         <v>196</v>
       </c>
       <c r="S30">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T30">
         <v>3</v>
@@ -5677,13 +5677,13 @@
         <v>120</v>
       </c>
       <c r="Q31">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="R31" t="s">
         <v>192</v>
       </c>
       <c r="S31">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T31">
         <v>6</v>
@@ -5832,13 +5832,13 @@
         <v>121</v>
       </c>
       <c r="Q32">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="R32" t="s">
         <v>193</v>
       </c>
       <c r="S32">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T32">
         <v>2</v>
@@ -5987,13 +5987,13 @@
         <v>122</v>
       </c>
       <c r="Q33">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="R33" t="s">
         <v>192</v>
       </c>
       <c r="S33">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T33">
         <v>3</v>
@@ -6142,13 +6142,13 @@
         <v>123</v>
       </c>
       <c r="Q34">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="R34" t="s">
         <v>196</v>
       </c>
       <c r="S34">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T34">
         <v>3</v>
@@ -6297,13 +6297,13 @@
         <v>124</v>
       </c>
       <c r="Q35">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="R35" t="s">
         <v>192</v>
       </c>
       <c r="S35">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T35">
         <v>5</v>
@@ -6452,13 +6452,13 @@
         <v>125</v>
       </c>
       <c r="Q36">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="R36" t="s">
         <v>196</v>
       </c>
       <c r="S36">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T36">
         <v>2</v>
@@ -6607,13 +6607,13 @@
         <v>126</v>
       </c>
       <c r="Q37">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="R37" t="s">
         <v>192</v>
       </c>
       <c r="S37">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T37">
         <v>2</v>
@@ -6762,13 +6762,13 @@
         <v>127</v>
       </c>
       <c r="Q38">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="R38" t="s">
         <v>196</v>
       </c>
       <c r="S38">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T38">
         <v>2</v>
@@ -6917,13 +6917,13 @@
         <v>128</v>
       </c>
       <c r="Q39">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="R39" t="s">
         <v>195</v>
       </c>
       <c r="S39">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T39">
         <v>4</v>
@@ -7072,13 +7072,13 @@
         <v>129</v>
       </c>
       <c r="Q40">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="R40" t="s">
         <v>195</v>
       </c>
       <c r="S40">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T40">
         <v>2</v>

--- a/mip_winners.xlsx
+++ b/mip_winners.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="190">
   <si>
     <t>season_ending_year_x</t>
   </si>
@@ -181,12 +181,6 @@
     <t>2021</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
     <t>2018</t>
   </si>
   <si>
@@ -229,9 +223,6 @@
     <t>2005</t>
   </si>
   <si>
-    <t>2004</t>
-  </si>
-  <si>
     <t>2003</t>
   </si>
   <si>
@@ -301,12 +292,6 @@
     <t>Julius Randle</t>
   </si>
   <si>
-    <t>Brandon Ingram</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
     <t>Victor Oladipo</t>
   </si>
   <si>
@@ -349,9 +334,6 @@
     <t>Bobby Simmons</t>
   </si>
   <si>
-    <t>Zach Randolph</t>
-  </si>
-  <si>
     <t>Gilbert Arenas</t>
   </si>
   <si>
@@ -418,12 +400,6 @@
     <t>NYK</t>
   </si>
   <si>
-    <t>NOP</t>
-  </si>
-  <si>
-    <t>TOR</t>
-  </si>
-  <si>
     <t>IND</t>
   </si>
   <si>
@@ -487,12 +463,6 @@
     <t>2020-21</t>
   </si>
   <si>
-    <t>2019-20</t>
-  </si>
-  <si>
-    <t>2018-19</t>
-  </si>
-  <si>
     <t>2017-18</t>
   </si>
   <si>
@@ -535,9 +505,6 @@
     <t>2004-05</t>
   </si>
   <si>
-    <t>2003-04</t>
-  </si>
-  <si>
     <t>2002-03</t>
   </si>
   <si>
@@ -590,6 +557,9 @@
   </si>
   <si>
     <t>1985-86</t>
+  </si>
+  <si>
+    <t>Quincy Pondexter</t>
   </si>
   <si>
     <t>PG</t>
@@ -971,7 +941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY40"/>
+  <dimension ref="A1:AY37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1137,16 +1107,16 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F2">
         <v>51</v>
@@ -1161,7 +1131,7 @@
         <v>0.644</v>
       </c>
       <c r="J2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K2">
         <v>31843</v>
@@ -1170,7 +1140,7 @@
         <v>4893</v>
       </c>
       <c r="M2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="N2">
         <v>31843</v>
@@ -1179,13 +1149,13 @@
         <v>51</v>
       </c>
       <c r="P2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q2">
         <v>2000</v>
       </c>
       <c r="R2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="S2">
         <v>24</v>
@@ -1194,10 +1164,10 @@
         <v>4</v>
       </c>
       <c r="U2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="V2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="W2">
         <v>70</v>
@@ -1275,13 +1245,13 @@
         <v>25.9</v>
       </c>
       <c r="AV2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AW2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AX2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AY2">
         <v>2024</v>
@@ -1292,16 +1262,16 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F3">
         <v>69</v>
@@ -1316,7 +1286,7 @@
         <v>0.86</v>
       </c>
       <c r="J3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K3">
         <v>30871</v>
@@ -1325,7 +1295,7 @@
         <v>4535</v>
       </c>
       <c r="M3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="N3">
         <v>30871</v>
@@ -1334,13 +1304,13 @@
         <v>52</v>
       </c>
       <c r="P3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q3">
         <v>1997</v>
       </c>
       <c r="R3" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="S3">
         <v>26</v>
@@ -1349,10 +1319,10 @@
         <v>6</v>
       </c>
       <c r="U3" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="V3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="W3">
         <v>66</v>
@@ -1430,13 +1400,13 @@
         <v>25.6</v>
       </c>
       <c r="AV3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AW3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AX3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AY3">
         <v>2023</v>
@@ -1447,16 +1417,16 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
         <v>90</v>
-      </c>
-      <c r="C4" t="s">
-        <v>93</v>
       </c>
       <c r="D4">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F4">
         <v>38</v>
@@ -1471,7 +1441,7 @@
         <v>0.442</v>
       </c>
       <c r="J4" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K4">
         <v>29959</v>
@@ -1480,7 +1450,7 @@
         <v>4723</v>
       </c>
       <c r="M4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="N4">
         <v>29959</v>
@@ -1489,13 +1459,13 @@
         <v>53</v>
       </c>
       <c r="P4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Q4">
         <v>1999</v>
       </c>
       <c r="R4" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="S4">
         <v>23</v>
@@ -1504,10 +1474,10 @@
         <v>3</v>
       </c>
       <c r="U4" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="V4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="W4">
         <v>57</v>
@@ -1585,13 +1555,13 @@
         <v>27.4</v>
       </c>
       <c r="AV4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="AW4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AX4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AY4">
         <v>2022</v>
@@ -1602,16 +1572,16 @@
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F5">
         <v>98</v>
@@ -1626,7 +1596,7 @@
         <v>0.986</v>
       </c>
       <c r="J5" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K5">
         <v>29311</v>
@@ -1635,7 +1605,7 @@
         <v>4266</v>
       </c>
       <c r="M5" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="N5">
         <v>29311</v>
@@ -1644,13 +1614,13 @@
         <v>54</v>
       </c>
       <c r="P5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Q5">
         <v>1994</v>
       </c>
       <c r="R5" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="S5">
         <v>27</v>
@@ -1659,10 +1629,10 @@
         <v>7</v>
       </c>
       <c r="U5" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="V5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="W5">
         <v>71</v>
@@ -1740,13 +1710,13 @@
         <v>24.1</v>
       </c>
       <c r="AV5" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AW5" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="AX5" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AY5">
         <v>2021</v>
@@ -1757,154 +1727,154 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F6">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="G6">
-        <v>326</v>
+        <v>499</v>
       </c>
       <c r="H6">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="I6">
-        <v>0.652</v>
+        <v>0.988</v>
       </c>
       <c r="J6" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K6">
-        <v>28348</v>
+        <v>27554</v>
       </c>
       <c r="L6">
-        <v>4379</v>
+        <v>4217</v>
       </c>
       <c r="M6" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="N6">
-        <v>28348</v>
+        <v>27554</v>
       </c>
       <c r="O6" t="s">
         <v>55</v>
       </c>
       <c r="P6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q6">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="R6" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="S6">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="T6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U6" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="V6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="W6">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="X6">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="Y6">
-        <v>33.9</v>
+        <v>34</v>
       </c>
       <c r="Z6">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="AA6">
-        <v>17.7</v>
+        <v>17.9</v>
       </c>
       <c r="AB6">
-        <v>0.463</v>
+        <v>0.477</v>
       </c>
       <c r="AC6">
+        <v>2.1</v>
+      </c>
+      <c r="AD6">
+        <v>5.8</v>
+      </c>
+      <c r="AE6">
+        <v>0.371</v>
+      </c>
+      <c r="AF6">
+        <v>6.4</v>
+      </c>
+      <c r="AG6">
+        <v>12.1</v>
+      </c>
+      <c r="AH6">
+        <v>0.528</v>
+      </c>
+      <c r="AI6">
+        <v>0.537</v>
+      </c>
+      <c r="AJ6">
+        <v>3.9</v>
+      </c>
+      <c r="AK6">
+        <v>4.9</v>
+      </c>
+      <c r="AL6">
+        <v>0.799</v>
+      </c>
+      <c r="AM6">
+        <v>0.6</v>
+      </c>
+      <c r="AN6">
+        <v>4.6</v>
+      </c>
+      <c r="AO6">
+        <v>5.2</v>
+      </c>
+      <c r="AP6">
+        <v>4.3</v>
+      </c>
+      <c r="AQ6">
         <v>2.4</v>
       </c>
-      <c r="AD6">
-        <v>6.2</v>
-      </c>
-      <c r="AE6">
-        <v>0.391</v>
-      </c>
-      <c r="AF6">
-        <v>5.8</v>
-      </c>
-      <c r="AG6">
-        <v>11.5</v>
-      </c>
-      <c r="AH6">
-        <v>0.501</v>
-      </c>
-      <c r="AI6">
-        <v>0.531</v>
-      </c>
-      <c r="AJ6">
-        <v>5</v>
-      </c>
-      <c r="AK6">
-        <v>5.9</v>
-      </c>
-      <c r="AL6">
-        <v>0.851</v>
-      </c>
-      <c r="AM6">
+      <c r="AR6">
         <v>0.8</v>
       </c>
-      <c r="AN6">
-        <v>5.3</v>
-      </c>
-      <c r="AO6">
-        <v>6.1</v>
-      </c>
-      <c r="AP6">
-        <v>4.2</v>
-      </c>
-      <c r="AQ6">
-        <v>1</v>
-      </c>
-      <c r="AR6">
-        <v>0.6</v>
-      </c>
       <c r="AS6">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AT6">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="AU6">
-        <v>23.8</v>
+        <v>23.1</v>
       </c>
       <c r="AV6" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="AW6" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AX6" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AY6">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="7" spans="1:51">
@@ -1912,154 +1882,154 @@
         <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F7">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G7">
-        <v>469</v>
+        <v>428</v>
       </c>
       <c r="H7">
         <v>500</v>
       </c>
       <c r="I7">
-        <v>0.9379999999999999</v>
+        <v>0.856</v>
       </c>
       <c r="J7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K7">
-        <v>28100</v>
+        <v>26526</v>
       </c>
       <c r="L7">
-        <v>4437</v>
+        <v>4164</v>
       </c>
       <c r="M7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="N7">
-        <v>28100</v>
+        <v>26526</v>
       </c>
       <c r="O7" t="s">
         <v>56</v>
       </c>
       <c r="P7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Q7">
         <v>1994</v>
       </c>
       <c r="R7" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="S7">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U7" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="V7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="W7">
         <v>80</v>
       </c>
       <c r="X7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y7">
-        <v>31.9</v>
+        <v>35.6</v>
       </c>
       <c r="Z7">
-        <v>6.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA7">
-        <v>11.8</v>
+        <v>15.7</v>
       </c>
       <c r="AB7">
-        <v>0.549</v>
+        <v>0.521</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AD7">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="AE7">
-        <v>0.369</v>
+        <v>0.272</v>
       </c>
       <c r="AF7">
-        <v>5.5</v>
+        <v>7.6</v>
       </c>
       <c r="AG7">
-        <v>9.1</v>
+        <v>13.5</v>
       </c>
       <c r="AH7">
-        <v>0.602</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="AI7">
-        <v>0.591</v>
+        <v>0.541</v>
       </c>
       <c r="AJ7">
-        <v>3</v>
+        <v>5.9</v>
       </c>
       <c r="AK7">
-        <v>3.8</v>
+        <v>7.7</v>
       </c>
       <c r="AL7">
-        <v>0.785</v>
+        <v>0.77</v>
       </c>
       <c r="AM7">
+        <v>1.8</v>
+      </c>
+      <c r="AN7">
+        <v>7</v>
+      </c>
+      <c r="AO7">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AP7">
+        <v>5.4</v>
+      </c>
+      <c r="AQ7">
         <v>1.6</v>
       </c>
-      <c r="AN7">
-        <v>5.3</v>
-      </c>
-      <c r="AO7">
-        <v>6.9</v>
-      </c>
-      <c r="AP7">
+      <c r="AR7">
+        <v>1.9</v>
+      </c>
+      <c r="AS7">
+        <v>2.9</v>
+      </c>
+      <c r="AT7">
         <v>3.1</v>
       </c>
-      <c r="AQ7">
-        <v>0.9</v>
-      </c>
-      <c r="AR7">
-        <v>0.7</v>
-      </c>
-      <c r="AS7">
-        <v>1.9</v>
-      </c>
-      <c r="AT7">
-        <v>3</v>
-      </c>
       <c r="AU7">
-        <v>16.9</v>
+        <v>22.9</v>
       </c>
       <c r="AV7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="AW7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AX7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AY7">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="8" spans="1:51">
@@ -2067,154 +2037,154 @@
         <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G8">
-        <v>499</v>
+        <v>559</v>
       </c>
       <c r="H8">
-        <v>505</v>
+        <v>650</v>
       </c>
       <c r="I8">
-        <v>0.988</v>
+        <v>0.86</v>
       </c>
       <c r="J8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K8">
-        <v>27554</v>
+        <v>25847</v>
       </c>
       <c r="L8">
-        <v>4217</v>
+        <v>4154</v>
       </c>
       <c r="M8" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="N8">
-        <v>27554</v>
+        <v>25847</v>
       </c>
       <c r="O8" t="s">
         <v>57</v>
       </c>
       <c r="P8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q8">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="R8" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="S8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U8" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="V8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="W8">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="X8">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Y8">
-        <v>34</v>
+        <v>34.8</v>
       </c>
       <c r="Z8">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA8">
         <v>17.9</v>
       </c>
       <c r="AB8">
-        <v>0.477</v>
+        <v>0.448</v>
       </c>
       <c r="AC8">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="AD8">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AE8">
-        <v>0.371</v>
+        <v>0.417</v>
       </c>
       <c r="AF8">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="AG8">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="AH8">
-        <v>0.528</v>
+        <v>0.463</v>
       </c>
       <c r="AI8">
-        <v>0.537</v>
+        <v>0.517</v>
       </c>
       <c r="AJ8">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="AK8">
-        <v>4.9</v>
+        <v>2.8</v>
       </c>
       <c r="AL8">
-        <v>0.799</v>
+        <v>0.827</v>
       </c>
       <c r="AM8">
         <v>0.6</v>
       </c>
       <c r="AN8">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="AO8">
-        <v>5.2</v>
+        <v>3.2</v>
       </c>
       <c r="AP8">
         <v>4.3</v>
       </c>
       <c r="AQ8">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="AR8">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="AS8">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="AT8">
         <v>2.3</v>
       </c>
       <c r="AU8">
-        <v>23.1</v>
+        <v>20.8</v>
       </c>
       <c r="AV8" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="AW8" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AX8" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AY8">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="9" spans="1:51">
@@ -2222,154 +2192,154 @@
         <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F9">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G9">
-        <v>428</v>
+        <v>535</v>
       </c>
       <c r="H9">
-        <v>500</v>
+        <v>645</v>
       </c>
       <c r="I9">
-        <v>0.856</v>
+        <v>0.829</v>
       </c>
       <c r="J9" t="s">
+        <v>144</v>
+      </c>
+      <c r="K9">
+        <v>25402</v>
+      </c>
+      <c r="L9">
+        <v>4023</v>
+      </c>
+      <c r="M9" t="s">
         <v>152</v>
       </c>
-      <c r="K9">
-        <v>26526</v>
-      </c>
-      <c r="L9">
-        <v>4164</v>
-      </c>
-      <c r="M9" t="s">
-        <v>160</v>
-      </c>
       <c r="N9">
-        <v>26526</v>
+        <v>25402</v>
       </c>
       <c r="O9" t="s">
         <v>58</v>
       </c>
       <c r="P9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q9">
-        <v>1994</v>
+        <v>1989</v>
       </c>
       <c r="R9" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="S9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="T9">
         <v>4</v>
       </c>
       <c r="U9" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="V9" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="W9">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="X9">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Y9">
-        <v>35.6</v>
+        <v>38.7</v>
       </c>
       <c r="Z9">
-        <v>8.199999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="AA9">
-        <v>15.7</v>
+        <v>14</v>
       </c>
       <c r="AB9">
-        <v>0.521</v>
+        <v>0.462</v>
       </c>
       <c r="AC9">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="AD9">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="AE9">
-        <v>0.272</v>
+        <v>0.378</v>
       </c>
       <c r="AF9">
-        <v>7.6</v>
+        <v>5.4</v>
       </c>
       <c r="AG9">
-        <v>13.5</v>
+        <v>11.1</v>
       </c>
       <c r="AH9">
-        <v>0.5629999999999999</v>
+        <v>0.484</v>
       </c>
       <c r="AI9">
-        <v>0.541</v>
+        <v>0.502</v>
       </c>
       <c r="AJ9">
         <v>5.9</v>
       </c>
       <c r="AK9">
-        <v>7.7</v>
+        <v>7.1</v>
       </c>
       <c r="AL9">
-        <v>0.77</v>
+        <v>0.834</v>
       </c>
       <c r="AM9">
         <v>1.8</v>
       </c>
       <c r="AN9">
-        <v>7</v>
+        <v>4.1</v>
       </c>
       <c r="AO9">
-        <v>8.800000000000001</v>
+        <v>5.8</v>
       </c>
       <c r="AP9">
-        <v>5.4</v>
+        <v>3.3</v>
       </c>
       <c r="AQ9">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AR9">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="AS9">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="AT9">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="AU9">
-        <v>22.9</v>
+        <v>20</v>
       </c>
       <c r="AV9" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="AW9" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AX9" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AY9">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="10" spans="1:51">
@@ -2377,154 +2347,154 @@
         <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F10">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="G10">
-        <v>559</v>
+        <v>408</v>
       </c>
       <c r="H10">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="I10">
-        <v>0.86</v>
+        <v>0.648</v>
       </c>
       <c r="J10" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K10">
-        <v>25847</v>
+        <v>24695</v>
       </c>
       <c r="L10">
-        <v>4154</v>
+        <v>3817</v>
       </c>
       <c r="M10" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="N10">
-        <v>25847</v>
+        <v>24695</v>
       </c>
       <c r="O10" t="s">
         <v>59</v>
       </c>
       <c r="P10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="Q10">
-        <v>1991</v>
+        <v>1986</v>
       </c>
       <c r="R10" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="S10">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U10" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="V10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="W10">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="X10">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Y10">
-        <v>34.8</v>
+        <v>35.1</v>
       </c>
       <c r="Z10">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="AA10">
-        <v>17.9</v>
+        <v>14.4</v>
       </c>
       <c r="AB10">
-        <v>0.448</v>
+        <v>0.505</v>
       </c>
       <c r="AC10">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="AD10">
-        <v>5.9</v>
+        <v>3.9</v>
       </c>
       <c r="AE10">
-        <v>0.417</v>
+        <v>0.408</v>
       </c>
       <c r="AF10">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AG10">
-        <v>12</v>
+        <v>10.4</v>
       </c>
       <c r="AH10">
-        <v>0.463</v>
+        <v>0.542</v>
       </c>
       <c r="AI10">
-        <v>0.517</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="AJ10">
+        <v>4.2</v>
+      </c>
+      <c r="AK10">
+        <v>5.5</v>
+      </c>
+      <c r="AL10">
+        <v>0.76</v>
+      </c>
+      <c r="AM10">
+        <v>0.9</v>
+      </c>
+      <c r="AN10">
         <v>2.3</v>
-      </c>
-      <c r="AK10">
-        <v>2.8</v>
-      </c>
-      <c r="AL10">
-        <v>0.827</v>
-      </c>
-      <c r="AM10">
-        <v>0.6</v>
-      </c>
-      <c r="AN10">
-        <v>2.7</v>
       </c>
       <c r="AO10">
         <v>3.2</v>
       </c>
       <c r="AP10">
-        <v>4.3</v>
+        <v>5.9</v>
       </c>
       <c r="AQ10">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AR10">
         <v>0.3</v>
       </c>
       <c r="AS10">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="AT10">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="AU10">
-        <v>20.8</v>
+        <v>20.3</v>
       </c>
       <c r="AV10" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="AW10" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AX10" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AY10">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="11" spans="1:51">
@@ -2532,154 +2502,154 @@
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F11">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="G11">
-        <v>535</v>
+        <v>311</v>
       </c>
       <c r="H11">
-        <v>645</v>
+        <v>600</v>
       </c>
       <c r="I11">
-        <v>0.829</v>
+        <v>0.518</v>
       </c>
       <c r="J11" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K11">
-        <v>25402</v>
+        <v>24357</v>
       </c>
       <c r="L11">
-        <v>4023</v>
+        <v>3969</v>
       </c>
       <c r="M11" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="N11">
-        <v>25402</v>
+        <v>24364</v>
       </c>
       <c r="O11" t="s">
         <v>60</v>
       </c>
       <c r="P11" t="s">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="Q11">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="R11" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="S11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U11" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="V11" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="W11">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="X11">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="Y11">
-        <v>38.7</v>
+        <v>21.1</v>
       </c>
       <c r="Z11">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="AA11">
-        <v>14</v>
+        <v>5.1</v>
       </c>
       <c r="AB11">
-        <v>0.462</v>
+        <v>0.428</v>
       </c>
       <c r="AC11">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AE11">
-        <v>0.378</v>
+        <v>0.395</v>
       </c>
       <c r="AF11">
-        <v>5.4</v>
+        <v>1.2</v>
       </c>
       <c r="AG11">
-        <v>11.1</v>
+        <v>2.5</v>
       </c>
       <c r="AH11">
-        <v>0.484</v>
+        <v>0.463</v>
       </c>
       <c r="AI11">
-        <v>0.502</v>
+        <v>0.528</v>
       </c>
       <c r="AJ11">
-        <v>5.9</v>
+        <v>1</v>
       </c>
       <c r="AK11">
-        <v>7.1</v>
+        <v>1.3</v>
       </c>
       <c r="AL11">
-        <v>0.834</v>
+        <v>0.787</v>
       </c>
       <c r="AM11">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="AN11">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="AO11">
-        <v>5.8</v>
+        <v>2.2</v>
       </c>
       <c r="AP11">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="AR11">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AS11">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="AT11">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AU11">
-        <v>20</v>
+        <v>6.4</v>
       </c>
       <c r="AV11" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="AW11" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AX11" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AY11">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="12" spans="1:51">
@@ -2687,154 +2657,154 @@
         <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F12">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="G12">
-        <v>408</v>
+        <v>260</v>
       </c>
       <c r="H12">
-        <v>630</v>
+        <v>605</v>
       </c>
       <c r="I12">
-        <v>0.648</v>
+        <v>0.43</v>
       </c>
       <c r="J12" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K12">
-        <v>24695</v>
+        <v>23823</v>
       </c>
       <c r="L12">
-        <v>3817</v>
+        <v>3850</v>
       </c>
       <c r="M12" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="N12">
-        <v>24695</v>
+        <v>23823</v>
       </c>
       <c r="O12" t="s">
         <v>61</v>
       </c>
       <c r="P12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q12">
-        <v>1986</v>
+        <v>1988</v>
       </c>
       <c r="R12" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="S12">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="T12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U12" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="V12" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="W12">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="X12">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="Y12">
-        <v>35.1</v>
+        <v>32.2</v>
       </c>
       <c r="Z12">
-        <v>7.3</v>
+        <v>5.4</v>
       </c>
       <c r="AA12">
-        <v>14.4</v>
+        <v>12.4</v>
       </c>
       <c r="AB12">
-        <v>0.505</v>
+        <v>0.439</v>
       </c>
       <c r="AC12">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="AD12">
-        <v>3.9</v>
+        <v>6.9</v>
       </c>
       <c r="AE12">
-        <v>0.408</v>
+        <v>0.393</v>
       </c>
       <c r="AF12">
-        <v>5.7</v>
+        <v>2.7</v>
       </c>
       <c r="AG12">
-        <v>10.4</v>
+        <v>5.5</v>
       </c>
       <c r="AH12">
-        <v>0.542</v>
+        <v>0.496</v>
       </c>
       <c r="AI12">
-        <v>0.5610000000000001</v>
+        <v>0.548</v>
       </c>
       <c r="AJ12">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="AK12">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="AL12">
-        <v>0.76</v>
+        <v>0.877</v>
       </c>
       <c r="AM12">
+        <v>3.7</v>
+      </c>
+      <c r="AN12">
+        <v>4</v>
+      </c>
+      <c r="AO12">
+        <v>7.7</v>
+      </c>
+      <c r="AP12">
         <v>0.9</v>
       </c>
-      <c r="AN12">
-        <v>2.3</v>
-      </c>
-      <c r="AO12">
-        <v>3.2</v>
-      </c>
-      <c r="AP12">
-        <v>5.9</v>
-      </c>
       <c r="AQ12">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="AR12">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AS12">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="AT12">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="AU12">
-        <v>20.3</v>
+        <v>16.1</v>
       </c>
       <c r="AV12" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="AW12" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AX12" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AY12">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="13" spans="1:51">
@@ -2842,55 +2812,55 @@
         <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D13">
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F13">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="G13">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="H13">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="I13">
-        <v>0.518</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J13" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K13">
-        <v>24357</v>
+        <v>23088</v>
       </c>
       <c r="L13">
-        <v>3969</v>
+        <v>3830</v>
       </c>
       <c r="M13" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="N13">
-        <v>24357</v>
+        <v>23088</v>
       </c>
       <c r="O13" t="s">
         <v>62</v>
       </c>
       <c r="P13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Q13">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="R13" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="S13">
         <v>23</v>
@@ -2899,97 +2869,97 @@
         <v>3</v>
       </c>
       <c r="U13" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="V13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="W13">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="X13">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="Y13">
-        <v>37.6</v>
+        <v>35.8</v>
       </c>
       <c r="Z13">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AA13">
-        <v>14.9</v>
+        <v>14.1</v>
       </c>
       <c r="AB13">
-        <v>0.419</v>
+        <v>0.47</v>
       </c>
       <c r="AC13">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="AD13">
-        <v>5.9</v>
+        <v>2.9</v>
       </c>
       <c r="AE13">
-        <v>0.362</v>
+        <v>0.417</v>
       </c>
       <c r="AF13">
-        <v>4.1</v>
+        <v>5.4</v>
       </c>
       <c r="AG13">
-        <v>8.9</v>
+        <v>11.2</v>
       </c>
       <c r="AH13">
-        <v>0.457</v>
+        <v>0.483</v>
       </c>
       <c r="AI13">
-        <v>0.491</v>
+        <v>0.513</v>
       </c>
       <c r="AJ13">
-        <v>2.8</v>
+        <v>5.8</v>
       </c>
       <c r="AK13">
-        <v>3.5</v>
+        <v>6.8</v>
       </c>
       <c r="AL13">
-        <v>0.8070000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AM13">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="AN13">
-        <v>6.5</v>
+        <v>10.7</v>
       </c>
       <c r="AO13">
-        <v>7.6</v>
+        <v>15.2</v>
       </c>
       <c r="AP13">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="AQ13">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="AR13">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AS13">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="AT13">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="AU13">
-        <v>17.4</v>
+        <v>20.2</v>
       </c>
       <c r="AV13" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="AW13" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="AX13" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AY13">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="14" spans="1:51">
@@ -2997,154 +2967,154 @@
         <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D14">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F14">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="G14">
-        <v>260</v>
+        <v>403</v>
       </c>
       <c r="H14">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="I14">
-        <v>0.43</v>
+        <v>0.655</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K14">
-        <v>23823</v>
+        <v>22157</v>
       </c>
       <c r="L14">
-        <v>3850</v>
+        <v>3731</v>
       </c>
       <c r="M14" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="N14">
-        <v>23823</v>
+        <v>22157</v>
       </c>
       <c r="O14" t="s">
         <v>63</v>
       </c>
       <c r="P14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q14">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="R14" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="S14">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U14" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="V14" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="W14">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="X14">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="Y14">
-        <v>32.2</v>
+        <v>35.6</v>
       </c>
       <c r="Z14">
-        <v>5.4</v>
+        <v>7</v>
       </c>
       <c r="AA14">
-        <v>12.4</v>
+        <v>16.2</v>
       </c>
       <c r="AB14">
-        <v>0.439</v>
+        <v>0.432</v>
       </c>
       <c r="AC14">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="AD14">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="AE14">
-        <v>0.393</v>
+        <v>0.398</v>
       </c>
       <c r="AF14">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="AG14">
-        <v>5.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH14">
-        <v>0.496</v>
+        <v>0.454</v>
       </c>
       <c r="AI14">
-        <v>0.548</v>
+        <v>0.511</v>
       </c>
       <c r="AJ14">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AK14">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="AL14">
-        <v>0.877</v>
+        <v>0.822</v>
       </c>
       <c r="AM14">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="AN14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO14">
-        <v>7.7</v>
+        <v>2.6</v>
       </c>
       <c r="AP14">
-        <v>0.9</v>
+        <v>5.3</v>
       </c>
       <c r="AQ14">
         <v>0.8</v>
       </c>
       <c r="AR14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AS14">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="AT14">
         <v>2.4</v>
       </c>
       <c r="AU14">
-        <v>16.1</v>
+        <v>19.6</v>
       </c>
       <c r="AV14" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="AW14" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AX14" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AY14">
-        <v>2012</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="15" spans="1:51">
@@ -3152,154 +3122,154 @@
         <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="F15">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G15">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="H15">
-        <v>580</v>
+        <v>605</v>
       </c>
       <c r="I15">
-        <v>0.6899999999999999</v>
+        <v>0.602</v>
       </c>
       <c r="J15" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K15">
-        <v>23088</v>
+        <v>21718</v>
       </c>
       <c r="L15">
-        <v>3830</v>
+        <v>3589</v>
       </c>
       <c r="M15" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="N15">
-        <v>23088</v>
+        <v>21718</v>
       </c>
       <c r="O15" t="s">
         <v>64</v>
       </c>
       <c r="P15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q15">
-        <v>1988</v>
+        <v>1983</v>
       </c>
       <c r="R15" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="S15">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U15" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="V15" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="W15">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="X15">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="Y15">
-        <v>35.8</v>
+        <v>36.2</v>
       </c>
       <c r="Z15">
-        <v>6.6</v>
+        <v>8.5</v>
       </c>
       <c r="AA15">
-        <v>14.1</v>
+        <v>19.1</v>
       </c>
       <c r="AB15">
+        <v>0.447</v>
+      </c>
+      <c r="AC15">
+        <v>2.7</v>
+      </c>
+      <c r="AD15">
+        <v>6.7</v>
+      </c>
+      <c r="AE15">
+        <v>0.404</v>
+      </c>
+      <c r="AF15">
+        <v>5.8</v>
+      </c>
+      <c r="AG15">
+        <v>12.3</v>
+      </c>
+      <c r="AH15">
         <v>0.47</v>
       </c>
-      <c r="AC15">
-        <v>1.2</v>
-      </c>
-      <c r="AD15">
-        <v>2.9</v>
-      </c>
-      <c r="AE15">
-        <v>0.417</v>
-      </c>
-      <c r="AF15">
-        <v>5.4</v>
-      </c>
-      <c r="AG15">
-        <v>11.2</v>
-      </c>
-      <c r="AH15">
-        <v>0.483</v>
-      </c>
       <c r="AI15">
-        <v>0.513</v>
+        <v>0.518</v>
       </c>
       <c r="AJ15">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AK15">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AL15">
-        <v>0.85</v>
+        <v>0.878</v>
       </c>
       <c r="AM15">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="AN15">
-        <v>10.7</v>
+        <v>4.4</v>
       </c>
       <c r="AO15">
-        <v>15.2</v>
+        <v>5.1</v>
       </c>
       <c r="AP15">
+        <v>2.7</v>
+      </c>
+      <c r="AQ15">
+        <v>1</v>
+      </c>
+      <c r="AR15">
+        <v>1.4</v>
+      </c>
+      <c r="AS15">
         <v>2.5</v>
       </c>
-      <c r="AQ15">
-        <v>0.6</v>
-      </c>
-      <c r="AR15">
-        <v>0.4</v>
-      </c>
-      <c r="AS15">
-        <v>2.1</v>
-      </c>
       <c r="AT15">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="AU15">
-        <v>20.2</v>
+        <v>25.8</v>
       </c>
       <c r="AV15" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="AW15" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="AX15" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AY15">
-        <v>2011</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="16" spans="1:51">
@@ -3307,67 +3277,67 @@
         <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F16">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G16">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="H16">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="I16">
-        <v>0.655</v>
+        <v>0.608</v>
       </c>
       <c r="J16" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K16">
-        <v>22157</v>
+        <v>21195</v>
       </c>
       <c r="L16">
-        <v>3731</v>
+        <v>3252</v>
       </c>
       <c r="M16" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="N16">
-        <v>22157</v>
+        <v>21195</v>
       </c>
       <c r="O16" t="s">
         <v>65</v>
       </c>
       <c r="P16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q16">
-        <v>1984</v>
+        <v>1979</v>
       </c>
       <c r="R16" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="S16">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="T16">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="U16" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="V16" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="W16">
         <v>82</v>
@@ -3376,85 +3346,85 @@
         <v>82</v>
       </c>
       <c r="Y16">
-        <v>35.6</v>
+        <v>36.9</v>
       </c>
       <c r="Z16">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AA16">
-        <v>16.2</v>
+        <v>14.9</v>
       </c>
       <c r="AB16">
-        <v>0.432</v>
+        <v>0.456</v>
       </c>
       <c r="AC16">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AD16">
-        <v>6.4</v>
+        <v>5.1</v>
       </c>
       <c r="AE16">
-        <v>0.398</v>
+        <v>0.4</v>
       </c>
       <c r="AF16">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AG16">
         <v>9.800000000000001</v>
       </c>
       <c r="AH16">
-        <v>0.454</v>
+        <v>0.485</v>
       </c>
       <c r="AI16">
-        <v>0.511</v>
+        <v>0.524</v>
       </c>
       <c r="AJ16">
+        <v>4</v>
+      </c>
+      <c r="AK16">
+        <v>4.8</v>
+      </c>
+      <c r="AL16">
+        <v>0.829</v>
+      </c>
+      <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>4.7</v>
+      </c>
+      <c r="AO16">
+        <v>5.7</v>
+      </c>
+      <c r="AP16">
+        <v>5</v>
+      </c>
+      <c r="AQ16">
+        <v>0.9</v>
+      </c>
+      <c r="AR16">
+        <v>0.3</v>
+      </c>
+      <c r="AS16">
         <v>3</v>
       </c>
-      <c r="AK16">
-        <v>3.6</v>
-      </c>
-      <c r="AL16">
-        <v>0.822</v>
-      </c>
-      <c r="AM16">
-        <v>0.7</v>
-      </c>
-      <c r="AN16">
-        <v>2</v>
-      </c>
-      <c r="AO16">
-        <v>2.6</v>
-      </c>
-      <c r="AP16">
-        <v>5.3</v>
-      </c>
-      <c r="AQ16">
-        <v>0.8</v>
-      </c>
-      <c r="AR16">
-        <v>0.2</v>
-      </c>
-      <c r="AS16">
-        <v>2.8</v>
-      </c>
       <c r="AT16">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AU16">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AV16" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AW16" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AX16" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AY16">
-        <v>2010</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="17" spans="1:51">
@@ -3462,154 +3432,154 @@
         <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
         <v>136</v>
       </c>
       <c r="F17">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G17">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="H17">
-        <v>605</v>
+        <v>645</v>
       </c>
       <c r="I17">
-        <v>0.602</v>
+        <v>0.546</v>
       </c>
       <c r="J17" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K17">
-        <v>21718</v>
+        <v>20828</v>
       </c>
       <c r="L17">
-        <v>3589</v>
+        <v>3627</v>
       </c>
       <c r="M17" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="N17">
-        <v>21718</v>
+        <v>20828</v>
       </c>
       <c r="O17" t="s">
         <v>66</v>
       </c>
       <c r="P17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Q17">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="R17" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="S17">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="T17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U17" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="V17" t="s">
         <v>136</v>
       </c>
       <c r="W17">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="X17">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="Y17">
-        <v>36.2</v>
+        <v>34.3</v>
       </c>
       <c r="Z17">
-        <v>8.5</v>
+        <v>6.2</v>
       </c>
       <c r="AA17">
-        <v>19.1</v>
+        <v>13.1</v>
       </c>
       <c r="AB17">
-        <v>0.447</v>
+        <v>0.475</v>
       </c>
       <c r="AC17">
+        <v>0.5</v>
+      </c>
+      <c r="AD17">
+        <v>1.9</v>
+      </c>
+      <c r="AE17">
+        <v>0.273</v>
+      </c>
+      <c r="AF17">
+        <v>5.7</v>
+      </c>
+      <c r="AG17">
+        <v>11.3</v>
+      </c>
+      <c r="AH17">
+        <v>0.509</v>
+      </c>
+      <c r="AI17">
+        <v>0.495</v>
+      </c>
+      <c r="AJ17">
+        <v>3.5</v>
+      </c>
+      <c r="AK17">
+        <v>4.6</v>
+      </c>
+      <c r="AL17">
+        <v>0.763</v>
+      </c>
+      <c r="AM17">
+        <v>0.8</v>
+      </c>
+      <c r="AN17">
+        <v>2.4</v>
+      </c>
+      <c r="AO17">
+        <v>3.2</v>
+      </c>
+      <c r="AP17">
+        <v>4.1</v>
+      </c>
+      <c r="AQ17">
+        <v>1.7</v>
+      </c>
+      <c r="AR17">
+        <v>0.3</v>
+      </c>
+      <c r="AS17">
+        <v>2.9</v>
+      </c>
+      <c r="AT17">
         <v>2.7</v>
       </c>
-      <c r="AD17">
-        <v>6.7</v>
-      </c>
-      <c r="AE17">
-        <v>0.404</v>
-      </c>
-      <c r="AF17">
-        <v>5.8</v>
-      </c>
-      <c r="AG17">
-        <v>12.3</v>
-      </c>
-      <c r="AH17">
-        <v>0.47</v>
-      </c>
-      <c r="AI17">
-        <v>0.518</v>
-      </c>
-      <c r="AJ17">
-        <v>6</v>
-      </c>
-      <c r="AK17">
-        <v>6.9</v>
-      </c>
-      <c r="AL17">
-        <v>0.878</v>
-      </c>
-      <c r="AM17">
-        <v>0.7</v>
-      </c>
-      <c r="AN17">
-        <v>4.4</v>
-      </c>
-      <c r="AO17">
-        <v>5.1</v>
-      </c>
-      <c r="AP17">
-        <v>2.7</v>
-      </c>
-      <c r="AQ17">
-        <v>1</v>
-      </c>
-      <c r="AR17">
-        <v>1.4</v>
-      </c>
-      <c r="AS17">
-        <v>2.5</v>
-      </c>
-      <c r="AT17">
-        <v>3.1</v>
-      </c>
       <c r="AU17">
-        <v>25.8</v>
+        <v>16.5</v>
       </c>
       <c r="AV17" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="AW17" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AX17" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AY17">
-        <v>2009</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="18" spans="1:51">
@@ -3617,154 +3587,154 @@
         <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D18">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F18">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="G18">
-        <v>380</v>
+        <v>489</v>
       </c>
       <c r="H18">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="I18">
-        <v>0.608</v>
+        <v>0.776</v>
       </c>
       <c r="J18" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K18">
-        <v>21195</v>
+        <v>19960</v>
       </c>
       <c r="L18">
-        <v>3252</v>
+        <v>3431</v>
       </c>
       <c r="M18" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="N18">
-        <v>21195</v>
+        <v>19960</v>
       </c>
       <c r="O18" t="s">
         <v>67</v>
       </c>
       <c r="P18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Q18">
-        <v>1979</v>
+        <v>1982</v>
       </c>
       <c r="R18" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="S18">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T18">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U18" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="V18" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="W18">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X18">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="Y18">
-        <v>36.9</v>
+        <v>35.5</v>
       </c>
       <c r="Z18">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="AA18">
-        <v>14.9</v>
+        <v>10.5</v>
       </c>
       <c r="AB18">
-        <v>0.456</v>
+        <v>0.526</v>
       </c>
       <c r="AC18">
+        <v>0.1</v>
+      </c>
+      <c r="AD18">
+        <v>0.4</v>
+      </c>
+      <c r="AE18">
+        <v>0.267</v>
+      </c>
+      <c r="AF18">
+        <v>5.4</v>
+      </c>
+      <c r="AG18">
+        <v>10.2</v>
+      </c>
+      <c r="AH18">
+        <v>0.536</v>
+      </c>
+      <c r="AI18">
+        <v>0.531</v>
+      </c>
+      <c r="AJ18">
+        <v>2.1</v>
+      </c>
+      <c r="AK18">
+        <v>2.9</v>
+      </c>
+      <c r="AL18">
+        <v>0.731</v>
+      </c>
+      <c r="AM18">
         <v>2</v>
       </c>
-      <c r="AD18">
-        <v>5.1</v>
-      </c>
-      <c r="AE18">
-        <v>0.4</v>
-      </c>
-      <c r="AF18">
-        <v>4.8</v>
-      </c>
-      <c r="AG18">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH18">
-        <v>0.485</v>
-      </c>
-      <c r="AI18">
-        <v>0.524</v>
-      </c>
-      <c r="AJ18">
-        <v>4</v>
-      </c>
-      <c r="AK18">
-        <v>4.8</v>
-      </c>
-      <c r="AL18">
-        <v>0.829</v>
-      </c>
-      <c r="AM18">
+      <c r="AN18">
+        <v>4.9</v>
+      </c>
+      <c r="AO18">
+        <v>6.9</v>
+      </c>
+      <c r="AP18">
+        <v>6.2</v>
+      </c>
+      <c r="AQ18">
+        <v>0.7</v>
+      </c>
+      <c r="AR18">
         <v>1</v>
       </c>
-      <c r="AN18">
-        <v>4.7</v>
-      </c>
-      <c r="AO18">
-        <v>5.7</v>
-      </c>
-      <c r="AP18">
-        <v>5</v>
-      </c>
-      <c r="AQ18">
-        <v>0.9</v>
-      </c>
-      <c r="AR18">
-        <v>0.3</v>
-      </c>
       <c r="AS18">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="AT18">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AU18">
-        <v>19.5</v>
+        <v>13.3</v>
       </c>
       <c r="AV18" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="AW18" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AX18" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AY18">
-        <v>2008</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="19" spans="1:51">
@@ -3772,154 +3742,154 @@
         <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D19">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19">
+        <v>59</v>
+      </c>
+      <c r="G19">
+        <v>384</v>
+      </c>
+      <c r="H19">
+        <v>615</v>
+      </c>
+      <c r="I19">
+        <v>0.624</v>
+      </c>
+      <c r="J19" t="s">
         <v>144</v>
       </c>
-      <c r="F19">
-        <v>47</v>
-      </c>
-      <c r="G19">
-        <v>352</v>
-      </c>
-      <c r="H19">
-        <v>645</v>
-      </c>
-      <c r="I19">
-        <v>0.546</v>
-      </c>
-      <c r="J19" t="s">
-        <v>152</v>
-      </c>
       <c r="K19">
-        <v>20828</v>
+        <v>19374</v>
       </c>
       <c r="L19">
-        <v>3627</v>
+        <v>3301</v>
       </c>
       <c r="M19" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="N19">
-        <v>20828</v>
+        <v>19374</v>
       </c>
       <c r="O19" t="s">
         <v>68</v>
       </c>
       <c r="P19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q19">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="R19" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="S19">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="T19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U19" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="V19" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="W19">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="X19">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="Y19">
-        <v>34.3</v>
+        <v>37.3</v>
       </c>
       <c r="Z19">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AA19">
-        <v>13.1</v>
+        <v>13.6</v>
       </c>
       <c r="AB19">
-        <v>0.475</v>
+        <v>0.466</v>
       </c>
       <c r="AC19">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AD19">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="AE19">
-        <v>0.273</v>
+        <v>0.435</v>
       </c>
       <c r="AF19">
         <v>5.7</v>
       </c>
       <c r="AG19">
-        <v>11.3</v>
+        <v>12</v>
       </c>
       <c r="AH19">
-        <v>0.509</v>
+        <v>0.47</v>
       </c>
       <c r="AI19">
-        <v>0.495</v>
+        <v>0.491</v>
       </c>
       <c r="AJ19">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AK19">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="AL19">
-        <v>0.763</v>
+        <v>0.846</v>
       </c>
       <c r="AM19">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="AN19">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="AO19">
-        <v>3.2</v>
+        <v>5.9</v>
       </c>
       <c r="AP19">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="AQ19">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="AR19">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AS19">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="AT19">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="AU19">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="AV19" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="AW19" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AX19" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AY19">
-        <v>2007</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="20" spans="1:51">
@@ -3927,154 +3897,154 @@
         <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D20">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F20">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="G20">
-        <v>489</v>
+        <v>288</v>
       </c>
       <c r="H20">
-        <v>630</v>
+        <v>590</v>
       </c>
       <c r="I20">
-        <v>0.776</v>
+        <v>0.488</v>
       </c>
       <c r="J20" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K20">
-        <v>19960</v>
+        <v>18420</v>
       </c>
       <c r="L20">
-        <v>3431</v>
+        <v>3317</v>
       </c>
       <c r="M20" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="N20">
-        <v>19960</v>
+        <v>18420</v>
       </c>
       <c r="O20" t="s">
         <v>69</v>
       </c>
       <c r="P20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q20">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="R20" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="S20">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U20" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="V20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="W20">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X20">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="Y20">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="Z20">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="AA20">
-        <v>10.5</v>
+        <v>14.4</v>
       </c>
       <c r="AB20">
-        <v>0.526</v>
+        <v>0.431</v>
       </c>
       <c r="AC20">
-        <v>0.1</v>
+        <v>1.3</v>
       </c>
       <c r="AD20">
-        <v>0.4</v>
+        <v>3.8</v>
       </c>
       <c r="AE20">
-        <v>0.267</v>
+        <v>0.348</v>
       </c>
       <c r="AF20">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="AG20">
-        <v>10.2</v>
+        <v>10.6</v>
       </c>
       <c r="AH20">
-        <v>0.536</v>
+        <v>0.461</v>
       </c>
       <c r="AI20">
-        <v>0.531</v>
+        <v>0.478</v>
       </c>
       <c r="AJ20">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="AK20">
-        <v>2.9</v>
+        <v>5.7</v>
       </c>
       <c r="AL20">
-        <v>0.731</v>
+        <v>0.791</v>
       </c>
       <c r="AM20">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AN20">
-        <v>4.9</v>
+        <v>3.5</v>
       </c>
       <c r="AO20">
-        <v>6.9</v>
+        <v>4.7</v>
       </c>
       <c r="AP20">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AQ20">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="AR20">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AS20">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="AT20">
         <v>3.2</v>
       </c>
       <c r="AU20">
-        <v>13.3</v>
+        <v>18.3</v>
       </c>
       <c r="AV20" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="AW20" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AX20" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AY20">
-        <v>2006</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="21" spans="1:51">
@@ -4082,154 +4052,154 @@
         <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D21">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="F21">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G21">
-        <v>384</v>
+        <v>52</v>
       </c>
       <c r="H21">
-        <v>615</v>
+        <v>126</v>
       </c>
       <c r="I21">
-        <v>0.624</v>
+        <v>0.413</v>
       </c>
       <c r="J21" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K21">
-        <v>19374</v>
+        <v>17982</v>
       </c>
       <c r="L21">
-        <v>3301</v>
+        <v>2993</v>
       </c>
       <c r="M21" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="N21">
-        <v>19374</v>
+        <v>17982</v>
       </c>
       <c r="O21" t="s">
         <v>70</v>
       </c>
       <c r="P21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q21">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="R21" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="S21">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U21" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="V21" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="W21">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="X21">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Y21">
-        <v>37.3</v>
+        <v>37.6</v>
       </c>
       <c r="Z21">
-        <v>6.3</v>
+        <v>7.5</v>
       </c>
       <c r="AA21">
-        <v>13.6</v>
+        <v>15.7</v>
       </c>
       <c r="AB21">
-        <v>0.466</v>
+        <v>0.479</v>
       </c>
       <c r="AC21">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AD21">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="AE21">
-        <v>0.435</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="AF21">
+        <v>7.5</v>
+      </c>
+      <c r="AG21">
+        <v>15.5</v>
+      </c>
+      <c r="AH21">
+        <v>0.484</v>
+      </c>
+      <c r="AI21">
+        <v>0.48</v>
+      </c>
+      <c r="AJ21">
+        <v>3.9</v>
+      </c>
+      <c r="AK21">
         <v>5.7</v>
       </c>
-      <c r="AG21">
-        <v>12</v>
-      </c>
-      <c r="AH21">
-        <v>0.47</v>
-      </c>
-      <c r="AI21">
-        <v>0.491</v>
-      </c>
-      <c r="AJ21">
-        <v>3.1</v>
-      </c>
-      <c r="AK21">
-        <v>3.6</v>
-      </c>
       <c r="AL21">
-        <v>0.846</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="AM21">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="AN21">
-        <v>4.2</v>
+        <v>7.9</v>
       </c>
       <c r="AO21">
-        <v>5.9</v>
+        <v>10.5</v>
       </c>
       <c r="AP21">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="AQ21">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="AR21">
-        <v>0.2</v>
+        <v>2.3</v>
       </c>
       <c r="AS21">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="AT21">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="AU21">
-        <v>16.4</v>
+        <v>19</v>
       </c>
       <c r="AV21" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="AW21" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="AX21" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AY21">
-        <v>2005</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="22" spans="1:51">
@@ -4237,154 +4207,154 @@
         <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F22">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="G22">
-        <v>379</v>
+        <v>74</v>
       </c>
       <c r="H22">
-        <v>605</v>
+        <v>124</v>
       </c>
       <c r="I22">
-        <v>0.626</v>
+        <v>0.597</v>
       </c>
       <c r="J22" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K22">
-        <v>19306</v>
+        <v>17709</v>
       </c>
       <c r="L22">
-        <v>3363</v>
+        <v>3096</v>
       </c>
       <c r="M22" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="N22">
-        <v>19306</v>
+        <v>17709</v>
       </c>
       <c r="O22" t="s">
         <v>71</v>
       </c>
       <c r="P22" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q22">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="R22" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="S22">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U22" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="V22" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="W22">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="X22">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Y22">
-        <v>37.9</v>
+        <v>40.1</v>
       </c>
       <c r="Z22">
-        <v>8.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="AA22">
-        <v>16.9</v>
+        <v>22.4</v>
       </c>
       <c r="AB22">
-        <v>0.485</v>
+        <v>0.457</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AD22">
-        <v>0.1</v>
+        <v>2.2</v>
       </c>
       <c r="AE22">
-        <v>0.2</v>
+        <v>0.355</v>
       </c>
       <c r="AF22">
-        <v>8.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="AG22">
-        <v>16.8</v>
+        <v>20.2</v>
       </c>
       <c r="AH22">
-        <v>0.486</v>
+        <v>0.468</v>
       </c>
       <c r="AI22">
-        <v>0.485</v>
+        <v>0.474</v>
       </c>
       <c r="AJ22">
-        <v>3.7</v>
+        <v>5.6</v>
       </c>
       <c r="AK22">
-        <v>4.9</v>
+        <v>7.6</v>
       </c>
       <c r="AL22">
-        <v>0.761</v>
+        <v>0.733</v>
       </c>
       <c r="AM22">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AN22">
+        <v>5</v>
+      </c>
+      <c r="AO22">
         <v>7.5</v>
       </c>
-      <c r="AO22">
-        <v>10.5</v>
-      </c>
       <c r="AP22">
-        <v>2</v>
+        <v>4.6</v>
       </c>
       <c r="AQ22">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR22">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AS22">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AT22">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="AU22">
-        <v>20.1</v>
+        <v>26.8</v>
       </c>
       <c r="AV22" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="AW22" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="AX22" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AY22">
-        <v>2004</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="23" spans="1:51">
@@ -4392,154 +4362,154 @@
         <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D23">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23">
+        <v>32</v>
+      </c>
+      <c r="G23">
+        <v>32</v>
+      </c>
+      <c r="H23">
+        <v>121</v>
+      </c>
+      <c r="I23">
+        <v>0.264</v>
+      </c>
+      <c r="J23" t="s">
         <v>144</v>
       </c>
-      <c r="F23">
-        <v>41</v>
-      </c>
-      <c r="G23">
-        <v>288</v>
-      </c>
-      <c r="H23">
-        <v>590</v>
-      </c>
-      <c r="I23">
-        <v>0.488</v>
-      </c>
-      <c r="J23" t="s">
-        <v>152</v>
-      </c>
       <c r="K23">
-        <v>18420</v>
+        <v>16939</v>
       </c>
       <c r="L23">
-        <v>3317</v>
+        <v>2867</v>
       </c>
       <c r="M23" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="N23">
-        <v>18420</v>
+        <v>16939</v>
       </c>
       <c r="O23" t="s">
         <v>72</v>
       </c>
       <c r="P23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q23">
-        <v>1981</v>
+        <v>1972</v>
       </c>
       <c r="R23" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="S23">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U23" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="V23" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="W23">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X23">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y23">
-        <v>35</v>
+        <v>37.2</v>
       </c>
       <c r="Z23">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="AA23">
-        <v>14.4</v>
+        <v>15</v>
       </c>
       <c r="AB23">
-        <v>0.431</v>
+        <v>0.471</v>
       </c>
       <c r="AC23">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AD23">
+        <v>2.5</v>
+      </c>
+      <c r="AE23">
+        <v>0.393</v>
+      </c>
+      <c r="AF23">
+        <v>6.1</v>
+      </c>
+      <c r="AG23">
+        <v>12.5</v>
+      </c>
+      <c r="AH23">
+        <v>0.486</v>
+      </c>
+      <c r="AI23">
+        <v>0.503</v>
+      </c>
+      <c r="AJ23">
+        <v>3.2</v>
+      </c>
+      <c r="AK23">
         <v>3.8</v>
       </c>
-      <c r="AE23">
-        <v>0.348</v>
-      </c>
-      <c r="AF23">
-        <v>4.9</v>
-      </c>
-      <c r="AG23">
-        <v>10.6</v>
-      </c>
-      <c r="AH23">
-        <v>0.461</v>
-      </c>
-      <c r="AI23">
-        <v>0.478</v>
-      </c>
-      <c r="AJ23">
-        <v>4.5</v>
-      </c>
-      <c r="AK23">
-        <v>5.7</v>
-      </c>
       <c r="AL23">
-        <v>0.791</v>
+        <v>0.827</v>
       </c>
       <c r="AM23">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="AN23">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="AO23">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AP23">
-        <v>6.3</v>
+        <v>4</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="AR23">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="AS23">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT23">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="AU23">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AV23" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="AW23" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AX23" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AY23">
-        <v>2003</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="24" spans="1:51">
@@ -4547,154 +4517,154 @@
         <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D24">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F24">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G24">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H24">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="I24">
-        <v>0.413</v>
+        <v>0.458</v>
       </c>
       <c r="J24" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K24">
-        <v>17982</v>
+        <v>16338</v>
       </c>
       <c r="L24">
-        <v>2993</v>
+        <v>2846</v>
       </c>
       <c r="M24" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="N24">
-        <v>17982</v>
+        <v>16338</v>
       </c>
       <c r="O24" t="s">
         <v>73</v>
       </c>
       <c r="P24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q24">
-        <v>1978</v>
+        <v>1968</v>
       </c>
       <c r="R24" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="S24">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U24" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="V24" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="W24">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="X24">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="Y24">
-        <v>37.6</v>
+        <v>30</v>
       </c>
       <c r="Z24">
-        <v>7.5</v>
+        <v>4.6</v>
       </c>
       <c r="AA24">
-        <v>15.7</v>
+        <v>10.4</v>
       </c>
       <c r="AB24">
-        <v>0.479</v>
+        <v>0.441</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AD24">
-        <v>0.2</v>
+        <v>3.8</v>
       </c>
       <c r="AE24">
-        <v>0.07099999999999999</v>
+        <v>0.365</v>
       </c>
       <c r="AF24">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="AG24">
-        <v>15.5</v>
+        <v>6.7</v>
       </c>
       <c r="AH24">
-        <v>0.484</v>
+        <v>0.483</v>
       </c>
       <c r="AI24">
-        <v>0.48</v>
+        <v>0.507</v>
       </c>
       <c r="AJ24">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="AK24">
-        <v>5.7</v>
+        <v>3.6</v>
       </c>
       <c r="AL24">
-        <v>0.6879999999999999</v>
+        <v>0.904</v>
       </c>
       <c r="AM24">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="AN24">
-        <v>7.9</v>
+        <v>2.5</v>
       </c>
       <c r="AO24">
-        <v>10.5</v>
+        <v>3.6</v>
       </c>
       <c r="AP24">
-        <v>1.6</v>
+        <v>6.7</v>
       </c>
       <c r="AQ24">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="AR24">
-        <v>2.3</v>
+        <v>0.1</v>
       </c>
       <c r="AS24">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="AT24">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="AU24">
-        <v>19</v>
+        <v>13.8</v>
       </c>
       <c r="AV24" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="AW24" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="AX24" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AY24">
-        <v>2002</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="25" spans="1:51">
@@ -4702,154 +4672,154 @@
         <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D25">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F25">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="G25">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="H25">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="I25">
-        <v>0.597</v>
+        <v>0.284</v>
       </c>
       <c r="J25" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K25">
-        <v>17709</v>
+        <v>15668</v>
       </c>
       <c r="L25">
-        <v>3096</v>
+        <v>2892</v>
       </c>
       <c r="M25" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="N25">
-        <v>17709</v>
+        <v>15668</v>
       </c>
       <c r="O25" t="s">
         <v>74</v>
       </c>
       <c r="P25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q25">
-        <v>1979</v>
+        <v>1972</v>
       </c>
       <c r="R25" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="S25">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U25" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="V25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="W25">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="X25">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="Y25">
-        <v>40.1</v>
+        <v>29</v>
       </c>
       <c r="Z25">
-        <v>10.2</v>
+        <v>5.3</v>
       </c>
       <c r="AA25">
-        <v>22.4</v>
+        <v>10.9</v>
       </c>
       <c r="AB25">
-        <v>0.457</v>
+        <v>0.485</v>
       </c>
       <c r="AC25">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AD25">
-        <v>2.2</v>
+        <v>0.1</v>
       </c>
       <c r="AE25">
-        <v>0.355</v>
+        <v>0.5</v>
       </c>
       <c r="AF25">
-        <v>9.5</v>
+        <v>5.2</v>
       </c>
       <c r="AG25">
-        <v>20.2</v>
+        <v>10.8</v>
       </c>
       <c r="AH25">
-        <v>0.468</v>
+        <v>0.485</v>
       </c>
       <c r="AI25">
-        <v>0.474</v>
+        <v>0.487</v>
       </c>
       <c r="AJ25">
+        <v>3.7</v>
+      </c>
+      <c r="AK25">
         <v>5.6</v>
       </c>
-      <c r="AK25">
-        <v>7.6</v>
-      </c>
       <c r="AL25">
-        <v>0.733</v>
+        <v>0.652</v>
       </c>
       <c r="AM25">
+        <v>2.9</v>
+      </c>
+      <c r="AN25">
+        <v>3.5</v>
+      </c>
+      <c r="AO25">
+        <v>6.4</v>
+      </c>
+      <c r="AP25">
+        <v>1.1</v>
+      </c>
+      <c r="AQ25">
+        <v>0.6</v>
+      </c>
+      <c r="AR25">
+        <v>0.5</v>
+      </c>
+      <c r="AS25">
+        <v>1.6</v>
+      </c>
+      <c r="AT25">
         <v>2.5</v>
       </c>
-      <c r="AN25">
-        <v>5</v>
-      </c>
-      <c r="AO25">
-        <v>7.5</v>
-      </c>
-      <c r="AP25">
-        <v>4.6</v>
-      </c>
-      <c r="AQ25">
-        <v>1.5</v>
-      </c>
-      <c r="AR25">
-        <v>1.5</v>
-      </c>
-      <c r="AS25">
-        <v>2.6</v>
-      </c>
-      <c r="AT25">
-        <v>2.1</v>
-      </c>
       <c r="AU25">
-        <v>26.8</v>
+        <v>14.3</v>
       </c>
       <c r="AV25" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="AW25" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AX25" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AY25">
-        <v>2001</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="26" spans="1:51">
@@ -4857,154 +4827,154 @@
         <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D26">
         <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F26">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G26">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H26">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I26">
-        <v>0.264</v>
+        <v>0.357</v>
       </c>
       <c r="J26" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K26">
-        <v>16939</v>
+        <v>15336</v>
       </c>
       <c r="L26">
-        <v>2867</v>
+        <v>2656</v>
       </c>
       <c r="M26" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="N26">
-        <v>16939</v>
+        <v>15336</v>
       </c>
       <c r="O26" t="s">
         <v>75</v>
       </c>
       <c r="P26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q26">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="R26" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="S26">
         <v>28</v>
       </c>
       <c r="T26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U26" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="V26" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="W26">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X26">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="Y26">
-        <v>37.2</v>
+        <v>22.9</v>
       </c>
       <c r="Z26">
-        <v>7</v>
+        <v>3.9</v>
       </c>
       <c r="AA26">
-        <v>15</v>
+        <v>7.8</v>
       </c>
       <c r="AB26">
-        <v>0.471</v>
+        <v>0.502</v>
       </c>
       <c r="AC26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD26">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AE26">
-        <v>0.393</v>
+        <v>0</v>
       </c>
       <c r="AF26">
-        <v>6.1</v>
+        <v>3.9</v>
       </c>
       <c r="AG26">
-        <v>12.5</v>
+        <v>7.8</v>
       </c>
       <c r="AH26">
-        <v>0.486</v>
+        <v>0.505</v>
       </c>
       <c r="AI26">
-        <v>0.503</v>
+        <v>0.502</v>
       </c>
       <c r="AJ26">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="AK26">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="AL26">
-        <v>0.827</v>
+        <v>0.664</v>
       </c>
       <c r="AM26">
+        <v>1.7</v>
+      </c>
+      <c r="AN26">
+        <v>4.2</v>
+      </c>
+      <c r="AO26">
+        <v>5.8</v>
+      </c>
+      <c r="AP26">
+        <v>1.2</v>
+      </c>
+      <c r="AQ26">
         <v>0.5</v>
       </c>
-      <c r="AN26">
-        <v>4.3</v>
-      </c>
-      <c r="AO26">
-        <v>4.8</v>
-      </c>
-      <c r="AP26">
-        <v>4</v>
-      </c>
-      <c r="AQ26">
-        <v>1.1</v>
-      </c>
       <c r="AR26">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AS26">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AT26">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AU26">
-        <v>18.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AV26" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="AW26" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AX26" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AY26">
-        <v>2000</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="27" spans="1:51">
@@ -5012,154 +4982,154 @@
         <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D27">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F27">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G27">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H27">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I27">
-        <v>0.458</v>
+        <v>0.442</v>
       </c>
       <c r="J27" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K27">
-        <v>16338</v>
+        <v>14759</v>
       </c>
       <c r="L27">
-        <v>2846</v>
+        <v>2797</v>
       </c>
       <c r="M27" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="N27">
-        <v>16338</v>
+        <v>14759</v>
       </c>
       <c r="O27" t="s">
         <v>76</v>
       </c>
       <c r="P27" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q27">
-        <v>1968</v>
+        <v>1971</v>
       </c>
       <c r="R27" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="S27">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="T27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U27" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="V27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W27">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="X27">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="Y27">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="Z27">
-        <v>4.6</v>
+        <v>6.1</v>
       </c>
       <c r="AA27">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="AB27">
-        <v>0.441</v>
+        <v>0.584</v>
       </c>
       <c r="AC27">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AD27">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="AE27">
-        <v>0.365</v>
+        <v>0</v>
       </c>
       <c r="AF27">
-        <v>3.2</v>
+        <v>6.1</v>
       </c>
       <c r="AG27">
-        <v>6.7</v>
+        <v>10.5</v>
       </c>
       <c r="AH27">
-        <v>0.483</v>
+        <v>0.585</v>
       </c>
       <c r="AI27">
-        <v>0.507</v>
+        <v>0.584</v>
       </c>
       <c r="AJ27">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="AK27">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AL27">
-        <v>0.904</v>
+        <v>0.619</v>
       </c>
       <c r="AM27">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="AN27">
-        <v>2.5</v>
+        <v>6.3</v>
       </c>
       <c r="AO27">
-        <v>3.6</v>
+        <v>9.6</v>
       </c>
       <c r="AP27">
-        <v>6.7</v>
+        <v>0.7</v>
       </c>
       <c r="AQ27">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="AR27">
-        <v>0.1</v>
+        <v>2.3</v>
       </c>
       <c r="AS27">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="AT27">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="AU27">
-        <v>13.8</v>
+        <v>14.5</v>
       </c>
       <c r="AV27" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="AW27" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AX27" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AY27">
-        <v>1999</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="28" spans="1:51">
@@ -5167,154 +5137,154 @@
         <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D28">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="F28">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G28">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H28">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="I28">
-        <v>0.284</v>
+        <v>0.476</v>
       </c>
       <c r="J28" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K28">
-        <v>15668</v>
+        <v>14182</v>
       </c>
       <c r="L28">
-        <v>2892</v>
+        <v>2493</v>
       </c>
       <c r="M28" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="N28">
-        <v>15668</v>
+        <v>14182</v>
       </c>
       <c r="O28" t="s">
         <v>77</v>
       </c>
       <c r="P28" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Q28">
-        <v>1972</v>
+        <v>1967</v>
       </c>
       <c r="R28" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="S28">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="T28">
+        <v>6</v>
+      </c>
+      <c r="U28" t="s">
+        <v>187</v>
+      </c>
+      <c r="V28" t="s">
+        <v>124</v>
+      </c>
+      <c r="W28">
+        <v>82</v>
+      </c>
+      <c r="X28">
+        <v>82</v>
+      </c>
+      <c r="Y28">
+        <v>40.5</v>
+      </c>
+      <c r="Z28">
+        <v>7</v>
+      </c>
+      <c r="AA28">
+        <v>14.2</v>
+      </c>
+      <c r="AB28">
+        <v>0.49</v>
+      </c>
+      <c r="AC28">
+        <v>2.4</v>
+      </c>
+      <c r="AD28">
+        <v>5.2</v>
+      </c>
+      <c r="AE28">
+        <v>0.464</v>
+      </c>
+      <c r="AF28">
+        <v>4.6</v>
+      </c>
+      <c r="AG28">
+        <v>9</v>
+      </c>
+      <c r="AH28">
+        <v>0.505</v>
+      </c>
+      <c r="AI28">
+        <v>0.575</v>
+      </c>
+      <c r="AJ28">
+        <v>4.2</v>
+      </c>
+      <c r="AK28">
+        <v>4.7</v>
+      </c>
+      <c r="AL28">
+        <v>0.899</v>
+      </c>
+      <c r="AM28">
+        <v>0.3</v>
+      </c>
+      <c r="AN28">
         <v>3</v>
       </c>
-      <c r="U28" t="s">
-        <v>197</v>
-      </c>
-      <c r="V28" t="s">
-        <v>146</v>
-      </c>
-      <c r="W28">
-        <v>69</v>
-      </c>
-      <c r="X28">
-        <v>33</v>
-      </c>
-      <c r="Y28">
-        <v>29</v>
-      </c>
-      <c r="Z28">
-        <v>5.3</v>
-      </c>
-      <c r="AA28">
-        <v>10.9</v>
-      </c>
-      <c r="AB28">
-        <v>0.485</v>
-      </c>
-      <c r="AC28">
+      <c r="AO28">
+        <v>3.3</v>
+      </c>
+      <c r="AP28">
+        <v>7.5</v>
+      </c>
+      <c r="AQ28">
+        <v>1.8</v>
+      </c>
+      <c r="AR28">
         <v>0</v>
       </c>
-      <c r="AD28">
-        <v>0.1</v>
-      </c>
-      <c r="AE28">
-        <v>0.5</v>
-      </c>
-      <c r="AF28">
-        <v>5.2</v>
-      </c>
-      <c r="AG28">
-        <v>10.8</v>
-      </c>
-      <c r="AH28">
-        <v>0.485</v>
-      </c>
-      <c r="AI28">
-        <v>0.487</v>
-      </c>
-      <c r="AJ28">
-        <v>3.7</v>
-      </c>
-      <c r="AK28">
-        <v>5.6</v>
-      </c>
-      <c r="AL28">
-        <v>0.652</v>
-      </c>
-      <c r="AM28">
-        <v>2.9</v>
-      </c>
-      <c r="AN28">
-        <v>3.5</v>
-      </c>
-      <c r="AO28">
-        <v>6.4</v>
-      </c>
-      <c r="AP28">
-        <v>1.1</v>
-      </c>
-      <c r="AQ28">
-        <v>0.6</v>
-      </c>
-      <c r="AR28">
-        <v>0.5</v>
-      </c>
       <c r="AS28">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="AT28">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="AU28">
-        <v>14.3</v>
+        <v>20.6</v>
       </c>
       <c r="AV28" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="AW28" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AX28" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AY28">
-        <v>1998</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="29" spans="1:51">
@@ -5322,82 +5292,82 @@
         <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D29">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E29" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F29">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G29">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="H29">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="I29">
-        <v>0.357</v>
+        <v>0.545</v>
       </c>
       <c r="J29" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K29">
-        <v>15336</v>
+        <v>13739</v>
       </c>
       <c r="L29">
-        <v>2656</v>
+        <v>2711</v>
       </c>
       <c r="M29" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="N29">
-        <v>15336</v>
+        <v>13739</v>
       </c>
       <c r="O29" t="s">
         <v>78</v>
       </c>
       <c r="P29" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="Q29">
         <v>1969</v>
       </c>
       <c r="R29" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="S29">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U29" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="V29" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="W29">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="X29">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="Y29">
-        <v>22.9</v>
+        <v>33.2</v>
       </c>
       <c r="Z29">
-        <v>3.9</v>
+        <v>6.9</v>
       </c>
       <c r="AA29">
-        <v>7.8</v>
+        <v>13.7</v>
       </c>
       <c r="AB29">
         <v>0.502</v>
@@ -5406,70 +5376,70 @@
         <v>0</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>0.143</v>
       </c>
       <c r="AF29">
-        <v>3.9</v>
+        <v>6.9</v>
       </c>
       <c r="AG29">
-        <v>7.8</v>
+        <v>13.5</v>
       </c>
       <c r="AH29">
-        <v>0.505</v>
+        <v>0.509</v>
       </c>
       <c r="AI29">
-        <v>0.502</v>
+        <v>0.503</v>
       </c>
       <c r="AJ29">
-        <v>1.8</v>
+        <v>4.4</v>
       </c>
       <c r="AK29">
-        <v>2.8</v>
+        <v>5.3</v>
       </c>
       <c r="AL29">
-        <v>0.664</v>
+        <v>0.824</v>
       </c>
       <c r="AM29">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AN29">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="AO29">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="AP29">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ29">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR29">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AS29">
         <v>2</v>
       </c>
       <c r="AT29">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="AU29">
-        <v>9.699999999999999</v>
+        <v>18.2</v>
       </c>
       <c r="AV29" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="AW29" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AX29" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AY29">
-        <v>1997</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="30" spans="1:51">
@@ -5477,154 +5447,154 @@
         <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D30">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F30">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G30">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H30">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="I30">
-        <v>0.442</v>
+        <v>0.255</v>
       </c>
       <c r="J30" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K30">
-        <v>14759</v>
+        <v>13431</v>
       </c>
       <c r="L30">
-        <v>2797</v>
+        <v>2608</v>
       </c>
       <c r="M30" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="N30">
-        <v>14759</v>
+        <v>13431</v>
       </c>
       <c r="O30" t="s">
         <v>79</v>
       </c>
       <c r="P30" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q30">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="R30" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="S30">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T30">
         <v>3</v>
       </c>
       <c r="U30" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="V30" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="W30">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="X30">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="Y30">
-        <v>29.5</v>
+        <v>33.5</v>
       </c>
       <c r="Z30">
-        <v>6.1</v>
+        <v>7.8</v>
       </c>
       <c r="AA30">
-        <v>10.5</v>
+        <v>17.4</v>
       </c>
       <c r="AB30">
-        <v>0.584</v>
+        <v>0.45</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>0.355</v>
       </c>
       <c r="AF30">
-        <v>6.1</v>
+        <v>7</v>
       </c>
       <c r="AG30">
-        <v>10.5</v>
+        <v>14.9</v>
       </c>
       <c r="AH30">
-        <v>0.585</v>
+        <v>0.465</v>
       </c>
       <c r="AI30">
-        <v>0.584</v>
+        <v>0.475</v>
       </c>
       <c r="AJ30">
+        <v>2.7</v>
+      </c>
+      <c r="AK30">
+        <v>2.9</v>
+      </c>
+      <c r="AL30">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="AM30">
+        <v>0.6</v>
+      </c>
+      <c r="AN30">
+        <v>2.1</v>
+      </c>
+      <c r="AO30">
+        <v>2.8</v>
+      </c>
+      <c r="AP30">
+        <v>4.2</v>
+      </c>
+      <c r="AQ30">
+        <v>1</v>
+      </c>
+      <c r="AR30">
+        <v>0.1</v>
+      </c>
+      <c r="AS30">
         <v>2.3</v>
       </c>
-      <c r="AK30">
-        <v>3.7</v>
-      </c>
-      <c r="AL30">
-        <v>0.619</v>
-      </c>
-      <c r="AM30">
-        <v>3.3</v>
-      </c>
-      <c r="AN30">
-        <v>6.3</v>
-      </c>
-      <c r="AO30">
-        <v>9.6</v>
-      </c>
-      <c r="AP30">
-        <v>0.7</v>
-      </c>
-      <c r="AQ30">
-        <v>0.7</v>
-      </c>
-      <c r="AR30">
-        <v>2.3</v>
-      </c>
-      <c r="AS30">
-        <v>1.9</v>
-      </c>
       <c r="AT30">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
       <c r="AU30">
-        <v>14.5</v>
+        <v>19.2</v>
       </c>
       <c r="AV30" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="AW30" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AX30" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AY30">
-        <v>1996</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="31" spans="1:51">
@@ -5632,154 +5602,154 @@
         <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D31">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F31">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G31">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H31">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="I31">
-        <v>0.476</v>
+        <v>0.417</v>
       </c>
       <c r="J31" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K31">
-        <v>14182</v>
+        <v>13021</v>
       </c>
       <c r="L31">
-        <v>2493</v>
+        <v>2534</v>
       </c>
       <c r="M31" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="N31">
-        <v>14182</v>
+        <v>13021</v>
       </c>
       <c r="O31" t="s">
         <v>80</v>
       </c>
       <c r="P31" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Q31">
         <v>1967</v>
       </c>
       <c r="R31" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="S31">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U31" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="V31" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="W31">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="X31">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="Y31">
-        <v>40.5</v>
+        <v>38</v>
       </c>
       <c r="Z31">
-        <v>7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AA31">
-        <v>14.2</v>
+        <v>15.4</v>
       </c>
       <c r="AB31">
-        <v>0.49</v>
+        <v>0.539</v>
       </c>
       <c r="AC31">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AD31">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="AE31">
-        <v>0.464</v>
+        <v>0.333</v>
       </c>
       <c r="AF31">
-        <v>4.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AG31">
-        <v>9</v>
+        <v>15.3</v>
       </c>
       <c r="AH31">
-        <v>0.505</v>
+        <v>0.54</v>
       </c>
       <c r="AI31">
-        <v>0.575</v>
+        <v>0.54</v>
       </c>
       <c r="AJ31">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="AK31">
         <v>4.7</v>
       </c>
       <c r="AL31">
-        <v>0.899</v>
+        <v>0.728</v>
       </c>
       <c r="AM31">
-        <v>0.3</v>
+        <v>3.3</v>
       </c>
       <c r="AN31">
-        <v>3</v>
+        <v>7.9</v>
       </c>
       <c r="AO31">
-        <v>3.3</v>
+        <v>11.2</v>
       </c>
       <c r="AP31">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="AQ31">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="AR31">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AS31">
         <v>3</v>
       </c>
       <c r="AT31">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="AU31">
-        <v>20.6</v>
+        <v>20</v>
       </c>
       <c r="AV31" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="AW31" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="AX31" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AY31">
-        <v>1995</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="32" spans="1:51">
@@ -5787,154 +5757,154 @@
         <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D32">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E32" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="F32">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="G32">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="H32">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I32">
-        <v>0.545</v>
+        <v>0.26</v>
       </c>
       <c r="J32" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K32">
-        <v>13739</v>
+        <v>12625</v>
       </c>
       <c r="L32">
-        <v>2711</v>
+        <v>2338</v>
       </c>
       <c r="M32" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="N32">
-        <v>13739</v>
+        <v>12625</v>
       </c>
       <c r="O32" t="s">
         <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q32">
-        <v>1969</v>
+        <v>1964</v>
       </c>
       <c r="R32" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="S32">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U32" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="V32" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="W32">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="X32">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Y32">
-        <v>33.2</v>
+        <v>34.4</v>
       </c>
       <c r="Z32">
-        <v>6.9</v>
+        <v>5.8</v>
       </c>
       <c r="AA32">
-        <v>13.7</v>
+        <v>13.2</v>
       </c>
       <c r="AB32">
-        <v>0.502</v>
+        <v>0.445</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AD32">
-        <v>0.3</v>
+        <v>2.9</v>
       </c>
       <c r="AE32">
-        <v>0.143</v>
+        <v>0.408</v>
       </c>
       <c r="AF32">
-        <v>6.9</v>
+        <v>4.7</v>
       </c>
       <c r="AG32">
-        <v>13.5</v>
+        <v>10.3</v>
       </c>
       <c r="AH32">
-        <v>0.509</v>
+        <v>0.455</v>
       </c>
       <c r="AI32">
-        <v>0.503</v>
+        <v>0.489</v>
       </c>
       <c r="AJ32">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AK32">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="AL32">
-        <v>0.824</v>
+        <v>0.902</v>
       </c>
       <c r="AM32">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="AN32">
-        <v>4.4</v>
+        <v>2.7</v>
       </c>
       <c r="AO32">
-        <v>6.2</v>
+        <v>3.4</v>
       </c>
       <c r="AP32">
-        <v>2.1</v>
+        <v>8.4</v>
       </c>
       <c r="AQ32">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="AR32">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AS32">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="AT32">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AU32">
-        <v>18.2</v>
+        <v>17.2</v>
       </c>
       <c r="AV32" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AW32" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AX32" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AY32">
-        <v>1994</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="33" spans="1:51">
@@ -5942,154 +5912,154 @@
         <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D33">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E33" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F33">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G33">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H33">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I33">
-        <v>0.255</v>
+        <v>0.402</v>
       </c>
       <c r="J33" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K33">
-        <v>13431</v>
+        <v>12168</v>
       </c>
       <c r="L33">
-        <v>2608</v>
+        <v>2464</v>
       </c>
       <c r="M33" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="N33">
-        <v>13431</v>
+        <v>12168</v>
       </c>
       <c r="O33" t="s">
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q33">
-        <v>1969</v>
+        <v>1965</v>
       </c>
       <c r="R33" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="S33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U33" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="V33" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="W33">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="X33">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="Y33">
-        <v>33.5</v>
+        <v>32.6</v>
       </c>
       <c r="Z33">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="AA33">
-        <v>17.4</v>
+        <v>13.1</v>
       </c>
       <c r="AB33">
-        <v>0.45</v>
+        <v>0.502</v>
       </c>
       <c r="AC33">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AD33">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AE33">
-        <v>0.355</v>
+        <v>0</v>
       </c>
       <c r="AF33">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AG33">
-        <v>14.9</v>
+        <v>13.1</v>
       </c>
       <c r="AH33">
-        <v>0.465</v>
+        <v>0.503</v>
       </c>
       <c r="AI33">
-        <v>0.475</v>
+        <v>0.502</v>
       </c>
       <c r="AJ33">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="AK33">
-        <v>2.9</v>
+        <v>5.8</v>
       </c>
       <c r="AL33">
-        <v>0.9350000000000001</v>
+        <v>0.594</v>
       </c>
       <c r="AM33">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="AN33">
-        <v>2.1</v>
+        <v>6.9</v>
       </c>
       <c r="AO33">
-        <v>2.8</v>
+        <v>10.4</v>
       </c>
       <c r="AP33">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR33">
-        <v>0.1</v>
+        <v>1.7</v>
       </c>
       <c r="AS33">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="AT33">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="AU33">
-        <v>19.2</v>
+        <v>16.6</v>
       </c>
       <c r="AV33" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AW33" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="AX33" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AY33">
-        <v>1993</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="34" spans="1:51">
@@ -6097,154 +6067,154 @@
         <v>83</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D34">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E34" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="F34">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G34">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H34">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="I34">
-        <v>0.417</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="J34" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K34">
-        <v>13021</v>
+        <v>11605</v>
       </c>
       <c r="L34">
-        <v>2534</v>
+        <v>2371</v>
       </c>
       <c r="M34" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="N34">
-        <v>13021</v>
+        <v>11605</v>
       </c>
       <c r="O34" t="s">
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q34">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="R34" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="S34">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U34" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="V34" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="W34">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="X34">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="Y34">
-        <v>38</v>
+        <v>39.2</v>
       </c>
       <c r="Z34">
-        <v>8.300000000000001</v>
+        <v>7</v>
       </c>
       <c r="AA34">
-        <v>15.4</v>
+        <v>13.9</v>
       </c>
       <c r="AB34">
-        <v>0.539</v>
+        <v>0.505</v>
       </c>
       <c r="AC34">
         <v>0</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AE34">
-        <v>0.333</v>
+        <v>0.091</v>
       </c>
       <c r="AF34">
-        <v>8.300000000000001</v>
+        <v>7</v>
       </c>
       <c r="AG34">
-        <v>15.3</v>
+        <v>13.7</v>
       </c>
       <c r="AH34">
-        <v>0.54</v>
+        <v>0.514</v>
       </c>
       <c r="AI34">
-        <v>0.54</v>
+        <v>0.506</v>
       </c>
       <c r="AJ34">
-        <v>3.4</v>
+        <v>6.3</v>
       </c>
       <c r="AK34">
-        <v>4.7</v>
+        <v>7.1</v>
       </c>
       <c r="AL34">
-        <v>0.728</v>
+        <v>0.882</v>
       </c>
       <c r="AM34">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="AN34">
-        <v>7.9</v>
+        <v>3.6</v>
       </c>
       <c r="AO34">
-        <v>11.2</v>
+        <v>4.2</v>
       </c>
       <c r="AP34">
-        <v>2.9</v>
+        <v>12.2</v>
       </c>
       <c r="AQ34">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="AR34">
-        <v>2.7</v>
+        <v>0.3</v>
       </c>
       <c r="AS34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT34">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="AU34">
-        <v>20</v>
+        <v>20.4</v>
       </c>
       <c r="AV34" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AW34" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="AX34" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AY34">
-        <v>1992</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="35" spans="1:51">
@@ -6252,154 +6222,154 @@
         <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D35">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E35" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="F35">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G35">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H35">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="I35">
-        <v>0.26</v>
+        <v>0.413</v>
       </c>
       <c r="J35" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K35">
-        <v>12625</v>
+        <v>11152</v>
       </c>
       <c r="L35">
-        <v>2338</v>
+        <v>2320</v>
       </c>
       <c r="M35" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="N35">
-        <v>12625</v>
+        <v>11152</v>
       </c>
       <c r="O35" t="s">
         <v>84</v>
       </c>
       <c r="P35" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Q35">
         <v>1964</v>
       </c>
       <c r="R35" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="S35">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="T35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U35" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="V35" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="W35">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X35">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="Y35">
-        <v>34.4</v>
+        <v>28.5</v>
       </c>
       <c r="Z35">
         <v>5.8</v>
       </c>
       <c r="AA35">
-        <v>13.2</v>
+        <v>11.6</v>
       </c>
       <c r="AB35">
-        <v>0.445</v>
+        <v>0.496</v>
       </c>
       <c r="AC35">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>5.8</v>
+      </c>
+      <c r="AG35">
+        <v>11.6</v>
+      </c>
+      <c r="AH35">
+        <v>0.496</v>
+      </c>
+      <c r="AI35">
+        <v>0.496</v>
+      </c>
+      <c r="AJ35">
+        <v>4.2</v>
+      </c>
+      <c r="AK35">
+        <v>5.5</v>
+      </c>
+      <c r="AL35">
+        <v>0.77</v>
+      </c>
+      <c r="AM35">
         <v>2.9</v>
       </c>
-      <c r="AE35">
-        <v>0.408</v>
-      </c>
-      <c r="AF35">
-        <v>4.7</v>
-      </c>
-      <c r="AG35">
-        <v>10.3</v>
-      </c>
-      <c r="AH35">
-        <v>0.455</v>
-      </c>
-      <c r="AI35">
-        <v>0.489</v>
-      </c>
-      <c r="AJ35">
-        <v>4.3</v>
-      </c>
-      <c r="AK35">
-        <v>4.8</v>
-      </c>
-      <c r="AL35">
-        <v>0.902</v>
-      </c>
-      <c r="AM35">
-        <v>0.7</v>
-      </c>
       <c r="AN35">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="AO35">
-        <v>3.4</v>
+        <v>7.4</v>
       </c>
       <c r="AP35">
-        <v>8.4</v>
+        <v>0.8</v>
       </c>
       <c r="AQ35">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="AR35">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="AS35">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="AT35">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="AU35">
-        <v>17.2</v>
+        <v>15.8</v>
       </c>
       <c r="AV35" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="AW35" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AX35" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AY35">
-        <v>1991</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="36" spans="1:51">
@@ -6407,154 +6377,154 @@
         <v>85</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D36">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F36">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G36">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H36">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I36">
-        <v>0.402</v>
+        <v>0.423</v>
       </c>
       <c r="J36" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K36">
-        <v>12168</v>
+        <v>10638</v>
       </c>
       <c r="L36">
-        <v>2464</v>
+        <v>2112</v>
       </c>
       <c r="M36" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="N36">
-        <v>12168</v>
+        <v>10638</v>
       </c>
       <c r="O36" t="s">
         <v>85</v>
       </c>
       <c r="P36" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="Q36">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="R36" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="S36">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U36" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="V36" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="W36">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="X36">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Y36">
-        <v>32.6</v>
+        <v>37.5</v>
       </c>
       <c r="Z36">
-        <v>6.6</v>
+        <v>9.6</v>
       </c>
       <c r="AA36">
-        <v>13.1</v>
+        <v>18.5</v>
       </c>
       <c r="AB36">
-        <v>0.502</v>
+        <v>0.516</v>
       </c>
       <c r="AC36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AE36">
-        <v>0</v>
+        <v>0.358</v>
       </c>
       <c r="AF36">
-        <v>6.6</v>
+        <v>8.5</v>
       </c>
       <c r="AG36">
-        <v>13.1</v>
+        <v>15.6</v>
       </c>
       <c r="AH36">
-        <v>0.503</v>
+        <v>0.546</v>
       </c>
       <c r="AI36">
-        <v>0.502</v>
+        <v>0.545</v>
       </c>
       <c r="AJ36">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="AK36">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AL36">
-        <v>0.594</v>
+        <v>0.787</v>
       </c>
       <c r="AM36">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="AN36">
-        <v>6.9</v>
+        <v>3.2</v>
       </c>
       <c r="AO36">
-        <v>10.4</v>
+        <v>5.5</v>
       </c>
       <c r="AP36">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="AQ36">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AR36">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="AS36">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="AT36">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AU36">
-        <v>16.6</v>
+        <v>24.9</v>
       </c>
       <c r="AV36" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AW36" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="AX36" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AY36">
-        <v>1990</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="37" spans="1:51">
@@ -6562,618 +6532,153 @@
         <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D37">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E37" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F37">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G37">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H37">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I37">
-        <v>0.5649999999999999</v>
+        <v>0.385</v>
       </c>
       <c r="J37" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K37">
-        <v>11605</v>
+        <v>10190</v>
       </c>
       <c r="L37">
-        <v>2371</v>
+        <v>2158</v>
       </c>
       <c r="M37" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="N37">
-        <v>11605</v>
+        <v>10190</v>
       </c>
       <c r="O37" t="s">
         <v>86</v>
       </c>
       <c r="P37" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q37">
-        <v>1966</v>
+        <v>1962</v>
       </c>
       <c r="R37" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="S37">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T37">
         <v>2</v>
       </c>
       <c r="U37" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="V37" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="W37">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X37">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y37">
-        <v>39.2</v>
+        <v>35.1</v>
       </c>
       <c r="Z37">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AA37">
-        <v>13.9</v>
+        <v>13.3</v>
       </c>
       <c r="AB37">
-        <v>0.505</v>
+        <v>0.514</v>
       </c>
       <c r="AC37">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD37">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AE37">
-        <v>0.091</v>
+        <v>0.276</v>
       </c>
       <c r="AF37">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AG37">
-        <v>13.7</v>
+        <v>13</v>
       </c>
       <c r="AH37">
-        <v>0.514</v>
+        <v>0.521</v>
       </c>
       <c r="AI37">
-        <v>0.506</v>
+        <v>0.518</v>
       </c>
       <c r="AJ37">
+        <v>3.2</v>
+      </c>
+      <c r="AK37">
+        <v>4</v>
+      </c>
+      <c r="AL37">
+        <v>0.795</v>
+      </c>
+      <c r="AM37">
+        <v>2.2</v>
+      </c>
+      <c r="AN37">
+        <v>4</v>
+      </c>
+      <c r="AO37">
         <v>6.3</v>
       </c>
-      <c r="AK37">
-        <v>7.1</v>
-      </c>
-      <c r="AL37">
-        <v>0.882</v>
-      </c>
-      <c r="AM37">
-        <v>0.6</v>
-      </c>
-      <c r="AN37">
+      <c r="AP37">
+        <v>5.5</v>
+      </c>
+      <c r="AQ37">
+        <v>3.7</v>
+      </c>
+      <c r="AR37">
+        <v>0.5</v>
+      </c>
+      <c r="AS37">
+        <v>3.1</v>
+      </c>
+      <c r="AT37">
         <v>3.6</v>
       </c>
-      <c r="AO37">
-        <v>4.2</v>
-      </c>
-      <c r="AP37">
-        <v>12.2</v>
-      </c>
-      <c r="AQ37">
-        <v>1.7</v>
-      </c>
-      <c r="AR37">
-        <v>0.3</v>
-      </c>
-      <c r="AS37">
-        <v>4</v>
-      </c>
-      <c r="AT37">
-        <v>2.8</v>
-      </c>
       <c r="AU37">
-        <v>20.4</v>
+        <v>17</v>
       </c>
       <c r="AV37" t="s">
+        <v>180</v>
+      </c>
+      <c r="AW37" t="s">
         <v>188</v>
       </c>
-      <c r="AW37" t="s">
-        <v>199</v>
-      </c>
       <c r="AX37" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AY37">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="38" spans="1:51">
-      <c r="A38" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" t="s">
-        <v>127</v>
-      </c>
-      <c r="D38">
-        <v>23</v>
-      </c>
-      <c r="E38" t="s">
-        <v>138</v>
-      </c>
-      <c r="F38">
-        <v>33</v>
-      </c>
-      <c r="G38">
-        <v>33</v>
-      </c>
-      <c r="H38">
-        <v>80</v>
-      </c>
-      <c r="I38">
-        <v>0.413</v>
-      </c>
-      <c r="J38" t="s">
-        <v>152</v>
-      </c>
-      <c r="K38">
-        <v>11152</v>
-      </c>
-      <c r="L38">
-        <v>2320</v>
-      </c>
-      <c r="M38" t="s">
-        <v>189</v>
-      </c>
-      <c r="N38">
-        <v>11152</v>
-      </c>
-      <c r="O38" t="s">
-        <v>87</v>
-      </c>
-      <c r="P38" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q38">
-        <v>1964</v>
-      </c>
-      <c r="R38" t="s">
-        <v>196</v>
-      </c>
-      <c r="S38">
-        <v>24</v>
-      </c>
-      <c r="T38">
-        <v>2</v>
-      </c>
-      <c r="U38" t="s">
-        <v>197</v>
-      </c>
-      <c r="V38" t="s">
-        <v>138</v>
-      </c>
-      <c r="W38">
-        <v>78</v>
-      </c>
-      <c r="X38">
-        <v>50</v>
-      </c>
-      <c r="Y38">
-        <v>28.5</v>
-      </c>
-      <c r="Z38">
-        <v>5.8</v>
-      </c>
-      <c r="AA38">
-        <v>11.6</v>
-      </c>
-      <c r="AB38">
-        <v>0.496</v>
-      </c>
-      <c r="AC38">
-        <v>0</v>
-      </c>
-      <c r="AD38">
-        <v>0</v>
-      </c>
-      <c r="AE38">
-        <v>0</v>
-      </c>
-      <c r="AF38">
-        <v>5.8</v>
-      </c>
-      <c r="AG38">
-        <v>11.6</v>
-      </c>
-      <c r="AH38">
-        <v>0.496</v>
-      </c>
-      <c r="AI38">
-        <v>0.496</v>
-      </c>
-      <c r="AJ38">
-        <v>4.2</v>
-      </c>
-      <c r="AK38">
-        <v>5.5</v>
-      </c>
-      <c r="AL38">
-        <v>0.77</v>
-      </c>
-      <c r="AM38">
-        <v>2.9</v>
-      </c>
-      <c r="AN38">
-        <v>4.5</v>
-      </c>
-      <c r="AO38">
-        <v>7.4</v>
-      </c>
-      <c r="AP38">
-        <v>0.8</v>
-      </c>
-      <c r="AQ38">
-        <v>0.4</v>
-      </c>
-      <c r="AR38">
-        <v>0.4</v>
-      </c>
-      <c r="AS38">
-        <v>2.3</v>
-      </c>
-      <c r="AT38">
-        <v>3.6</v>
-      </c>
-      <c r="AU38">
-        <v>15.8</v>
-      </c>
-      <c r="AV38" t="s">
-        <v>189</v>
-      </c>
-      <c r="AW38" t="s">
-        <v>198</v>
-      </c>
-      <c r="AX38" t="s">
-        <v>198</v>
-      </c>
-      <c r="AY38">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="39" spans="1:51">
-      <c r="A39" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" t="s">
-        <v>128</v>
-      </c>
-      <c r="D39">
-        <v>26</v>
-      </c>
-      <c r="E39" t="s">
-        <v>150</v>
-      </c>
-      <c r="F39">
-        <v>33</v>
-      </c>
-      <c r="G39">
-        <v>33</v>
-      </c>
-      <c r="H39">
-        <v>78</v>
-      </c>
-      <c r="I39">
-        <v>0.423</v>
-      </c>
-      <c r="J39" t="s">
-        <v>152</v>
-      </c>
-      <c r="K39">
-        <v>10638</v>
-      </c>
-      <c r="L39">
-        <v>2112</v>
-      </c>
-      <c r="M39" t="s">
-        <v>190</v>
-      </c>
-      <c r="N39">
-        <v>10638</v>
-      </c>
-      <c r="O39" t="s">
-        <v>88</v>
-      </c>
-      <c r="P39" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q39">
-        <v>1960</v>
-      </c>
-      <c r="R39" t="s">
-        <v>195</v>
-      </c>
-      <c r="S39">
-        <v>27</v>
-      </c>
-      <c r="T39">
-        <v>4</v>
-      </c>
-      <c r="U39" t="s">
-        <v>197</v>
-      </c>
-      <c r="V39" t="s">
-        <v>150</v>
-      </c>
-      <c r="W39">
-        <v>82</v>
-      </c>
-      <c r="X39">
-        <v>76</v>
-      </c>
-      <c r="Y39">
-        <v>37.5</v>
-      </c>
-      <c r="Z39">
-        <v>9.6</v>
-      </c>
-      <c r="AA39">
-        <v>18.5</v>
-      </c>
-      <c r="AB39">
-        <v>0.516</v>
-      </c>
-      <c r="AC39">
-        <v>1</v>
-      </c>
-      <c r="AD39">
-        <v>2.9</v>
-      </c>
-      <c r="AE39">
-        <v>0.358</v>
-      </c>
-      <c r="AF39">
-        <v>8.5</v>
-      </c>
-      <c r="AG39">
-        <v>15.6</v>
-      </c>
-      <c r="AH39">
-        <v>0.546</v>
-      </c>
-      <c r="AI39">
-        <v>0.545</v>
-      </c>
-      <c r="AJ39">
-        <v>4.7</v>
-      </c>
-      <c r="AK39">
-        <v>6</v>
-      </c>
-      <c r="AL39">
-        <v>0.787</v>
-      </c>
-      <c r="AM39">
-        <v>2.3</v>
-      </c>
-      <c r="AN39">
-        <v>3.2</v>
-      </c>
-      <c r="AO39">
-        <v>5.5</v>
-      </c>
-      <c r="AP39">
-        <v>2.9</v>
-      </c>
-      <c r="AQ39">
-        <v>1.3</v>
-      </c>
-      <c r="AR39">
-        <v>0.4</v>
-      </c>
-      <c r="AS39">
-        <v>2.9</v>
-      </c>
-      <c r="AT39">
-        <v>3.3</v>
-      </c>
-      <c r="AU39">
-        <v>24.9</v>
-      </c>
-      <c r="AV39" t="s">
-        <v>190</v>
-      </c>
-      <c r="AW39" t="s">
-        <v>198</v>
-      </c>
-      <c r="AX39" t="s">
-        <v>198</v>
-      </c>
-      <c r="AY39">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="40" spans="1:51">
-      <c r="A40" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" t="s">
-        <v>129</v>
-      </c>
-      <c r="D40">
-        <v>23</v>
-      </c>
-      <c r="E40" t="s">
-        <v>151</v>
-      </c>
-      <c r="F40">
-        <v>30</v>
-      </c>
-      <c r="G40">
-        <v>30</v>
-      </c>
-      <c r="H40">
-        <v>78</v>
-      </c>
-      <c r="I40">
-        <v>0.385</v>
-      </c>
-      <c r="J40" t="s">
-        <v>152</v>
-      </c>
-      <c r="K40">
-        <v>10190</v>
-      </c>
-      <c r="L40">
-        <v>2158</v>
-      </c>
-      <c r="M40" t="s">
-        <v>191</v>
-      </c>
-      <c r="N40">
-        <v>10190</v>
-      </c>
-      <c r="O40" t="s">
-        <v>89</v>
-      </c>
-      <c r="P40" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q40">
-        <v>1962</v>
-      </c>
-      <c r="R40" t="s">
-        <v>195</v>
-      </c>
-      <c r="S40">
-        <v>24</v>
-      </c>
-      <c r="T40">
-        <v>2</v>
-      </c>
-      <c r="U40" t="s">
-        <v>197</v>
-      </c>
-      <c r="V40" t="s">
-        <v>151</v>
-      </c>
-      <c r="W40">
-        <v>82</v>
-      </c>
-      <c r="X40">
-        <v>82</v>
-      </c>
-      <c r="Y40">
-        <v>35.1</v>
-      </c>
-      <c r="Z40">
-        <v>6.9</v>
-      </c>
-      <c r="AA40">
-        <v>13.3</v>
-      </c>
-      <c r="AB40">
-        <v>0.514</v>
-      </c>
-      <c r="AC40">
-        <v>0.1</v>
-      </c>
-      <c r="AD40">
-        <v>0.4</v>
-      </c>
-      <c r="AE40">
-        <v>0.276</v>
-      </c>
-      <c r="AF40">
-        <v>6.8</v>
-      </c>
-      <c r="AG40">
-        <v>13</v>
-      </c>
-      <c r="AH40">
-        <v>0.521</v>
-      </c>
-      <c r="AI40">
-        <v>0.518</v>
-      </c>
-      <c r="AJ40">
-        <v>3.2</v>
-      </c>
-      <c r="AK40">
-        <v>4</v>
-      </c>
-      <c r="AL40">
-        <v>0.795</v>
-      </c>
-      <c r="AM40">
-        <v>2.2</v>
-      </c>
-      <c r="AN40">
-        <v>4</v>
-      </c>
-      <c r="AO40">
-        <v>6.3</v>
-      </c>
-      <c r="AP40">
-        <v>5.5</v>
-      </c>
-      <c r="AQ40">
-        <v>3.7</v>
-      </c>
-      <c r="AR40">
-        <v>0.5</v>
-      </c>
-      <c r="AS40">
-        <v>3.1</v>
-      </c>
-      <c r="AT40">
-        <v>3.6</v>
-      </c>
-      <c r="AU40">
-        <v>17</v>
-      </c>
-      <c r="AV40" t="s">
-        <v>191</v>
-      </c>
-      <c r="AW40" t="s">
-        <v>198</v>
-      </c>
-      <c r="AX40" t="s">
-        <v>198</v>
-      </c>
-      <c r="AY40">
         <v>1986</v>
       </c>
     </row>

--- a/mip_winners.xlsx
+++ b/mip_winners.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="191">
   <si>
     <t>season_ending_year_x</t>
   </si>
@@ -187,9 +187,6 @@
     <t>2017</t>
   </si>
   <si>
-    <t>2016</t>
-  </si>
-  <si>
     <t>2015</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
     <t>2005</t>
   </si>
   <si>
+    <t>2004</t>
+  </si>
+  <si>
     <t>2003</t>
   </si>
   <si>
@@ -298,9 +298,6 @@
     <t>Giannis Antetokounmpo</t>
   </si>
   <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
     <t>Jimmy Butler</t>
   </si>
   <si>
@@ -334,6 +331,9 @@
     <t>Bobby Simmons</t>
   </si>
   <si>
+    <t>Zach Randolph</t>
+  </si>
+  <si>
     <t>Gilbert Arenas</t>
   </si>
   <si>
@@ -406,30 +406,30 @@
     <t>MIL</t>
   </si>
   <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>PHO</t>
+  </si>
+  <si>
+    <t>ORL</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>GSW</t>
+  </si>
+  <si>
+    <t>LAC</t>
+  </si>
+  <si>
     <t>POR</t>
   </si>
   <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>PHO</t>
-  </si>
-  <si>
-    <t>ORL</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>HOU</t>
-  </si>
-  <si>
-    <t>GSW</t>
-  </si>
-  <si>
-    <t>LAC</t>
-  </si>
-  <si>
     <t>ATL</t>
   </si>
   <si>
@@ -469,9 +469,6 @@
     <t>2016-17</t>
   </si>
   <si>
-    <t>2015-16</t>
-  </si>
-  <si>
     <t>2014-15</t>
   </si>
   <si>
@@ -505,6 +502,9 @@
     <t>2004-05</t>
   </si>
   <si>
+    <t>2003-04</t>
+  </si>
+  <si>
     <t>2002-03</t>
   </si>
   <si>
@@ -560,6 +560,9 @@
   </si>
   <si>
     <t>Quincy Pondexter</t>
+  </si>
+  <si>
+    <t>Pau Gasol</t>
   </si>
   <si>
     <t>PG</t>
@@ -1155,7 +1158,7 @@
         <v>2000</v>
       </c>
       <c r="R2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="S2">
         <v>24</v>
@@ -1164,7 +1167,7 @@
         <v>4</v>
       </c>
       <c r="U2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V2" t="s">
         <v>124</v>
@@ -1248,10 +1251,10 @@
         <v>145</v>
       </c>
       <c r="AW2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AY2">
         <v>2024</v>
@@ -1310,7 +1313,7 @@
         <v>1997</v>
       </c>
       <c r="R3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="S3">
         <v>26</v>
@@ -1319,7 +1322,7 @@
         <v>6</v>
       </c>
       <c r="U3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V3" t="s">
         <v>125</v>
@@ -1403,10 +1406,10 @@
         <v>146</v>
       </c>
       <c r="AW3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AY3">
         <v>2023</v>
@@ -1465,7 +1468,7 @@
         <v>1999</v>
       </c>
       <c r="R4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="S4">
         <v>23</v>
@@ -1474,7 +1477,7 @@
         <v>3</v>
       </c>
       <c r="U4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V4" t="s">
         <v>126</v>
@@ -1558,10 +1561,10 @@
         <v>147</v>
       </c>
       <c r="AW4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AY4">
         <v>2022</v>
@@ -1620,7 +1623,7 @@
         <v>1994</v>
       </c>
       <c r="R5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="S5">
         <v>27</v>
@@ -1629,7 +1632,7 @@
         <v>7</v>
       </c>
       <c r="U5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V5" t="s">
         <v>127</v>
@@ -1713,10 +1716,10 @@
         <v>148</v>
       </c>
       <c r="AW5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AX5" t="s">
         <v>189</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>188</v>
       </c>
       <c r="AY5">
         <v>2021</v>
@@ -1775,7 +1778,7 @@
         <v>1992</v>
       </c>
       <c r="R6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S6">
         <v>26</v>
@@ -1784,7 +1787,7 @@
         <v>5</v>
       </c>
       <c r="U6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V6" t="s">
         <v>128</v>
@@ -1868,10 +1871,10 @@
         <v>149</v>
       </c>
       <c r="AW6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AY6">
         <v>2018</v>
@@ -1930,7 +1933,7 @@
         <v>1994</v>
       </c>
       <c r="R7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="S7">
         <v>23</v>
@@ -1939,7 +1942,7 @@
         <v>4</v>
       </c>
       <c r="U7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V7" t="s">
         <v>129</v>
@@ -2023,10 +2026,10 @@
         <v>150</v>
       </c>
       <c r="AW7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AY7">
         <v>2017</v>
@@ -2043,37 +2046,37 @@
         <v>94</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
         <v>130</v>
       </c>
       <c r="F8">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G8">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="H8">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="I8">
-        <v>0.86</v>
+        <v>0.829</v>
       </c>
       <c r="J8" t="s">
         <v>144</v>
       </c>
       <c r="K8">
-        <v>25847</v>
+        <v>25402</v>
       </c>
       <c r="L8">
-        <v>4154</v>
+        <v>4023</v>
       </c>
       <c r="M8" t="s">
         <v>151</v>
       </c>
       <c r="N8">
-        <v>25847</v>
+        <v>25402</v>
       </c>
       <c r="O8" t="s">
         <v>57</v>
@@ -2082,109 +2085,109 @@
         <v>94</v>
       </c>
       <c r="Q8">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="R8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V8" t="s">
         <v>130</v>
       </c>
       <c r="W8">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="X8">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Y8">
-        <v>34.8</v>
+        <v>38.7</v>
       </c>
       <c r="Z8">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AA8">
-        <v>17.9</v>
+        <v>14</v>
       </c>
       <c r="AB8">
-        <v>0.448</v>
+        <v>0.462</v>
       </c>
       <c r="AC8">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="AD8">
+        <v>3</v>
+      </c>
+      <c r="AE8">
+        <v>0.378</v>
+      </c>
+      <c r="AF8">
+        <v>5.4</v>
+      </c>
+      <c r="AG8">
+        <v>11.1</v>
+      </c>
+      <c r="AH8">
+        <v>0.484</v>
+      </c>
+      <c r="AI8">
+        <v>0.502</v>
+      </c>
+      <c r="AJ8">
         <v>5.9</v>
       </c>
-      <c r="AE8">
-        <v>0.417</v>
-      </c>
-      <c r="AF8">
-        <v>5.6</v>
-      </c>
-      <c r="AG8">
-        <v>12</v>
-      </c>
-      <c r="AH8">
-        <v>0.463</v>
-      </c>
-      <c r="AI8">
-        <v>0.517</v>
-      </c>
-      <c r="AJ8">
-        <v>2.3</v>
-      </c>
       <c r="AK8">
-        <v>2.8</v>
+        <v>7.1</v>
       </c>
       <c r="AL8">
-        <v>0.827</v>
+        <v>0.834</v>
       </c>
       <c r="AM8">
+        <v>1.8</v>
+      </c>
+      <c r="AN8">
+        <v>4.1</v>
+      </c>
+      <c r="AO8">
+        <v>5.8</v>
+      </c>
+      <c r="AP8">
+        <v>3.3</v>
+      </c>
+      <c r="AQ8">
+        <v>1.8</v>
+      </c>
+      <c r="AR8">
         <v>0.6</v>
       </c>
-      <c r="AN8">
-        <v>2.7</v>
-      </c>
-      <c r="AO8">
-        <v>3.2</v>
-      </c>
-      <c r="AP8">
-        <v>4.3</v>
-      </c>
-      <c r="AQ8">
-        <v>1.2</v>
-      </c>
-      <c r="AR8">
-        <v>0.3</v>
-      </c>
       <c r="AS8">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT8">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="AU8">
-        <v>20.8</v>
+        <v>20</v>
       </c>
       <c r="AV8" t="s">
         <v>151</v>
       </c>
       <c r="AW8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AY8">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="9" spans="1:51">
@@ -2198,37 +2201,37 @@
         <v>95</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
         <v>131</v>
       </c>
       <c r="F9">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="G9">
-        <v>535</v>
+        <v>408</v>
       </c>
       <c r="H9">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="I9">
-        <v>0.829</v>
+        <v>0.648</v>
       </c>
       <c r="J9" t="s">
         <v>144</v>
       </c>
       <c r="K9">
-        <v>25402</v>
+        <v>24695</v>
       </c>
       <c r="L9">
-        <v>4023</v>
+        <v>3817</v>
       </c>
       <c r="M9" t="s">
         <v>152</v>
       </c>
       <c r="N9">
-        <v>25402</v>
+        <v>24695</v>
       </c>
       <c r="O9" t="s">
         <v>58</v>
@@ -2237,109 +2240,109 @@
         <v>95</v>
       </c>
       <c r="Q9">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="R9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="T9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V9" t="s">
         <v>131</v>
       </c>
       <c r="W9">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="X9">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="Y9">
-        <v>38.7</v>
+        <v>35.1</v>
       </c>
       <c r="Z9">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="AA9">
-        <v>14</v>
+        <v>14.4</v>
       </c>
       <c r="AB9">
-        <v>0.462</v>
+        <v>0.505</v>
       </c>
       <c r="AC9">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="AD9">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="AE9">
-        <v>0.378</v>
+        <v>0.408</v>
       </c>
       <c r="AF9">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="AG9">
-        <v>11.1</v>
+        <v>10.4</v>
       </c>
       <c r="AH9">
-        <v>0.484</v>
+        <v>0.542</v>
       </c>
       <c r="AI9">
-        <v>0.502</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="AJ9">
+        <v>4.2</v>
+      </c>
+      <c r="AK9">
+        <v>5.5</v>
+      </c>
+      <c r="AL9">
+        <v>0.76</v>
+      </c>
+      <c r="AM9">
+        <v>0.9</v>
+      </c>
+      <c r="AN9">
+        <v>2.3</v>
+      </c>
+      <c r="AO9">
+        <v>3.2</v>
+      </c>
+      <c r="AP9">
         <v>5.9</v>
       </c>
-      <c r="AK9">
-        <v>7.1</v>
-      </c>
-      <c r="AL9">
-        <v>0.834</v>
-      </c>
-      <c r="AM9">
-        <v>1.8</v>
-      </c>
-      <c r="AN9">
-        <v>4.1</v>
-      </c>
-      <c r="AO9">
-        <v>5.8</v>
-      </c>
-      <c r="AP9">
-        <v>3.3</v>
-      </c>
       <c r="AQ9">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AR9">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AS9">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="AT9">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="AU9">
-        <v>20</v>
+        <v>20.3</v>
       </c>
       <c r="AV9" t="s">
         <v>152</v>
       </c>
       <c r="AW9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AY9">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="10" spans="1:51">
@@ -2353,148 +2356,148 @@
         <v>96</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F10">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G10">
-        <v>408</v>
+        <v>311</v>
       </c>
       <c r="H10">
-        <v>630</v>
+        <v>600</v>
       </c>
       <c r="I10">
-        <v>0.648</v>
+        <v>0.518</v>
       </c>
       <c r="J10" t="s">
         <v>144</v>
       </c>
       <c r="K10">
-        <v>24695</v>
+        <v>24357</v>
       </c>
       <c r="L10">
-        <v>3817</v>
+        <v>3969</v>
       </c>
       <c r="M10" t="s">
         <v>153</v>
       </c>
       <c r="N10">
-        <v>24695</v>
+        <v>24364</v>
       </c>
       <c r="O10" t="s">
         <v>59</v>
       </c>
       <c r="P10" t="s">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="Q10">
-        <v>1986</v>
+        <v>1988</v>
       </c>
       <c r="R10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S10">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V10" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="W10">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="X10">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>35.1</v>
+        <v>21.1</v>
       </c>
       <c r="Z10">
-        <v>7.3</v>
+        <v>2.2</v>
       </c>
       <c r="AA10">
-        <v>14.4</v>
+        <v>5.1</v>
       </c>
       <c r="AB10">
-        <v>0.505</v>
+        <v>0.428</v>
       </c>
       <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>2.6</v>
+      </c>
+      <c r="AE10">
+        <v>0.395</v>
+      </c>
+      <c r="AF10">
+        <v>1.2</v>
+      </c>
+      <c r="AG10">
+        <v>2.5</v>
+      </c>
+      <c r="AH10">
+        <v>0.463</v>
+      </c>
+      <c r="AI10">
+        <v>0.528</v>
+      </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AK10">
+        <v>1.3</v>
+      </c>
+      <c r="AL10">
+        <v>0.787</v>
+      </c>
+      <c r="AM10">
+        <v>0.7</v>
+      </c>
+      <c r="AN10">
+        <v>1.5</v>
+      </c>
+      <c r="AO10">
+        <v>2.2</v>
+      </c>
+      <c r="AP10">
+        <v>1</v>
+      </c>
+      <c r="AQ10">
+        <v>0.6</v>
+      </c>
+      <c r="AR10">
+        <v>0.1</v>
+      </c>
+      <c r="AS10">
+        <v>0.7</v>
+      </c>
+      <c r="AT10">
         <v>1.6</v>
       </c>
-      <c r="AD10">
-        <v>3.9</v>
-      </c>
-      <c r="AE10">
-        <v>0.408</v>
-      </c>
-      <c r="AF10">
-        <v>5.7</v>
-      </c>
-      <c r="AG10">
-        <v>10.4</v>
-      </c>
-      <c r="AH10">
-        <v>0.542</v>
-      </c>
-      <c r="AI10">
-        <v>0.5610000000000001</v>
-      </c>
-      <c r="AJ10">
-        <v>4.2</v>
-      </c>
-      <c r="AK10">
-        <v>5.5</v>
-      </c>
-      <c r="AL10">
-        <v>0.76</v>
-      </c>
-      <c r="AM10">
-        <v>0.9</v>
-      </c>
-      <c r="AN10">
-        <v>2.3</v>
-      </c>
-      <c r="AO10">
-        <v>3.2</v>
-      </c>
-      <c r="AP10">
-        <v>5.9</v>
-      </c>
-      <c r="AQ10">
-        <v>1.4</v>
-      </c>
-      <c r="AR10">
-        <v>0.3</v>
-      </c>
-      <c r="AS10">
-        <v>2.8</v>
-      </c>
-      <c r="AT10">
-        <v>2.7</v>
-      </c>
       <c r="AU10">
-        <v>20.3</v>
+        <v>6.4</v>
       </c>
       <c r="AV10" t="s">
         <v>153</v>
       </c>
       <c r="AW10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AY10">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="11" spans="1:51">
@@ -2508,148 +2511,148 @@
         <v>97</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F11">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G11">
-        <v>311</v>
+        <v>260</v>
       </c>
       <c r="H11">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="I11">
-        <v>0.518</v>
+        <v>0.43</v>
       </c>
       <c r="J11" t="s">
         <v>144</v>
       </c>
       <c r="K11">
-        <v>24357</v>
+        <v>23823</v>
       </c>
       <c r="L11">
-        <v>3969</v>
+        <v>3850</v>
       </c>
       <c r="M11" t="s">
         <v>154</v>
       </c>
       <c r="N11">
-        <v>24364</v>
+        <v>23823</v>
       </c>
       <c r="O11" t="s">
         <v>60</v>
       </c>
       <c r="P11" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
       <c r="Q11">
         <v>1988</v>
       </c>
       <c r="R11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="S11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V11" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="W11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="Y11">
-        <v>21.1</v>
+        <v>32.2</v>
       </c>
       <c r="Z11">
-        <v>2.2</v>
+        <v>5.4</v>
       </c>
       <c r="AA11">
-        <v>5.1</v>
+        <v>12.4</v>
       </c>
       <c r="AB11">
-        <v>0.428</v>
+        <v>0.439</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="AD11">
-        <v>2.6</v>
+        <v>6.9</v>
       </c>
       <c r="AE11">
-        <v>0.395</v>
+        <v>0.393</v>
       </c>
       <c r="AF11">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="AG11">
+        <v>5.5</v>
+      </c>
+      <c r="AH11">
+        <v>0.496</v>
+      </c>
+      <c r="AI11">
+        <v>0.548</v>
+      </c>
+      <c r="AJ11">
         <v>2.5</v>
       </c>
-      <c r="AH11">
-        <v>0.463</v>
-      </c>
-      <c r="AI11">
-        <v>0.528</v>
-      </c>
-      <c r="AJ11">
-        <v>1</v>
-      </c>
       <c r="AK11">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="AL11">
-        <v>0.787</v>
+        <v>0.877</v>
       </c>
       <c r="AM11">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="AN11">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="AO11">
-        <v>2.2</v>
+        <v>7.7</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ11">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AR11">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="AS11">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AT11">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="AU11">
-        <v>6.4</v>
+        <v>16.1</v>
       </c>
       <c r="AV11" t="s">
         <v>154</v>
       </c>
       <c r="AW11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AY11">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="12" spans="1:51">
@@ -2663,37 +2666,37 @@
         <v>98</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
         <v>133</v>
       </c>
       <c r="F12">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="G12">
-        <v>260</v>
+        <v>400</v>
       </c>
       <c r="H12">
-        <v>605</v>
+        <v>580</v>
       </c>
       <c r="I12">
-        <v>0.43</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J12" t="s">
         <v>144</v>
       </c>
       <c r="K12">
-        <v>23823</v>
+        <v>23088</v>
       </c>
       <c r="L12">
-        <v>3850</v>
+        <v>3830</v>
       </c>
       <c r="M12" t="s">
         <v>155</v>
       </c>
       <c r="N12">
-        <v>23823</v>
+        <v>23088</v>
       </c>
       <c r="O12" t="s">
         <v>61</v>
@@ -2705,106 +2708,106 @@
         <v>1988</v>
       </c>
       <c r="R12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="S12">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V12" t="s">
         <v>133</v>
       </c>
       <c r="W12">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="X12">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="Y12">
-        <v>32.2</v>
+        <v>35.8</v>
       </c>
       <c r="Z12">
+        <v>6.6</v>
+      </c>
+      <c r="AA12">
+        <v>14.1</v>
+      </c>
+      <c r="AB12">
+        <v>0.47</v>
+      </c>
+      <c r="AC12">
+        <v>1.2</v>
+      </c>
+      <c r="AD12">
+        <v>2.9</v>
+      </c>
+      <c r="AE12">
+        <v>0.417</v>
+      </c>
+      <c r="AF12">
         <v>5.4</v>
       </c>
-      <c r="AA12">
-        <v>12.4</v>
-      </c>
-      <c r="AB12">
-        <v>0.439</v>
-      </c>
-      <c r="AC12">
-        <v>2.7</v>
-      </c>
-      <c r="AD12">
-        <v>6.9</v>
-      </c>
-      <c r="AE12">
-        <v>0.393</v>
-      </c>
-      <c r="AF12">
-        <v>2.7</v>
-      </c>
       <c r="AG12">
-        <v>5.5</v>
+        <v>11.2</v>
       </c>
       <c r="AH12">
-        <v>0.496</v>
+        <v>0.483</v>
       </c>
       <c r="AI12">
-        <v>0.548</v>
+        <v>0.513</v>
       </c>
       <c r="AJ12">
+        <v>5.8</v>
+      </c>
+      <c r="AK12">
+        <v>6.8</v>
+      </c>
+      <c r="AL12">
+        <v>0.85</v>
+      </c>
+      <c r="AM12">
+        <v>4.5</v>
+      </c>
+      <c r="AN12">
+        <v>10.7</v>
+      </c>
+      <c r="AO12">
+        <v>15.2</v>
+      </c>
+      <c r="AP12">
         <v>2.5</v>
       </c>
-      <c r="AK12">
-        <v>2.8</v>
-      </c>
-      <c r="AL12">
-        <v>0.877</v>
-      </c>
-      <c r="AM12">
-        <v>3.7</v>
-      </c>
-      <c r="AN12">
-        <v>4</v>
-      </c>
-      <c r="AO12">
-        <v>7.7</v>
-      </c>
-      <c r="AP12">
-        <v>0.9</v>
-      </c>
       <c r="AQ12">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AR12">
         <v>0.4</v>
       </c>
       <c r="AS12">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="AT12">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AU12">
-        <v>16.1</v>
+        <v>20.2</v>
       </c>
       <c r="AV12" t="s">
         <v>155</v>
       </c>
       <c r="AW12" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AX12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AY12">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="13" spans="1:51">
@@ -2818,37 +2821,37 @@
         <v>99</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
         <v>134</v>
       </c>
       <c r="F13">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G13">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H13">
-        <v>580</v>
+        <v>615</v>
       </c>
       <c r="I13">
-        <v>0.6899999999999999</v>
+        <v>0.655</v>
       </c>
       <c r="J13" t="s">
         <v>144</v>
       </c>
       <c r="K13">
-        <v>23088</v>
+        <v>22157</v>
       </c>
       <c r="L13">
-        <v>3830</v>
+        <v>3731</v>
       </c>
       <c r="M13" t="s">
         <v>156</v>
       </c>
       <c r="N13">
-        <v>23088</v>
+        <v>22157</v>
       </c>
       <c r="O13" t="s">
         <v>62</v>
@@ -2857,97 +2860,97 @@
         <v>99</v>
       </c>
       <c r="Q13">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="R13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S13">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="T13">
         <v>3</v>
       </c>
       <c r="U13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V13" t="s">
         <v>134</v>
       </c>
       <c r="W13">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="X13">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="Y13">
-        <v>35.8</v>
+        <v>35.6</v>
       </c>
       <c r="Z13">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AA13">
-        <v>14.1</v>
+        <v>16.2</v>
       </c>
       <c r="AB13">
-        <v>0.47</v>
+        <v>0.432</v>
       </c>
       <c r="AC13">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="AD13">
-        <v>2.9</v>
+        <v>6.4</v>
       </c>
       <c r="AE13">
-        <v>0.417</v>
+        <v>0.398</v>
       </c>
       <c r="AF13">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="AG13">
-        <v>11.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH13">
-        <v>0.483</v>
+        <v>0.454</v>
       </c>
       <c r="AI13">
-        <v>0.513</v>
+        <v>0.511</v>
       </c>
       <c r="AJ13">
-        <v>5.8</v>
+        <v>3</v>
       </c>
       <c r="AK13">
-        <v>6.8</v>
+        <v>3.6</v>
       </c>
       <c r="AL13">
-        <v>0.85</v>
+        <v>0.822</v>
       </c>
       <c r="AM13">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="AN13">
-        <v>10.7</v>
+        <v>2</v>
       </c>
       <c r="AO13">
-        <v>15.2</v>
+        <v>2.6</v>
       </c>
       <c r="AP13">
-        <v>2.5</v>
+        <v>5.3</v>
       </c>
       <c r="AQ13">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AR13">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AS13">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="AT13">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AU13">
-        <v>20.2</v>
+        <v>19.6</v>
       </c>
       <c r="AV13" t="s">
         <v>156</v>
@@ -2956,10 +2959,10 @@
         <v>189</v>
       </c>
       <c r="AX13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AY13">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="14" spans="1:51">
@@ -2976,34 +2979,34 @@
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F14">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="G14">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="H14">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="I14">
-        <v>0.655</v>
+        <v>0.602</v>
       </c>
       <c r="J14" t="s">
         <v>144</v>
       </c>
       <c r="K14">
-        <v>22157</v>
+        <v>21718</v>
       </c>
       <c r="L14">
-        <v>3731</v>
+        <v>3589</v>
       </c>
       <c r="M14" t="s">
         <v>157</v>
       </c>
       <c r="N14">
-        <v>22157</v>
+        <v>21718</v>
       </c>
       <c r="O14" t="s">
         <v>63</v>
@@ -3012,109 +3015,109 @@
         <v>100</v>
       </c>
       <c r="Q14">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="R14" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S14">
         <v>26</v>
       </c>
       <c r="T14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V14" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="W14">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="X14">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="Y14">
-        <v>35.6</v>
+        <v>36.2</v>
       </c>
       <c r="Z14">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AA14">
-        <v>16.2</v>
+        <v>19.1</v>
       </c>
       <c r="AB14">
-        <v>0.432</v>
+        <v>0.447</v>
       </c>
       <c r="AC14">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="AD14">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="AE14">
-        <v>0.398</v>
+        <v>0.404</v>
       </c>
       <c r="AF14">
-        <v>4.5</v>
+        <v>5.8</v>
       </c>
       <c r="AG14">
-        <v>9.800000000000001</v>
+        <v>12.3</v>
       </c>
       <c r="AH14">
-        <v>0.454</v>
+        <v>0.47</v>
       </c>
       <c r="AI14">
-        <v>0.511</v>
+        <v>0.518</v>
       </c>
       <c r="AJ14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AK14">
-        <v>3.6</v>
+        <v>6.9</v>
       </c>
       <c r="AL14">
-        <v>0.822</v>
+        <v>0.878</v>
       </c>
       <c r="AM14">
         <v>0.7</v>
       </c>
       <c r="AN14">
-        <v>2</v>
+        <v>4.4</v>
       </c>
       <c r="AO14">
-        <v>2.6</v>
+        <v>5.1</v>
       </c>
       <c r="AP14">
-        <v>5.3</v>
+        <v>2.7</v>
       </c>
       <c r="AQ14">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR14">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="AS14">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="AT14">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="AU14">
-        <v>19.6</v>
+        <v>25.8</v>
       </c>
       <c r="AV14" t="s">
         <v>157</v>
       </c>
       <c r="AW14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AY14">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="15" spans="1:51">
@@ -3128,37 +3131,37 @@
         <v>101</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F15">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G15">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="H15">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="I15">
-        <v>0.602</v>
+        <v>0.608</v>
       </c>
       <c r="J15" t="s">
         <v>144</v>
       </c>
       <c r="K15">
-        <v>21718</v>
+        <v>21195</v>
       </c>
       <c r="L15">
-        <v>3589</v>
+        <v>3252</v>
       </c>
       <c r="M15" t="s">
         <v>158</v>
       </c>
       <c r="N15">
-        <v>21718</v>
+        <v>21195</v>
       </c>
       <c r="O15" t="s">
         <v>64</v>
@@ -3167,109 +3170,109 @@
         <v>101</v>
       </c>
       <c r="Q15">
-        <v>1983</v>
+        <v>1979</v>
       </c>
       <c r="R15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="S15">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="T15">
+        <v>8</v>
+      </c>
+      <c r="U15" t="s">
+        <v>188</v>
+      </c>
+      <c r="V15" t="s">
+        <v>132</v>
+      </c>
+      <c r="W15">
+        <v>82</v>
+      </c>
+      <c r="X15">
+        <v>82</v>
+      </c>
+      <c r="Y15">
+        <v>36.9</v>
+      </c>
+      <c r="Z15">
+        <v>6.8</v>
+      </c>
+      <c r="AA15">
+        <v>14.9</v>
+      </c>
+      <c r="AB15">
+        <v>0.456</v>
+      </c>
+      <c r="AC15">
+        <v>2</v>
+      </c>
+      <c r="AD15">
+        <v>5.1</v>
+      </c>
+      <c r="AE15">
+        <v>0.4</v>
+      </c>
+      <c r="AF15">
+        <v>4.8</v>
+      </c>
+      <c r="AG15">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH15">
+        <v>0.485</v>
+      </c>
+      <c r="AI15">
+        <v>0.524</v>
+      </c>
+      <c r="AJ15">
         <v>4</v>
       </c>
-      <c r="U15" t="s">
-        <v>187</v>
-      </c>
-      <c r="V15" t="s">
-        <v>128</v>
-      </c>
-      <c r="W15">
-        <v>67</v>
-      </c>
-      <c r="X15">
-        <v>66</v>
-      </c>
-      <c r="Y15">
-        <v>36.2</v>
-      </c>
-      <c r="Z15">
-        <v>8.5</v>
-      </c>
-      <c r="AA15">
-        <v>19.1</v>
-      </c>
-      <c r="AB15">
-        <v>0.447</v>
-      </c>
-      <c r="AC15">
-        <v>2.7</v>
-      </c>
-      <c r="AD15">
-        <v>6.7</v>
-      </c>
-      <c r="AE15">
-        <v>0.404</v>
-      </c>
-      <c r="AF15">
-        <v>5.8</v>
-      </c>
-      <c r="AG15">
-        <v>12.3</v>
-      </c>
-      <c r="AH15">
-        <v>0.47</v>
-      </c>
-      <c r="AI15">
-        <v>0.518</v>
-      </c>
-      <c r="AJ15">
-        <v>6</v>
-      </c>
       <c r="AK15">
-        <v>6.9</v>
+        <v>4.8</v>
       </c>
       <c r="AL15">
-        <v>0.878</v>
+        <v>0.829</v>
       </c>
       <c r="AM15">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AN15">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="AO15">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="AP15">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR15">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="AS15">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AT15">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AU15">
-        <v>25.8</v>
+        <v>19.5</v>
       </c>
       <c r="AV15" t="s">
         <v>158</v>
       </c>
       <c r="AW15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AY15">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="16" spans="1:51">
@@ -3283,37 +3286,37 @@
         <v>102</v>
       </c>
       <c r="D16">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F16">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G16">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="H16">
-        <v>625</v>
+        <v>645</v>
       </c>
       <c r="I16">
-        <v>0.608</v>
+        <v>0.546</v>
       </c>
       <c r="J16" t="s">
         <v>144</v>
       </c>
       <c r="K16">
-        <v>21195</v>
+        <v>20828</v>
       </c>
       <c r="L16">
-        <v>3252</v>
+        <v>3627</v>
       </c>
       <c r="M16" t="s">
         <v>159</v>
       </c>
       <c r="N16">
-        <v>21195</v>
+        <v>20828</v>
       </c>
       <c r="O16" t="s">
         <v>65</v>
@@ -3322,109 +3325,109 @@
         <v>102</v>
       </c>
       <c r="Q16">
-        <v>1979</v>
+        <v>1985</v>
       </c>
       <c r="R16" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="S16">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="T16">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="U16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="W16">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="X16">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="Y16">
-        <v>36.9</v>
+        <v>34.3</v>
       </c>
       <c r="Z16">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="AA16">
-        <v>14.9</v>
+        <v>13.1</v>
       </c>
       <c r="AB16">
-        <v>0.456</v>
+        <v>0.475</v>
       </c>
       <c r="AC16">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AD16">
-        <v>5.1</v>
+        <v>1.9</v>
       </c>
       <c r="AE16">
-        <v>0.4</v>
+        <v>0.273</v>
       </c>
       <c r="AF16">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="AG16">
-        <v>9.800000000000001</v>
+        <v>11.3</v>
       </c>
       <c r="AH16">
-        <v>0.485</v>
+        <v>0.509</v>
       </c>
       <c r="AI16">
-        <v>0.524</v>
+        <v>0.495</v>
       </c>
       <c r="AJ16">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AK16">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="AL16">
-        <v>0.829</v>
+        <v>0.763</v>
       </c>
       <c r="AM16">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AN16">
-        <v>4.7</v>
+        <v>2.4</v>
       </c>
       <c r="AO16">
-        <v>5.7</v>
+        <v>3.2</v>
       </c>
       <c r="AP16">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="AQ16">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="AR16">
         <v>0.3</v>
       </c>
       <c r="AS16">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AT16">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AU16">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AV16" t="s">
         <v>159</v>
       </c>
       <c r="AW16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AY16">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="17" spans="1:51">
@@ -3438,37 +3441,37 @@
         <v>103</v>
       </c>
       <c r="D17">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F17">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="G17">
-        <v>352</v>
+        <v>489</v>
       </c>
       <c r="H17">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="I17">
-        <v>0.546</v>
+        <v>0.776</v>
       </c>
       <c r="J17" t="s">
         <v>144</v>
       </c>
       <c r="K17">
-        <v>20828</v>
+        <v>19960</v>
       </c>
       <c r="L17">
-        <v>3627</v>
+        <v>3431</v>
       </c>
       <c r="M17" t="s">
         <v>160</v>
       </c>
       <c r="N17">
-        <v>20828</v>
+        <v>19960</v>
       </c>
       <c r="O17" t="s">
         <v>66</v>
@@ -3477,109 +3480,109 @@
         <v>103</v>
       </c>
       <c r="Q17">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="R17" t="s">
         <v>185</v>
       </c>
       <c r="S17">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T17">
+        <v>3</v>
+      </c>
+      <c r="U17" t="s">
+        <v>188</v>
+      </c>
+      <c r="V17" t="s">
+        <v>131</v>
+      </c>
+      <c r="W17">
+        <v>81</v>
+      </c>
+      <c r="X17">
+        <v>70</v>
+      </c>
+      <c r="Y17">
+        <v>35.5</v>
+      </c>
+      <c r="Z17">
+        <v>5.5</v>
+      </c>
+      <c r="AA17">
+        <v>10.5</v>
+      </c>
+      <c r="AB17">
+        <v>0.526</v>
+      </c>
+      <c r="AC17">
+        <v>0.1</v>
+      </c>
+      <c r="AD17">
+        <v>0.4</v>
+      </c>
+      <c r="AE17">
+        <v>0.267</v>
+      </c>
+      <c r="AF17">
+        <v>5.4</v>
+      </c>
+      <c r="AG17">
+        <v>10.2</v>
+      </c>
+      <c r="AH17">
+        <v>0.536</v>
+      </c>
+      <c r="AI17">
+        <v>0.531</v>
+      </c>
+      <c r="AJ17">
+        <v>2.1</v>
+      </c>
+      <c r="AK17">
+        <v>2.9</v>
+      </c>
+      <c r="AL17">
+        <v>0.731</v>
+      </c>
+      <c r="AM17">
         <v>2</v>
       </c>
-      <c r="U17" t="s">
-        <v>187</v>
-      </c>
-      <c r="V17" t="s">
-        <v>136</v>
-      </c>
-      <c r="W17">
-        <v>77</v>
-      </c>
-      <c r="X17">
-        <v>53</v>
-      </c>
-      <c r="Y17">
-        <v>34.3</v>
-      </c>
-      <c r="Z17">
+      <c r="AN17">
+        <v>4.9</v>
+      </c>
+      <c r="AO17">
+        <v>6.9</v>
+      </c>
+      <c r="AP17">
         <v>6.2</v>
       </c>
-      <c r="AA17">
-        <v>13.1</v>
-      </c>
-      <c r="AB17">
-        <v>0.475</v>
-      </c>
-      <c r="AC17">
-        <v>0.5</v>
-      </c>
-      <c r="AD17">
-        <v>1.9</v>
-      </c>
-      <c r="AE17">
-        <v>0.273</v>
-      </c>
-      <c r="AF17">
-        <v>5.7</v>
-      </c>
-      <c r="AG17">
-        <v>11.3</v>
-      </c>
-      <c r="AH17">
-        <v>0.509</v>
-      </c>
-      <c r="AI17">
-        <v>0.495</v>
-      </c>
-      <c r="AJ17">
-        <v>3.5</v>
-      </c>
-      <c r="AK17">
-        <v>4.6</v>
-      </c>
-      <c r="AL17">
-        <v>0.763</v>
-      </c>
-      <c r="AM17">
-        <v>0.8</v>
-      </c>
-      <c r="AN17">
-        <v>2.4</v>
-      </c>
-      <c r="AO17">
+      <c r="AQ17">
+        <v>0.7</v>
+      </c>
+      <c r="AR17">
+        <v>1</v>
+      </c>
+      <c r="AS17">
+        <v>2.3</v>
+      </c>
+      <c r="AT17">
         <v>3.2</v>
       </c>
-      <c r="AP17">
-        <v>4.1</v>
-      </c>
-      <c r="AQ17">
-        <v>1.7</v>
-      </c>
-      <c r="AR17">
-        <v>0.3</v>
-      </c>
-      <c r="AS17">
-        <v>2.9</v>
-      </c>
-      <c r="AT17">
-        <v>2.7</v>
-      </c>
       <c r="AU17">
-        <v>16.5</v>
+        <v>13.3</v>
       </c>
       <c r="AV17" t="s">
         <v>160</v>
       </c>
       <c r="AW17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AY17">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="18" spans="1:51">
@@ -3593,37 +3596,37 @@
         <v>104</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F18">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="G18">
-        <v>489</v>
+        <v>384</v>
       </c>
       <c r="H18">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="I18">
-        <v>0.776</v>
+        <v>0.624</v>
       </c>
       <c r="J18" t="s">
         <v>144</v>
       </c>
       <c r="K18">
-        <v>19960</v>
+        <v>19374</v>
       </c>
       <c r="L18">
-        <v>3431</v>
+        <v>3301</v>
       </c>
       <c r="M18" t="s">
         <v>161</v>
       </c>
       <c r="N18">
-        <v>19960</v>
+        <v>19374</v>
       </c>
       <c r="O18" t="s">
         <v>67</v>
@@ -3632,109 +3635,109 @@
         <v>104</v>
       </c>
       <c r="Q18">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="R18" t="s">
         <v>184</v>
       </c>
       <c r="S18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T18">
+        <v>4</v>
+      </c>
+      <c r="U18" t="s">
+        <v>188</v>
+      </c>
+      <c r="V18" t="s">
+        <v>136</v>
+      </c>
+      <c r="W18">
+        <v>75</v>
+      </c>
+      <c r="X18">
+        <v>74</v>
+      </c>
+      <c r="Y18">
+        <v>37.3</v>
+      </c>
+      <c r="Z18">
+        <v>6.3</v>
+      </c>
+      <c r="AA18">
+        <v>13.6</v>
+      </c>
+      <c r="AB18">
+        <v>0.466</v>
+      </c>
+      <c r="AC18">
+        <v>0.7</v>
+      </c>
+      <c r="AD18">
+        <v>1.5</v>
+      </c>
+      <c r="AE18">
+        <v>0.435</v>
+      </c>
+      <c r="AF18">
+        <v>5.7</v>
+      </c>
+      <c r="AG18">
+        <v>12</v>
+      </c>
+      <c r="AH18">
+        <v>0.47</v>
+      </c>
+      <c r="AI18">
+        <v>0.491</v>
+      </c>
+      <c r="AJ18">
+        <v>3.1</v>
+      </c>
+      <c r="AK18">
+        <v>3.6</v>
+      </c>
+      <c r="AL18">
+        <v>0.846</v>
+      </c>
+      <c r="AM18">
+        <v>1.7</v>
+      </c>
+      <c r="AN18">
+        <v>4.2</v>
+      </c>
+      <c r="AO18">
+        <v>5.9</v>
+      </c>
+      <c r="AP18">
+        <v>2.7</v>
+      </c>
+      <c r="AQ18">
+        <v>1.4</v>
+      </c>
+      <c r="AR18">
+        <v>0.2</v>
+      </c>
+      <c r="AS18">
+        <v>1.8</v>
+      </c>
+      <c r="AT18">
         <v>3</v>
       </c>
-      <c r="U18" t="s">
-        <v>187</v>
-      </c>
-      <c r="V18" t="s">
-        <v>132</v>
-      </c>
-      <c r="W18">
-        <v>81</v>
-      </c>
-      <c r="X18">
-        <v>70</v>
-      </c>
-      <c r="Y18">
-        <v>35.5</v>
-      </c>
-      <c r="Z18">
-        <v>5.5</v>
-      </c>
-      <c r="AA18">
-        <v>10.5</v>
-      </c>
-      <c r="AB18">
-        <v>0.526</v>
-      </c>
-      <c r="AC18">
-        <v>0.1</v>
-      </c>
-      <c r="AD18">
-        <v>0.4</v>
-      </c>
-      <c r="AE18">
-        <v>0.267</v>
-      </c>
-      <c r="AF18">
-        <v>5.4</v>
-      </c>
-      <c r="AG18">
-        <v>10.2</v>
-      </c>
-      <c r="AH18">
-        <v>0.536</v>
-      </c>
-      <c r="AI18">
-        <v>0.531</v>
-      </c>
-      <c r="AJ18">
-        <v>2.1</v>
-      </c>
-      <c r="AK18">
-        <v>2.9</v>
-      </c>
-      <c r="AL18">
-        <v>0.731</v>
-      </c>
-      <c r="AM18">
-        <v>2</v>
-      </c>
-      <c r="AN18">
-        <v>4.9</v>
-      </c>
-      <c r="AO18">
-        <v>6.9</v>
-      </c>
-      <c r="AP18">
-        <v>6.2</v>
-      </c>
-      <c r="AQ18">
-        <v>0.7</v>
-      </c>
-      <c r="AR18">
-        <v>1</v>
-      </c>
-      <c r="AS18">
-        <v>2.3</v>
-      </c>
-      <c r="AT18">
-        <v>3.2</v>
-      </c>
       <c r="AU18">
-        <v>13.3</v>
+        <v>16.4</v>
       </c>
       <c r="AV18" t="s">
         <v>161</v>
       </c>
       <c r="AW18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AY18">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="19" spans="1:51">
@@ -3748,7 +3751,7 @@
         <v>105</v>
       </c>
       <c r="D19">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
         <v>137</v>
@@ -3757,139 +3760,139 @@
         <v>59</v>
       </c>
       <c r="G19">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="H19">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="I19">
-        <v>0.624</v>
+        <v>0.626</v>
       </c>
       <c r="J19" t="s">
         <v>144</v>
       </c>
       <c r="K19">
-        <v>19374</v>
+        <v>19306</v>
       </c>
       <c r="L19">
-        <v>3301</v>
+        <v>3363</v>
       </c>
       <c r="M19" t="s">
         <v>162</v>
       </c>
       <c r="N19">
-        <v>19374</v>
+        <v>19146</v>
       </c>
       <c r="O19" t="s">
         <v>68</v>
       </c>
       <c r="P19" t="s">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c r="Q19">
         <v>1980</v>
       </c>
       <c r="R19" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="S19">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V19" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="W19">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="X19">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Y19">
-        <v>37.3</v>
+        <v>31.5</v>
       </c>
       <c r="Z19">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AA19">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="AB19">
-        <v>0.466</v>
+        <v>0.482</v>
       </c>
       <c r="AC19">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="AD19">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="AE19">
-        <v>0.435</v>
+        <v>0.267</v>
       </c>
       <c r="AF19">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="AG19">
-        <v>12</v>
+        <v>13.3</v>
       </c>
       <c r="AH19">
-        <v>0.47</v>
+        <v>0.485</v>
       </c>
       <c r="AI19">
-        <v>0.491</v>
+        <v>0.484</v>
       </c>
       <c r="AJ19">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="AK19">
-        <v>3.6</v>
+        <v>6.6</v>
       </c>
       <c r="AL19">
-        <v>0.846</v>
+        <v>0.714</v>
       </c>
       <c r="AM19">
+        <v>2.6</v>
+      </c>
+      <c r="AN19">
+        <v>5.1</v>
+      </c>
+      <c r="AO19">
+        <v>7.7</v>
+      </c>
+      <c r="AP19">
+        <v>2.5</v>
+      </c>
+      <c r="AQ19">
+        <v>0.6</v>
+      </c>
+      <c r="AR19">
         <v>1.7</v>
       </c>
-      <c r="AN19">
-        <v>4.2</v>
-      </c>
-      <c r="AO19">
-        <v>5.9</v>
-      </c>
-      <c r="AP19">
-        <v>2.7</v>
-      </c>
-      <c r="AQ19">
-        <v>1.4</v>
-      </c>
-      <c r="AR19">
-        <v>0.2</v>
-      </c>
       <c r="AS19">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="AT19">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AU19">
-        <v>16.4</v>
+        <v>17.7</v>
       </c>
       <c r="AV19" t="s">
         <v>162</v>
       </c>
       <c r="AW19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AY19">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="20" spans="1:51">
@@ -3906,7 +3909,7 @@
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F20">
         <v>41</v>
@@ -3945,7 +3948,7 @@
         <v>1981</v>
       </c>
       <c r="R20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="S20">
         <v>22</v>
@@ -3954,10 +3957,10 @@
         <v>2</v>
       </c>
       <c r="U20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W20">
         <v>82</v>
@@ -4038,10 +4041,10 @@
         <v>163</v>
       </c>
       <c r="AW20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AY20">
         <v>2003</v>
@@ -4100,7 +4103,7 @@
         <v>1978</v>
       </c>
       <c r="R21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="S21">
         <v>24</v>
@@ -4109,7 +4112,7 @@
         <v>6</v>
       </c>
       <c r="U21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V21" t="s">
         <v>128</v>
@@ -4193,10 +4196,10 @@
         <v>164</v>
       </c>
       <c r="AW21" t="s">
+        <v>190</v>
+      </c>
+      <c r="AX21" t="s">
         <v>189</v>
-      </c>
-      <c r="AX21" t="s">
-        <v>188</v>
       </c>
       <c r="AY21">
         <v>2002</v>
@@ -4216,7 +4219,7 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F22">
         <v>74</v>
@@ -4255,7 +4258,7 @@
         <v>1979</v>
       </c>
       <c r="R22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S22">
         <v>22</v>
@@ -4264,10 +4267,10 @@
         <v>4</v>
       </c>
       <c r="U22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W22">
         <v>77</v>
@@ -4348,10 +4351,10 @@
         <v>165</v>
       </c>
       <c r="AW22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AY22">
         <v>2001</v>
@@ -4410,7 +4413,7 @@
         <v>1972</v>
       </c>
       <c r="R23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="S23">
         <v>28</v>
@@ -4419,7 +4422,7 @@
         <v>6</v>
       </c>
       <c r="U23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V23" t="s">
         <v>128</v>
@@ -4503,10 +4506,10 @@
         <v>166</v>
       </c>
       <c r="AW23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AY23">
         <v>2000</v>
@@ -4526,7 +4529,7 @@
         <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F24">
         <v>54</v>
@@ -4565,7 +4568,7 @@
         <v>1968</v>
       </c>
       <c r="R24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="S24">
         <v>31</v>
@@ -4574,10 +4577,10 @@
         <v>5</v>
       </c>
       <c r="U24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W24">
         <v>50</v>
@@ -4658,10 +4661,10 @@
         <v>167</v>
       </c>
       <c r="AW24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AY24">
         <v>1999</v>
@@ -4720,7 +4723,7 @@
         <v>1972</v>
       </c>
       <c r="R25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="S25">
         <v>26</v>
@@ -4729,7 +4732,7 @@
         <v>3</v>
       </c>
       <c r="U25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V25" t="s">
         <v>138</v>
@@ -4813,10 +4816,10 @@
         <v>168</v>
       </c>
       <c r="AW25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AY25">
         <v>1998</v>
@@ -4875,7 +4878,7 @@
         <v>1969</v>
       </c>
       <c r="R26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="S26">
         <v>28</v>
@@ -4884,7 +4887,7 @@
         <v>4</v>
       </c>
       <c r="U26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V26" t="s">
         <v>139</v>
@@ -4968,10 +4971,10 @@
         <v>169</v>
       </c>
       <c r="AW26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AY26">
         <v>1997</v>
@@ -5030,7 +5033,7 @@
         <v>1971</v>
       </c>
       <c r="R27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="S27">
         <v>25</v>
@@ -5039,7 +5042,7 @@
         <v>3</v>
       </c>
       <c r="U27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V27" t="s">
         <v>140</v>
@@ -5123,10 +5126,10 @@
         <v>170</v>
       </c>
       <c r="AW27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AY27">
         <v>1996</v>
@@ -5185,7 +5188,7 @@
         <v>1967</v>
       </c>
       <c r="R28" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="S28">
         <v>28</v>
@@ -5194,7 +5197,7 @@
         <v>6</v>
       </c>
       <c r="U28" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V28" t="s">
         <v>124</v>
@@ -5278,10 +5281,10 @@
         <v>171</v>
       </c>
       <c r="AW28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AY28">
         <v>1995</v>
@@ -5340,7 +5343,7 @@
         <v>1969</v>
       </c>
       <c r="R29" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="S29">
         <v>25</v>
@@ -5349,7 +5352,7 @@
         <v>2</v>
       </c>
       <c r="U29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V29" t="s">
         <v>140</v>
@@ -5433,10 +5436,10 @@
         <v>172</v>
       </c>
       <c r="AW29" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX29" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AY29">
         <v>1994</v>
@@ -5495,7 +5498,7 @@
         <v>1969</v>
       </c>
       <c r="R30" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="S30">
         <v>24</v>
@@ -5504,7 +5507,7 @@
         <v>3</v>
       </c>
       <c r="U30" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V30" t="s">
         <v>141</v>
@@ -5588,10 +5591,10 @@
         <v>173</v>
       </c>
       <c r="AW30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AY30">
         <v>1993</v>
@@ -5650,7 +5653,7 @@
         <v>1967</v>
       </c>
       <c r="R31" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="S31">
         <v>25</v>
@@ -5659,7 +5662,7 @@
         <v>3</v>
       </c>
       <c r="U31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V31" t="s">
         <v>140</v>
@@ -5743,10 +5746,10 @@
         <v>174</v>
       </c>
       <c r="AW31" t="s">
+        <v>190</v>
+      </c>
+      <c r="AX31" t="s">
         <v>189</v>
-      </c>
-      <c r="AX31" t="s">
-        <v>188</v>
       </c>
       <c r="AY31">
         <v>1992</v>
@@ -5766,7 +5769,7 @@
         <v>26</v>
       </c>
       <c r="E32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F32">
         <v>25</v>
@@ -5805,7 +5808,7 @@
         <v>1964</v>
       </c>
       <c r="R32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="S32">
         <v>27</v>
@@ -5814,10 +5817,10 @@
         <v>5</v>
       </c>
       <c r="U32" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W32">
         <v>79</v>
@@ -5898,10 +5901,10 @@
         <v>175</v>
       </c>
       <c r="AW32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AY32">
         <v>1991</v>
@@ -5960,7 +5963,7 @@
         <v>1965</v>
       </c>
       <c r="R33" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="S33">
         <v>25</v>
@@ -5969,7 +5972,7 @@
         <v>2</v>
       </c>
       <c r="U33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V33" t="s">
         <v>139</v>
@@ -6053,10 +6056,10 @@
         <v>176</v>
       </c>
       <c r="AW33" t="s">
+        <v>190</v>
+      </c>
+      <c r="AX33" t="s">
         <v>189</v>
-      </c>
-      <c r="AX33" t="s">
-        <v>188</v>
       </c>
       <c r="AY33">
         <v>1990</v>
@@ -6076,7 +6079,7 @@
         <v>22</v>
       </c>
       <c r="E34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F34">
         <v>48</v>
@@ -6115,7 +6118,7 @@
         <v>1966</v>
       </c>
       <c r="R34" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="S34">
         <v>23</v>
@@ -6124,10 +6127,10 @@
         <v>2</v>
       </c>
       <c r="U34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W34">
         <v>81</v>
@@ -6208,10 +6211,10 @@
         <v>177</v>
       </c>
       <c r="AW34" t="s">
+        <v>190</v>
+      </c>
+      <c r="AX34" t="s">
         <v>189</v>
-      </c>
-      <c r="AX34" t="s">
-        <v>188</v>
       </c>
       <c r="AY34">
         <v>1989</v>
@@ -6231,7 +6234,7 @@
         <v>23</v>
       </c>
       <c r="E35" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F35">
         <v>33</v>
@@ -6270,7 +6273,7 @@
         <v>1964</v>
       </c>
       <c r="R35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="S35">
         <v>24</v>
@@ -6279,10 +6282,10 @@
         <v>2</v>
       </c>
       <c r="U35" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V35" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="W35">
         <v>78</v>
@@ -6363,10 +6366,10 @@
         <v>178</v>
       </c>
       <c r="AW35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AY35">
         <v>1988</v>
@@ -6425,7 +6428,7 @@
         <v>1960</v>
       </c>
       <c r="R36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S36">
         <v>27</v>
@@ -6434,7 +6437,7 @@
         <v>4</v>
       </c>
       <c r="U36" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V36" t="s">
         <v>142</v>
@@ -6518,10 +6521,10 @@
         <v>179</v>
       </c>
       <c r="AW36" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX36" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AY36">
         <v>1987</v>
@@ -6580,7 +6583,7 @@
         <v>1962</v>
       </c>
       <c r="R37" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S37">
         <v>24</v>
@@ -6589,7 +6592,7 @@
         <v>2</v>
       </c>
       <c r="U37" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V37" t="s">
         <v>143</v>
@@ -6673,10 +6676,10 @@
         <v>180</v>
       </c>
       <c r="AW37" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX37" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AY37">
         <v>1986</v>

--- a/mip_winners.xlsx
+++ b/mip_winners.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="200">
   <si>
     <t>season_ending_year_x</t>
   </si>
@@ -181,12 +181,21 @@
     <t>2021</t>
   </si>
   <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
     <t>2018</t>
   </si>
   <si>
     <t>2017</t>
   </si>
   <si>
+    <t>2016</t>
+  </si>
+  <si>
     <t>2015</t>
   </si>
   <si>
@@ -292,12 +301,21 @@
     <t>Julius Randle</t>
   </si>
   <si>
+    <t>Brandon Ingram</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
     <t>Victor Oladipo</t>
   </si>
   <si>
     <t>Giannis Antetokounmpo</t>
   </si>
   <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
     <t>Jimmy Butler</t>
   </si>
   <si>
@@ -400,12 +418,21 @@
     <t>NYK</t>
   </si>
   <si>
+    <t>NOP</t>
+  </si>
+  <si>
+    <t>TOR</t>
+  </si>
+  <si>
     <t>IND</t>
   </si>
   <si>
     <t>MIL</t>
   </si>
   <si>
+    <t>POR</t>
+  </si>
+  <si>
     <t>CHI</t>
   </si>
   <si>
@@ -427,9 +454,6 @@
     <t>LAC</t>
   </si>
   <si>
-    <t>POR</t>
-  </si>
-  <si>
     <t>ATL</t>
   </si>
   <si>
@@ -463,12 +487,21 @@
     <t>2020-21</t>
   </si>
   <si>
+    <t>2019-20</t>
+  </si>
+  <si>
+    <t>2018-19</t>
+  </si>
+  <si>
     <t>2017-18</t>
   </si>
   <si>
     <t>2016-17</t>
   </si>
   <si>
+    <t>2015-16</t>
+  </si>
+  <si>
     <t>2014-15</t>
   </si>
   <si>
@@ -557,12 +590,6 @@
   </si>
   <si>
     <t>1985-86</t>
-  </si>
-  <si>
-    <t>Quincy Pondexter</t>
-  </si>
-  <si>
-    <t>Pau Gasol</t>
   </si>
   <si>
     <t>PG</t>
@@ -944,7 +971,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY37"/>
+  <dimension ref="A1:AY40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1110,16 +1137,16 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F2">
         <v>51</v>
@@ -1134,7 +1161,7 @@
         <v>0.644</v>
       </c>
       <c r="J2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K2">
         <v>31843</v>
@@ -1143,7 +1170,7 @@
         <v>4893</v>
       </c>
       <c r="M2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="N2">
         <v>31843</v>
@@ -1152,13 +1179,13 @@
         <v>51</v>
       </c>
       <c r="P2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q2">
         <v>2000</v>
       </c>
       <c r="R2" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="S2">
         <v>24</v>
@@ -1167,10 +1194,10 @@
         <v>4</v>
       </c>
       <c r="U2" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="V2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="W2">
         <v>70</v>
@@ -1248,13 +1275,13 @@
         <v>25.9</v>
       </c>
       <c r="AV2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AW2" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AX2" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AY2">
         <v>2024</v>
@@ -1265,16 +1292,16 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D3">
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F3">
         <v>69</v>
@@ -1289,7 +1316,7 @@
         <v>0.86</v>
       </c>
       <c r="J3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K3">
         <v>30871</v>
@@ -1298,7 +1325,7 @@
         <v>4535</v>
       </c>
       <c r="M3" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="N3">
         <v>30871</v>
@@ -1307,13 +1334,13 @@
         <v>52</v>
       </c>
       <c r="P3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q3">
         <v>1997</v>
       </c>
       <c r="R3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="S3">
         <v>26</v>
@@ -1322,10 +1349,10 @@
         <v>6</v>
       </c>
       <c r="U3" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="V3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="W3">
         <v>66</v>
@@ -1403,13 +1430,13 @@
         <v>25.6</v>
       </c>
       <c r="AV3" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="AW3" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AX3" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AY3">
         <v>2023</v>
@@ -1420,16 +1447,16 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D4">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F4">
         <v>38</v>
@@ -1444,7 +1471,7 @@
         <v>0.442</v>
       </c>
       <c r="J4" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K4">
         <v>29959</v>
@@ -1453,7 +1480,7 @@
         <v>4723</v>
       </c>
       <c r="M4" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="N4">
         <v>29959</v>
@@ -1462,13 +1489,13 @@
         <v>53</v>
       </c>
       <c r="P4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q4">
         <v>1999</v>
       </c>
       <c r="R4" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="S4">
         <v>23</v>
@@ -1477,10 +1504,10 @@
         <v>3</v>
       </c>
       <c r="U4" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="V4" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="W4">
         <v>57</v>
@@ -1558,13 +1585,13 @@
         <v>27.4</v>
       </c>
       <c r="AV4" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AW4" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AX4" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AY4">
         <v>2022</v>
@@ -1575,16 +1602,16 @@
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D5">
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F5">
         <v>98</v>
@@ -1599,7 +1626,7 @@
         <v>0.986</v>
       </c>
       <c r="J5" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K5">
         <v>29311</v>
@@ -1608,7 +1635,7 @@
         <v>4266</v>
       </c>
       <c r="M5" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="N5">
         <v>29311</v>
@@ -1617,13 +1644,13 @@
         <v>54</v>
       </c>
       <c r="P5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q5">
         <v>1994</v>
       </c>
       <c r="R5" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="S5">
         <v>27</v>
@@ -1632,10 +1659,10 @@
         <v>7</v>
       </c>
       <c r="U5" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="V5" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="W5">
         <v>71</v>
@@ -1713,13 +1740,13 @@
         <v>24.1</v>
       </c>
       <c r="AV5" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AW5" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="AX5" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AY5">
         <v>2021</v>
@@ -1730,154 +1757,154 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F6">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="G6">
-        <v>499</v>
+        <v>326</v>
       </c>
       <c r="H6">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I6">
-        <v>0.988</v>
+        <v>0.652</v>
       </c>
       <c r="J6" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K6">
-        <v>27554</v>
+        <v>28348</v>
       </c>
       <c r="L6">
-        <v>4217</v>
+        <v>4379</v>
       </c>
       <c r="M6" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="N6">
-        <v>27554</v>
+        <v>28348</v>
       </c>
       <c r="O6" t="s">
         <v>55</v>
       </c>
       <c r="P6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q6">
-        <v>1992</v>
+        <v>1997</v>
       </c>
       <c r="R6" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="S6">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="U6" t="s">
+        <v>197</v>
+      </c>
+      <c r="V6" t="s">
+        <v>134</v>
+      </c>
+      <c r="W6">
+        <v>62</v>
+      </c>
+      <c r="X6">
+        <v>62</v>
+      </c>
+      <c r="Y6">
+        <v>33.9</v>
+      </c>
+      <c r="Z6">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AA6">
+        <v>17.7</v>
+      </c>
+      <c r="AB6">
+        <v>0.463</v>
+      </c>
+      <c r="AC6">
+        <v>2.4</v>
+      </c>
+      <c r="AD6">
+        <v>6.2</v>
+      </c>
+      <c r="AE6">
+        <v>0.391</v>
+      </c>
+      <c r="AF6">
+        <v>5.8</v>
+      </c>
+      <c r="AG6">
+        <v>11.5</v>
+      </c>
+      <c r="AH6">
+        <v>0.501</v>
+      </c>
+      <c r="AI6">
+        <v>0.531</v>
+      </c>
+      <c r="AJ6">
         <v>5</v>
       </c>
-      <c r="U6" t="s">
-        <v>188</v>
-      </c>
-      <c r="V6" t="s">
-        <v>128</v>
-      </c>
-      <c r="W6">
-        <v>75</v>
-      </c>
-      <c r="X6">
-        <v>75</v>
-      </c>
-      <c r="Y6">
-        <v>34</v>
-      </c>
-      <c r="Z6">
-        <v>8.5</v>
-      </c>
-      <c r="AA6">
-        <v>17.9</v>
-      </c>
-      <c r="AB6">
-        <v>0.477</v>
-      </c>
-      <c r="AC6">
-        <v>2.1</v>
-      </c>
-      <c r="AD6">
-        <v>5.8</v>
-      </c>
-      <c r="AE6">
-        <v>0.371</v>
-      </c>
-      <c r="AF6">
-        <v>6.4</v>
-      </c>
-      <c r="AG6">
-        <v>12.1</v>
-      </c>
-      <c r="AH6">
-        <v>0.528</v>
-      </c>
-      <c r="AI6">
-        <v>0.537</v>
-      </c>
-      <c r="AJ6">
-        <v>3.9</v>
-      </c>
       <c r="AK6">
-        <v>4.9</v>
+        <v>5.9</v>
       </c>
       <c r="AL6">
-        <v>0.799</v>
+        <v>0.851</v>
       </c>
       <c r="AM6">
+        <v>0.8</v>
+      </c>
+      <c r="AN6">
+        <v>5.3</v>
+      </c>
+      <c r="AO6">
+        <v>6.1</v>
+      </c>
+      <c r="AP6">
+        <v>4.2</v>
+      </c>
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AR6">
         <v>0.6</v>
       </c>
-      <c r="AN6">
-        <v>4.6</v>
-      </c>
-      <c r="AO6">
-        <v>5.2</v>
-      </c>
-      <c r="AP6">
-        <v>4.3</v>
-      </c>
-      <c r="AQ6">
-        <v>2.4</v>
-      </c>
-      <c r="AR6">
-        <v>0.8</v>
-      </c>
       <c r="AS6">
+        <v>3</v>
+      </c>
+      <c r="AT6">
         <v>2.9</v>
       </c>
-      <c r="AT6">
-        <v>2.3</v>
-      </c>
       <c r="AU6">
-        <v>23.1</v>
+        <v>23.8</v>
       </c>
       <c r="AV6" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AW6" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AX6" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AY6">
-        <v>2018</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="7" spans="1:51">
@@ -1885,154 +1912,154 @@
         <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F7">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7">
-        <v>428</v>
+        <v>469</v>
       </c>
       <c r="H7">
         <v>500</v>
       </c>
       <c r="I7">
-        <v>0.856</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="J7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K7">
-        <v>26526</v>
+        <v>28100</v>
       </c>
       <c r="L7">
-        <v>4164</v>
+        <v>4437</v>
       </c>
       <c r="M7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="N7">
-        <v>26526</v>
+        <v>28100</v>
       </c>
       <c r="O7" t="s">
         <v>56</v>
       </c>
       <c r="P7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q7">
         <v>1994</v>
       </c>
       <c r="R7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="S7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="T7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U7" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="V7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="W7">
         <v>80</v>
       </c>
       <c r="X7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y7">
-        <v>35.6</v>
+        <v>31.9</v>
       </c>
       <c r="Z7">
-        <v>8.199999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="AA7">
-        <v>15.7</v>
+        <v>11.8</v>
       </c>
       <c r="AB7">
-        <v>0.521</v>
+        <v>0.549</v>
       </c>
       <c r="AC7">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="AE7">
-        <v>0.272</v>
+        <v>0.369</v>
       </c>
       <c r="AF7">
-        <v>7.6</v>
+        <v>5.5</v>
       </c>
       <c r="AG7">
-        <v>13.5</v>
+        <v>9.1</v>
       </c>
       <c r="AH7">
-        <v>0.5629999999999999</v>
+        <v>0.602</v>
       </c>
       <c r="AI7">
-        <v>0.541</v>
+        <v>0.591</v>
       </c>
       <c r="AJ7">
-        <v>5.9</v>
+        <v>3</v>
       </c>
       <c r="AK7">
-        <v>7.7</v>
+        <v>3.8</v>
       </c>
       <c r="AL7">
-        <v>0.77</v>
+        <v>0.785</v>
       </c>
       <c r="AM7">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AN7">
-        <v>7</v>
+        <v>5.3</v>
       </c>
       <c r="AO7">
-        <v>8.800000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="AP7">
-        <v>5.4</v>
+        <v>3.1</v>
       </c>
       <c r="AQ7">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="AR7">
+        <v>0.7</v>
+      </c>
+      <c r="AS7">
         <v>1.9</v>
       </c>
-      <c r="AS7">
-        <v>2.9</v>
-      </c>
       <c r="AT7">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AU7">
-        <v>22.9</v>
+        <v>16.9</v>
       </c>
       <c r="AV7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="AW7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AX7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AY7">
-        <v>2017</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="8" spans="1:51">
@@ -2040,154 +2067,154 @@
         <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D8">
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F8">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G8">
-        <v>535</v>
+        <v>499</v>
       </c>
       <c r="H8">
-        <v>645</v>
+        <v>505</v>
       </c>
       <c r="I8">
-        <v>0.829</v>
+        <v>0.988</v>
       </c>
       <c r="J8" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K8">
-        <v>25402</v>
+        <v>27554</v>
       </c>
       <c r="L8">
-        <v>4023</v>
+        <v>4217</v>
       </c>
       <c r="M8" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="N8">
-        <v>25402</v>
+        <v>27554</v>
       </c>
       <c r="O8" t="s">
         <v>57</v>
       </c>
       <c r="P8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q8">
-        <v>1989</v>
+        <v>1992</v>
       </c>
       <c r="R8" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="S8">
         <v>26</v>
       </c>
       <c r="T8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U8" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="V8" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="W8">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="X8">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="Y8">
-        <v>38.7</v>
+        <v>34</v>
       </c>
       <c r="Z8">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA8">
-        <v>14</v>
+        <v>17.9</v>
       </c>
       <c r="AB8">
-        <v>0.462</v>
+        <v>0.477</v>
       </c>
       <c r="AC8">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="AD8">
-        <v>3</v>
+        <v>5.8</v>
       </c>
       <c r="AE8">
-        <v>0.378</v>
+        <v>0.371</v>
       </c>
       <c r="AF8">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="AG8">
-        <v>11.1</v>
+        <v>12.1</v>
       </c>
       <c r="AH8">
-        <v>0.484</v>
+        <v>0.528</v>
       </c>
       <c r="AI8">
-        <v>0.502</v>
+        <v>0.537</v>
       </c>
       <c r="AJ8">
-        <v>5.9</v>
+        <v>3.9</v>
       </c>
       <c r="AK8">
-        <v>7.1</v>
+        <v>4.9</v>
       </c>
       <c r="AL8">
-        <v>0.834</v>
+        <v>0.799</v>
       </c>
       <c r="AM8">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="AN8">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="AO8">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="AP8">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="AQ8">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="AR8">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AS8">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="AT8">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="AU8">
-        <v>20</v>
+        <v>23.1</v>
       </c>
       <c r="AV8" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="AW8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AX8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AY8">
-        <v>2015</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="9" spans="1:51">
@@ -2195,154 +2222,154 @@
         <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F9">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="G9">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="H9">
-        <v>630</v>
+        <v>500</v>
       </c>
       <c r="I9">
-        <v>0.648</v>
+        <v>0.856</v>
       </c>
       <c r="J9" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K9">
-        <v>24695</v>
+        <v>26526</v>
       </c>
       <c r="L9">
-        <v>3817</v>
+        <v>4164</v>
       </c>
       <c r="M9" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="N9">
-        <v>24695</v>
+        <v>26526</v>
       </c>
       <c r="O9" t="s">
         <v>58</v>
       </c>
       <c r="P9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q9">
-        <v>1986</v>
+        <v>1994</v>
       </c>
       <c r="R9" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="S9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="T9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U9" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="V9" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="W9">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="X9">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Y9">
-        <v>35.1</v>
+        <v>35.6</v>
       </c>
       <c r="Z9">
-        <v>7.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA9">
-        <v>14.4</v>
+        <v>15.7</v>
       </c>
       <c r="AB9">
-        <v>0.505</v>
+        <v>0.521</v>
       </c>
       <c r="AC9">
+        <v>0.6</v>
+      </c>
+      <c r="AD9">
+        <v>2.3</v>
+      </c>
+      <c r="AE9">
+        <v>0.272</v>
+      </c>
+      <c r="AF9">
+        <v>7.6</v>
+      </c>
+      <c r="AG9">
+        <v>13.5</v>
+      </c>
+      <c r="AH9">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="AI9">
+        <v>0.541</v>
+      </c>
+      <c r="AJ9">
+        <v>5.9</v>
+      </c>
+      <c r="AK9">
+        <v>7.7</v>
+      </c>
+      <c r="AL9">
+        <v>0.77</v>
+      </c>
+      <c r="AM9">
+        <v>1.8</v>
+      </c>
+      <c r="AN9">
+        <v>7</v>
+      </c>
+      <c r="AO9">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AP9">
+        <v>5.4</v>
+      </c>
+      <c r="AQ9">
         <v>1.6</v>
       </c>
-      <c r="AD9">
-        <v>3.9</v>
-      </c>
-      <c r="AE9">
-        <v>0.408</v>
-      </c>
-      <c r="AF9">
-        <v>5.7</v>
-      </c>
-      <c r="AG9">
-        <v>10.4</v>
-      </c>
-      <c r="AH9">
-        <v>0.542</v>
-      </c>
-      <c r="AI9">
-        <v>0.5610000000000001</v>
-      </c>
-      <c r="AJ9">
-        <v>4.2</v>
-      </c>
-      <c r="AK9">
-        <v>5.5</v>
-      </c>
-      <c r="AL9">
-        <v>0.76</v>
-      </c>
-      <c r="AM9">
-        <v>0.9</v>
-      </c>
-      <c r="AN9">
-        <v>2.3</v>
-      </c>
-      <c r="AO9">
-        <v>3.2</v>
-      </c>
-      <c r="AP9">
-        <v>5.9</v>
-      </c>
-      <c r="AQ9">
-        <v>1.4</v>
-      </c>
       <c r="AR9">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="AS9">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AT9">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="AU9">
-        <v>20.3</v>
+        <v>22.9</v>
       </c>
       <c r="AV9" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="AW9" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AX9" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AY9">
-        <v>2014</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="10" spans="1:51">
@@ -2350,55 +2377,55 @@
         <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F10">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="G10">
-        <v>311</v>
+        <v>559</v>
       </c>
       <c r="H10">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="I10">
-        <v>0.518</v>
+        <v>0.86</v>
       </c>
       <c r="J10" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K10">
-        <v>24357</v>
+        <v>25847</v>
       </c>
       <c r="L10">
-        <v>3969</v>
+        <v>4154</v>
       </c>
       <c r="M10" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="N10">
-        <v>24364</v>
+        <v>25847</v>
       </c>
       <c r="O10" t="s">
         <v>59</v>
       </c>
       <c r="P10" t="s">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="Q10">
-        <v>1988</v>
+        <v>1991</v>
       </c>
       <c r="R10" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="S10">
         <v>25</v>
@@ -2407,97 +2434,97 @@
         <v>3</v>
       </c>
       <c r="U10" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="V10" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="W10">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="Y10">
-        <v>21.1</v>
+        <v>34.8</v>
       </c>
       <c r="Z10">
-        <v>2.2</v>
+        <v>8</v>
       </c>
       <c r="AA10">
-        <v>5.1</v>
+        <v>17.9</v>
       </c>
       <c r="AB10">
-        <v>0.428</v>
+        <v>0.448</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AD10">
-        <v>2.6</v>
+        <v>5.9</v>
       </c>
       <c r="AE10">
-        <v>0.395</v>
+        <v>0.417</v>
       </c>
       <c r="AF10">
-        <v>1.2</v>
+        <v>5.6</v>
       </c>
       <c r="AG10">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="AH10">
         <v>0.463</v>
       </c>
       <c r="AI10">
-        <v>0.528</v>
+        <v>0.517</v>
       </c>
       <c r="AJ10">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="AK10">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="AL10">
-        <v>0.787</v>
+        <v>0.827</v>
       </c>
       <c r="AM10">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AN10">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="AO10">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="AQ10">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="AR10">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AS10">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="AT10">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="AU10">
-        <v>6.4</v>
+        <v>20.8</v>
       </c>
       <c r="AV10" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="AW10" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AX10" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AY10">
-        <v>2013</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="11" spans="1:51">
@@ -2505,154 +2532,154 @@
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F11">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="G11">
-        <v>260</v>
+        <v>535</v>
       </c>
       <c r="H11">
-        <v>605</v>
+        <v>645</v>
       </c>
       <c r="I11">
-        <v>0.43</v>
+        <v>0.829</v>
       </c>
       <c r="J11" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K11">
-        <v>23823</v>
+        <v>25402</v>
       </c>
       <c r="L11">
-        <v>3850</v>
+        <v>4023</v>
       </c>
       <c r="M11" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="N11">
-        <v>23823</v>
+        <v>25402</v>
       </c>
       <c r="O11" t="s">
         <v>60</v>
       </c>
       <c r="P11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q11">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="R11" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="S11">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T11">
         <v>4</v>
       </c>
       <c r="U11" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="V11" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="W11">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="X11">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="Y11">
-        <v>32.2</v>
+        <v>38.7</v>
       </c>
       <c r="Z11">
+        <v>6.5</v>
+      </c>
+      <c r="AA11">
+        <v>14</v>
+      </c>
+      <c r="AB11">
+        <v>0.462</v>
+      </c>
+      <c r="AC11">
+        <v>1.1</v>
+      </c>
+      <c r="AD11">
+        <v>3</v>
+      </c>
+      <c r="AE11">
+        <v>0.378</v>
+      </c>
+      <c r="AF11">
         <v>5.4</v>
       </c>
-      <c r="AA11">
-        <v>12.4</v>
-      </c>
-      <c r="AB11">
-        <v>0.439</v>
-      </c>
-      <c r="AC11">
-        <v>2.7</v>
-      </c>
-      <c r="AD11">
-        <v>6.9</v>
-      </c>
-      <c r="AE11">
-        <v>0.393</v>
-      </c>
-      <c r="AF11">
-        <v>2.7</v>
-      </c>
       <c r="AG11">
-        <v>5.5</v>
+        <v>11.1</v>
       </c>
       <c r="AH11">
-        <v>0.496</v>
+        <v>0.484</v>
       </c>
       <c r="AI11">
-        <v>0.548</v>
+        <v>0.502</v>
       </c>
       <c r="AJ11">
-        <v>2.5</v>
+        <v>5.9</v>
       </c>
       <c r="AK11">
-        <v>2.8</v>
+        <v>7.1</v>
       </c>
       <c r="AL11">
-        <v>0.877</v>
+        <v>0.834</v>
       </c>
       <c r="AM11">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="AN11">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AO11">
-        <v>7.7</v>
+        <v>5.8</v>
       </c>
       <c r="AP11">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="AQ11">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="AR11">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AS11">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="AT11">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="AU11">
-        <v>16.1</v>
+        <v>20</v>
       </c>
       <c r="AV11" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="AW11" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AX11" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AY11">
-        <v>2012</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="12" spans="1:51">
@@ -2660,154 +2687,154 @@
         <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F12">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="H12">
-        <v>580</v>
+        <v>630</v>
       </c>
       <c r="I12">
-        <v>0.6899999999999999</v>
+        <v>0.648</v>
       </c>
       <c r="J12" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K12">
-        <v>23088</v>
+        <v>24695</v>
       </c>
       <c r="L12">
-        <v>3830</v>
+        <v>3817</v>
       </c>
       <c r="M12" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="N12">
-        <v>23088</v>
+        <v>24695</v>
       </c>
       <c r="O12" t="s">
         <v>61</v>
       </c>
       <c r="P12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q12">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="R12" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="S12">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U12" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="V12" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="W12">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X12">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y12">
-        <v>35.8</v>
+        <v>35.1</v>
       </c>
       <c r="Z12">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="AA12">
-        <v>14.1</v>
+        <v>14.4</v>
       </c>
       <c r="AB12">
-        <v>0.47</v>
+        <v>0.505</v>
       </c>
       <c r="AC12">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AD12">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="AE12">
-        <v>0.417</v>
+        <v>0.408</v>
       </c>
       <c r="AF12">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="AG12">
-        <v>11.2</v>
+        <v>10.4</v>
       </c>
       <c r="AH12">
-        <v>0.483</v>
+        <v>0.542</v>
       </c>
       <c r="AI12">
-        <v>0.513</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="AJ12">
-        <v>5.8</v>
+        <v>4.2</v>
       </c>
       <c r="AK12">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="AL12">
-        <v>0.85</v>
+        <v>0.76</v>
       </c>
       <c r="AM12">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="AN12">
-        <v>10.7</v>
+        <v>2.3</v>
       </c>
       <c r="AO12">
-        <v>15.2</v>
+        <v>3.2</v>
       </c>
       <c r="AP12">
-        <v>2.5</v>
+        <v>5.9</v>
       </c>
       <c r="AQ12">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="AR12">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AS12">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="AT12">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="AU12">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AV12" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="AW12" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="AX12" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AY12">
-        <v>2011</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="13" spans="1:51">
@@ -2815,154 +2842,154 @@
         <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F13">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G13">
-        <v>403</v>
+        <v>311</v>
       </c>
       <c r="H13">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="I13">
-        <v>0.655</v>
+        <v>0.518</v>
       </c>
       <c r="J13" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K13">
-        <v>22157</v>
+        <v>24357</v>
       </c>
       <c r="L13">
-        <v>3731</v>
+        <v>3969</v>
       </c>
       <c r="M13" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="N13">
-        <v>22157</v>
+        <v>24357</v>
       </c>
       <c r="O13" t="s">
         <v>62</v>
       </c>
       <c r="P13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q13">
-        <v>1984</v>
+        <v>1990</v>
       </c>
       <c r="R13" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="S13">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T13">
         <v>3</v>
       </c>
       <c r="U13" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="V13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="W13">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="X13">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Y13">
-        <v>35.6</v>
+        <v>37.6</v>
       </c>
       <c r="Z13">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="AA13">
-        <v>16.2</v>
+        <v>14.9</v>
       </c>
       <c r="AB13">
-        <v>0.432</v>
+        <v>0.419</v>
       </c>
       <c r="AC13">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AD13">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="AE13">
-        <v>0.398</v>
+        <v>0.362</v>
       </c>
       <c r="AF13">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="AG13">
-        <v>9.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="AH13">
-        <v>0.454</v>
+        <v>0.457</v>
       </c>
       <c r="AI13">
-        <v>0.511</v>
+        <v>0.491</v>
       </c>
       <c r="AJ13">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AK13">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AL13">
-        <v>0.822</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="AM13">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="AN13">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="AO13">
-        <v>2.6</v>
+        <v>7.6</v>
       </c>
       <c r="AP13">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="AQ13">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="AR13">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="AS13">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AT13">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="AU13">
-        <v>19.6</v>
+        <v>17.4</v>
       </c>
       <c r="AV13" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="AW13" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AX13" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AY13">
-        <v>2010</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="14" spans="1:51">
@@ -2970,154 +2997,154 @@
         <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F14">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G14">
-        <v>364</v>
+        <v>260</v>
       </c>
       <c r="H14">
         <v>605</v>
       </c>
       <c r="I14">
-        <v>0.602</v>
+        <v>0.43</v>
       </c>
       <c r="J14" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K14">
-        <v>21718</v>
+        <v>23823</v>
       </c>
       <c r="L14">
-        <v>3589</v>
+        <v>3850</v>
       </c>
       <c r="M14" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="N14">
-        <v>21718</v>
+        <v>23823</v>
       </c>
       <c r="O14" t="s">
         <v>63</v>
       </c>
       <c r="P14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q14">
-        <v>1983</v>
+        <v>1988</v>
       </c>
       <c r="R14" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="S14">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T14">
         <v>4</v>
       </c>
       <c r="U14" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="V14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="W14">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="X14">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="Y14">
-        <v>36.2</v>
+        <v>32.2</v>
       </c>
       <c r="Z14">
-        <v>8.5</v>
+        <v>5.4</v>
       </c>
       <c r="AA14">
-        <v>19.1</v>
+        <v>12.4</v>
       </c>
       <c r="AB14">
-        <v>0.447</v>
+        <v>0.439</v>
       </c>
       <c r="AC14">
         <v>2.7</v>
       </c>
       <c r="AD14">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AE14">
-        <v>0.404</v>
+        <v>0.393</v>
       </c>
       <c r="AF14">
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="AG14">
-        <v>12.3</v>
+        <v>5.5</v>
       </c>
       <c r="AH14">
-        <v>0.47</v>
+        <v>0.496</v>
       </c>
       <c r="AI14">
-        <v>0.518</v>
+        <v>0.548</v>
       </c>
       <c r="AJ14">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="AK14">
-        <v>6.9</v>
+        <v>2.8</v>
       </c>
       <c r="AL14">
-        <v>0.878</v>
+        <v>0.877</v>
       </c>
       <c r="AM14">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="AN14">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="AO14">
-        <v>5.1</v>
+        <v>7.7</v>
       </c>
       <c r="AP14">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR14">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="AS14">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="AT14">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="AU14">
-        <v>25.8</v>
+        <v>16.1</v>
       </c>
       <c r="AV14" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="AW14" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AX14" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AY14">
-        <v>2009</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="15" spans="1:51">
@@ -3125,154 +3152,154 @@
         <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="F15">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G15">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="H15">
-        <v>625</v>
+        <v>580</v>
       </c>
       <c r="I15">
-        <v>0.608</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J15" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K15">
-        <v>21195</v>
+        <v>23088</v>
       </c>
       <c r="L15">
-        <v>3252</v>
+        <v>3830</v>
       </c>
       <c r="M15" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="N15">
-        <v>21195</v>
+        <v>23088</v>
       </c>
       <c r="O15" t="s">
         <v>64</v>
       </c>
       <c r="P15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q15">
-        <v>1979</v>
+        <v>1988</v>
       </c>
       <c r="R15" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="S15">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="T15">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U15" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="V15" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="W15">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="X15">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="Y15">
-        <v>36.9</v>
+        <v>35.8</v>
       </c>
       <c r="Z15">
+        <v>6.6</v>
+      </c>
+      <c r="AA15">
+        <v>14.1</v>
+      </c>
+      <c r="AB15">
+        <v>0.47</v>
+      </c>
+      <c r="AC15">
+        <v>1.2</v>
+      </c>
+      <c r="AD15">
+        <v>2.9</v>
+      </c>
+      <c r="AE15">
+        <v>0.417</v>
+      </c>
+      <c r="AF15">
+        <v>5.4</v>
+      </c>
+      <c r="AG15">
+        <v>11.2</v>
+      </c>
+      <c r="AH15">
+        <v>0.483</v>
+      </c>
+      <c r="AI15">
+        <v>0.513</v>
+      </c>
+      <c r="AJ15">
+        <v>5.8</v>
+      </c>
+      <c r="AK15">
         <v>6.8</v>
       </c>
-      <c r="AA15">
-        <v>14.9</v>
-      </c>
-      <c r="AB15">
-        <v>0.456</v>
-      </c>
-      <c r="AC15">
+      <c r="AL15">
+        <v>0.85</v>
+      </c>
+      <c r="AM15">
+        <v>4.5</v>
+      </c>
+      <c r="AN15">
+        <v>10.7</v>
+      </c>
+      <c r="AO15">
+        <v>15.2</v>
+      </c>
+      <c r="AP15">
+        <v>2.5</v>
+      </c>
+      <c r="AQ15">
+        <v>0.6</v>
+      </c>
+      <c r="AR15">
+        <v>0.4</v>
+      </c>
+      <c r="AS15">
+        <v>2.1</v>
+      </c>
+      <c r="AT15">
         <v>2</v>
       </c>
-      <c r="AD15">
-        <v>5.1</v>
-      </c>
-      <c r="AE15">
-        <v>0.4</v>
-      </c>
-      <c r="AF15">
-        <v>4.8</v>
-      </c>
-      <c r="AG15">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH15">
-        <v>0.485</v>
-      </c>
-      <c r="AI15">
-        <v>0.524</v>
-      </c>
-      <c r="AJ15">
-        <v>4</v>
-      </c>
-      <c r="AK15">
-        <v>4.8</v>
-      </c>
-      <c r="AL15">
-        <v>0.829</v>
-      </c>
-      <c r="AM15">
-        <v>1</v>
-      </c>
-      <c r="AN15">
-        <v>4.7</v>
-      </c>
-      <c r="AO15">
-        <v>5.7</v>
-      </c>
-      <c r="AP15">
-        <v>5</v>
-      </c>
-      <c r="AQ15">
-        <v>0.9</v>
-      </c>
-      <c r="AR15">
-        <v>0.3</v>
-      </c>
-      <c r="AS15">
-        <v>3</v>
-      </c>
-      <c r="AT15">
-        <v>3</v>
-      </c>
       <c r="AU15">
-        <v>19.5</v>
+        <v>20.2</v>
       </c>
       <c r="AV15" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AW15" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="AX15" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AY15">
-        <v>2008</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="16" spans="1:51">
@@ -3280,154 +3307,154 @@
         <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F16">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="G16">
-        <v>352</v>
+        <v>403</v>
       </c>
       <c r="H16">
-        <v>645</v>
+        <v>615</v>
       </c>
       <c r="I16">
-        <v>0.546</v>
+        <v>0.655</v>
       </c>
       <c r="J16" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K16">
-        <v>20828</v>
+        <v>22157</v>
       </c>
       <c r="L16">
-        <v>3627</v>
+        <v>3731</v>
       </c>
       <c r="M16" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="N16">
-        <v>20828</v>
+        <v>22157</v>
       </c>
       <c r="O16" t="s">
         <v>65</v>
       </c>
       <c r="P16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q16">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="R16" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="S16">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T16">
+        <v>3</v>
+      </c>
+      <c r="U16" t="s">
+        <v>197</v>
+      </c>
+      <c r="V16" t="s">
+        <v>143</v>
+      </c>
+      <c r="W16">
+        <v>82</v>
+      </c>
+      <c r="X16">
+        <v>82</v>
+      </c>
+      <c r="Y16">
+        <v>35.6</v>
+      </c>
+      <c r="Z16">
+        <v>7</v>
+      </c>
+      <c r="AA16">
+        <v>16.2</v>
+      </c>
+      <c r="AB16">
+        <v>0.432</v>
+      </c>
+      <c r="AC16">
+        <v>2.5</v>
+      </c>
+      <c r="AD16">
+        <v>6.4</v>
+      </c>
+      <c r="AE16">
+        <v>0.398</v>
+      </c>
+      <c r="AF16">
+        <v>4.5</v>
+      </c>
+      <c r="AG16">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH16">
+        <v>0.454</v>
+      </c>
+      <c r="AI16">
+        <v>0.511</v>
+      </c>
+      <c r="AJ16">
+        <v>3</v>
+      </c>
+      <c r="AK16">
+        <v>3.6</v>
+      </c>
+      <c r="AL16">
+        <v>0.822</v>
+      </c>
+      <c r="AM16">
+        <v>0.7</v>
+      </c>
+      <c r="AN16">
         <v>2</v>
       </c>
-      <c r="U16" t="s">
-        <v>188</v>
-      </c>
-      <c r="V16" t="s">
-        <v>135</v>
-      </c>
-      <c r="W16">
-        <v>77</v>
-      </c>
-      <c r="X16">
-        <v>53</v>
-      </c>
-      <c r="Y16">
-        <v>34.3</v>
-      </c>
-      <c r="Z16">
-        <v>6.2</v>
-      </c>
-      <c r="AA16">
-        <v>13.1</v>
-      </c>
-      <c r="AB16">
-        <v>0.475</v>
-      </c>
-      <c r="AC16">
-        <v>0.5</v>
-      </c>
-      <c r="AD16">
-        <v>1.9</v>
-      </c>
-      <c r="AE16">
-        <v>0.273</v>
-      </c>
-      <c r="AF16">
-        <v>5.7</v>
-      </c>
-      <c r="AG16">
-        <v>11.3</v>
-      </c>
-      <c r="AH16">
-        <v>0.509</v>
-      </c>
-      <c r="AI16">
-        <v>0.495</v>
-      </c>
-      <c r="AJ16">
-        <v>3.5</v>
-      </c>
-      <c r="AK16">
-        <v>4.6</v>
-      </c>
-      <c r="AL16">
-        <v>0.763</v>
-      </c>
-      <c r="AM16">
+      <c r="AO16">
+        <v>2.6</v>
+      </c>
+      <c r="AP16">
+        <v>5.3</v>
+      </c>
+      <c r="AQ16">
         <v>0.8</v>
       </c>
-      <c r="AN16">
+      <c r="AR16">
+        <v>0.2</v>
+      </c>
+      <c r="AS16">
+        <v>2.8</v>
+      </c>
+      <c r="AT16">
         <v>2.4</v>
       </c>
-      <c r="AO16">
-        <v>3.2</v>
-      </c>
-      <c r="AP16">
-        <v>4.1</v>
-      </c>
-      <c r="AQ16">
-        <v>1.7</v>
-      </c>
-      <c r="AR16">
-        <v>0.3</v>
-      </c>
-      <c r="AS16">
-        <v>2.9</v>
-      </c>
-      <c r="AT16">
-        <v>2.7</v>
-      </c>
       <c r="AU16">
-        <v>16.5</v>
+        <v>19.6</v>
       </c>
       <c r="AV16" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AW16" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AX16" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AY16">
-        <v>2007</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="17" spans="1:51">
@@ -3435,154 +3462,154 @@
         <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F17">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="G17">
-        <v>489</v>
+        <v>364</v>
       </c>
       <c r="H17">
-        <v>630</v>
+        <v>605</v>
       </c>
       <c r="I17">
-        <v>0.776</v>
+        <v>0.602</v>
       </c>
       <c r="J17" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K17">
-        <v>19960</v>
+        <v>21718</v>
       </c>
       <c r="L17">
-        <v>3431</v>
+        <v>3589</v>
       </c>
       <c r="M17" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="N17">
-        <v>19960</v>
+        <v>21718</v>
       </c>
       <c r="O17" t="s">
         <v>66</v>
       </c>
       <c r="P17" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q17">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="R17" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="S17">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U17" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="V17" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="W17">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="X17">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Y17">
-        <v>35.5</v>
+        <v>36.2</v>
       </c>
       <c r="Z17">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA17">
-        <v>10.5</v>
+        <v>19.1</v>
       </c>
       <c r="AB17">
-        <v>0.526</v>
+        <v>0.447</v>
       </c>
       <c r="AC17">
-        <v>0.1</v>
+        <v>2.7</v>
       </c>
       <c r="AD17">
-        <v>0.4</v>
+        <v>6.7</v>
       </c>
       <c r="AE17">
-        <v>0.267</v>
+        <v>0.404</v>
       </c>
       <c r="AF17">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="AG17">
-        <v>10.2</v>
+        <v>12.3</v>
       </c>
       <c r="AH17">
-        <v>0.536</v>
+        <v>0.47</v>
       </c>
       <c r="AI17">
-        <v>0.531</v>
+        <v>0.518</v>
       </c>
       <c r="AJ17">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="AK17">
-        <v>2.9</v>
+        <v>6.9</v>
       </c>
       <c r="AL17">
-        <v>0.731</v>
+        <v>0.878</v>
       </c>
       <c r="AM17">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="AN17">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="AO17">
-        <v>6.9</v>
+        <v>5.1</v>
       </c>
       <c r="AP17">
-        <v>6.2</v>
+        <v>2.7</v>
       </c>
       <c r="AQ17">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AR17">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AS17">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AT17">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AU17">
-        <v>13.3</v>
+        <v>25.8</v>
       </c>
       <c r="AV17" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="AW17" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AX17" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AY17">
-        <v>2006</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="18" spans="1:51">
@@ -3590,154 +3617,154 @@
         <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D18">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F18">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G18">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H18">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="I18">
-        <v>0.624</v>
+        <v>0.608</v>
       </c>
       <c r="J18" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K18">
-        <v>19374</v>
+        <v>21195</v>
       </c>
       <c r="L18">
-        <v>3301</v>
+        <v>3252</v>
       </c>
       <c r="M18" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="N18">
-        <v>19374</v>
+        <v>21195</v>
       </c>
       <c r="O18" t="s">
         <v>67</v>
       </c>
       <c r="P18" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q18">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="R18" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="S18">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="T18">
+        <v>8</v>
+      </c>
+      <c r="U18" t="s">
+        <v>197</v>
+      </c>
+      <c r="V18" t="s">
+        <v>141</v>
+      </c>
+      <c r="W18">
+        <v>82</v>
+      </c>
+      <c r="X18">
+        <v>82</v>
+      </c>
+      <c r="Y18">
+        <v>36.9</v>
+      </c>
+      <c r="Z18">
+        <v>6.8</v>
+      </c>
+      <c r="AA18">
+        <v>14.9</v>
+      </c>
+      <c r="AB18">
+        <v>0.456</v>
+      </c>
+      <c r="AC18">
+        <v>2</v>
+      </c>
+      <c r="AD18">
+        <v>5.1</v>
+      </c>
+      <c r="AE18">
+        <v>0.4</v>
+      </c>
+      <c r="AF18">
+        <v>4.8</v>
+      </c>
+      <c r="AG18">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH18">
+        <v>0.485</v>
+      </c>
+      <c r="AI18">
+        <v>0.524</v>
+      </c>
+      <c r="AJ18">
         <v>4</v>
       </c>
-      <c r="U18" t="s">
-        <v>188</v>
-      </c>
-      <c r="V18" t="s">
-        <v>136</v>
-      </c>
-      <c r="W18">
-        <v>75</v>
-      </c>
-      <c r="X18">
-        <v>74</v>
-      </c>
-      <c r="Y18">
-        <v>37.3</v>
-      </c>
-      <c r="Z18">
-        <v>6.3</v>
-      </c>
-      <c r="AA18">
-        <v>13.6</v>
-      </c>
-      <c r="AB18">
-        <v>0.466</v>
-      </c>
-      <c r="AC18">
-        <v>0.7</v>
-      </c>
-      <c r="AD18">
-        <v>1.5</v>
-      </c>
-      <c r="AE18">
-        <v>0.435</v>
-      </c>
-      <c r="AF18">
+      <c r="AK18">
+        <v>4.8</v>
+      </c>
+      <c r="AL18">
+        <v>0.829</v>
+      </c>
+      <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>4.7</v>
+      </c>
+      <c r="AO18">
         <v>5.7</v>
       </c>
-      <c r="AG18">
-        <v>12</v>
-      </c>
-      <c r="AH18">
-        <v>0.47</v>
-      </c>
-      <c r="AI18">
-        <v>0.491</v>
-      </c>
-      <c r="AJ18">
-        <v>3.1</v>
-      </c>
-      <c r="AK18">
-        <v>3.6</v>
-      </c>
-      <c r="AL18">
-        <v>0.846</v>
-      </c>
-      <c r="AM18">
-        <v>1.7</v>
-      </c>
-      <c r="AN18">
-        <v>4.2</v>
-      </c>
-      <c r="AO18">
-        <v>5.9</v>
-      </c>
       <c r="AP18">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="AQ18">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="AR18">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AS18">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="AT18">
         <v>3</v>
       </c>
       <c r="AU18">
-        <v>16.4</v>
+        <v>19.5</v>
       </c>
       <c r="AV18" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="AW18" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AX18" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AY18">
-        <v>2005</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="19" spans="1:51">
@@ -3745,154 +3772,154 @@
         <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D19">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F19">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G19">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="H19">
-        <v>605</v>
+        <v>645</v>
       </c>
       <c r="I19">
-        <v>0.626</v>
+        <v>0.546</v>
       </c>
       <c r="J19" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K19">
-        <v>19306</v>
+        <v>20828</v>
       </c>
       <c r="L19">
-        <v>3363</v>
+        <v>3627</v>
       </c>
       <c r="M19" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="N19">
-        <v>19146</v>
+        <v>20828</v>
       </c>
       <c r="O19" t="s">
         <v>68</v>
       </c>
       <c r="P19" t="s">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="Q19">
-        <v>1980</v>
+        <v>1985</v>
       </c>
       <c r="R19" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="S19">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U19" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="V19" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="W19">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X19">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="Y19">
-        <v>31.5</v>
+        <v>34.3</v>
       </c>
       <c r="Z19">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AA19">
-        <v>13.4</v>
+        <v>13.1</v>
       </c>
       <c r="AB19">
-        <v>0.482</v>
+        <v>0.475</v>
       </c>
       <c r="AC19">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="AD19">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="AE19">
-        <v>0.267</v>
+        <v>0.273</v>
       </c>
       <c r="AF19">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="AG19">
-        <v>13.3</v>
+        <v>11.3</v>
       </c>
       <c r="AH19">
-        <v>0.485</v>
+        <v>0.509</v>
       </c>
       <c r="AI19">
-        <v>0.484</v>
+        <v>0.495</v>
       </c>
       <c r="AJ19">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="AK19">
-        <v>6.6</v>
+        <v>4.6</v>
       </c>
       <c r="AL19">
-        <v>0.714</v>
+        <v>0.763</v>
       </c>
       <c r="AM19">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="AN19">
-        <v>5.1</v>
+        <v>2.4</v>
       </c>
       <c r="AO19">
-        <v>7.7</v>
+        <v>3.2</v>
       </c>
       <c r="AP19">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="AQ19">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="AR19">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="AS19">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="AT19">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="AU19">
-        <v>17.7</v>
+        <v>16.5</v>
       </c>
       <c r="AV19" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="AW19" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AX19" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AY19">
-        <v>2004</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="20" spans="1:51">
@@ -3900,154 +3927,154 @@
         <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F20">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="G20">
-        <v>288</v>
+        <v>489</v>
       </c>
       <c r="H20">
-        <v>590</v>
+        <v>630</v>
       </c>
       <c r="I20">
-        <v>0.488</v>
+        <v>0.776</v>
       </c>
       <c r="J20" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K20">
-        <v>18420</v>
+        <v>19960</v>
       </c>
       <c r="L20">
-        <v>3317</v>
+        <v>3431</v>
       </c>
       <c r="M20" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="N20">
-        <v>18420</v>
+        <v>19960</v>
       </c>
       <c r="O20" t="s">
         <v>69</v>
       </c>
       <c r="P20" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q20">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="R20" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="S20">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T20">
+        <v>3</v>
+      </c>
+      <c r="U20" t="s">
+        <v>197</v>
+      </c>
+      <c r="V20" t="s">
+        <v>140</v>
+      </c>
+      <c r="W20">
+        <v>81</v>
+      </c>
+      <c r="X20">
+        <v>70</v>
+      </c>
+      <c r="Y20">
+        <v>35.5</v>
+      </c>
+      <c r="Z20">
+        <v>5.5</v>
+      </c>
+      <c r="AA20">
+        <v>10.5</v>
+      </c>
+      <c r="AB20">
+        <v>0.526</v>
+      </c>
+      <c r="AC20">
+        <v>0.1</v>
+      </c>
+      <c r="AD20">
+        <v>0.4</v>
+      </c>
+      <c r="AE20">
+        <v>0.267</v>
+      </c>
+      <c r="AF20">
+        <v>5.4</v>
+      </c>
+      <c r="AG20">
+        <v>10.2</v>
+      </c>
+      <c r="AH20">
+        <v>0.536</v>
+      </c>
+      <c r="AI20">
+        <v>0.531</v>
+      </c>
+      <c r="AJ20">
+        <v>2.1</v>
+      </c>
+      <c r="AK20">
+        <v>2.9</v>
+      </c>
+      <c r="AL20">
+        <v>0.731</v>
+      </c>
+      <c r="AM20">
         <v>2</v>
       </c>
-      <c r="U20" t="s">
-        <v>188</v>
-      </c>
-      <c r="V20" t="s">
-        <v>135</v>
-      </c>
-      <c r="W20">
-        <v>82</v>
-      </c>
-      <c r="X20">
-        <v>82</v>
-      </c>
-      <c r="Y20">
-        <v>35</v>
-      </c>
-      <c r="Z20">
+      <c r="AN20">
+        <v>4.9</v>
+      </c>
+      <c r="AO20">
+        <v>6.9</v>
+      </c>
+      <c r="AP20">
         <v>6.2</v>
       </c>
-      <c r="AA20">
-        <v>14.4</v>
-      </c>
-      <c r="AB20">
-        <v>0.431</v>
-      </c>
-      <c r="AC20">
-        <v>1.3</v>
-      </c>
-      <c r="AD20">
-        <v>3.8</v>
-      </c>
-      <c r="AE20">
-        <v>0.348</v>
-      </c>
-      <c r="AF20">
-        <v>4.9</v>
-      </c>
-      <c r="AG20">
-        <v>10.6</v>
-      </c>
-      <c r="AH20">
-        <v>0.461</v>
-      </c>
-      <c r="AI20">
-        <v>0.478</v>
-      </c>
-      <c r="AJ20">
-        <v>4.5</v>
-      </c>
-      <c r="AK20">
-        <v>5.7</v>
-      </c>
-      <c r="AL20">
-        <v>0.791</v>
-      </c>
-      <c r="AM20">
-        <v>1.2</v>
-      </c>
-      <c r="AN20">
-        <v>3.5</v>
-      </c>
-      <c r="AO20">
-        <v>4.7</v>
-      </c>
-      <c r="AP20">
-        <v>6.3</v>
-      </c>
       <c r="AQ20">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="AR20">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AS20">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="AT20">
         <v>3.2</v>
       </c>
       <c r="AU20">
-        <v>18.3</v>
+        <v>13.3</v>
       </c>
       <c r="AV20" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="AW20" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AX20" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AY20">
-        <v>2003</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="21" spans="1:51">
@@ -4055,154 +4082,154 @@
         <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="F21">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G21">
-        <v>52</v>
+        <v>384</v>
       </c>
       <c r="H21">
-        <v>126</v>
+        <v>615</v>
       </c>
       <c r="I21">
-        <v>0.413</v>
+        <v>0.624</v>
       </c>
       <c r="J21" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K21">
-        <v>17982</v>
+        <v>19374</v>
       </c>
       <c r="L21">
-        <v>2993</v>
+        <v>3301</v>
       </c>
       <c r="M21" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="N21">
-        <v>17982</v>
+        <v>19374</v>
       </c>
       <c r="O21" t="s">
         <v>70</v>
       </c>
       <c r="P21" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q21">
-        <v>1978</v>
+        <v>1980</v>
       </c>
       <c r="R21" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="S21">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U21" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="V21" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="W21">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X21">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y21">
-        <v>37.6</v>
+        <v>37.3</v>
       </c>
       <c r="Z21">
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="AA21">
-        <v>15.7</v>
+        <v>13.6</v>
       </c>
       <c r="AB21">
-        <v>0.479</v>
+        <v>0.466</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AD21">
+        <v>1.5</v>
+      </c>
+      <c r="AE21">
+        <v>0.435</v>
+      </c>
+      <c r="AF21">
+        <v>5.7</v>
+      </c>
+      <c r="AG21">
+        <v>12</v>
+      </c>
+      <c r="AH21">
+        <v>0.47</v>
+      </c>
+      <c r="AI21">
+        <v>0.491</v>
+      </c>
+      <c r="AJ21">
+        <v>3.1</v>
+      </c>
+      <c r="AK21">
+        <v>3.6</v>
+      </c>
+      <c r="AL21">
+        <v>0.846</v>
+      </c>
+      <c r="AM21">
+        <v>1.7</v>
+      </c>
+      <c r="AN21">
+        <v>4.2</v>
+      </c>
+      <c r="AO21">
+        <v>5.9</v>
+      </c>
+      <c r="AP21">
+        <v>2.7</v>
+      </c>
+      <c r="AQ21">
+        <v>1.4</v>
+      </c>
+      <c r="AR21">
         <v>0.2</v>
       </c>
-      <c r="AE21">
-        <v>0.07099999999999999</v>
-      </c>
-      <c r="AF21">
-        <v>7.5</v>
-      </c>
-      <c r="AG21">
-        <v>15.5</v>
-      </c>
-      <c r="AH21">
-        <v>0.484</v>
-      </c>
-      <c r="AI21">
-        <v>0.48</v>
-      </c>
-      <c r="AJ21">
-        <v>3.9</v>
-      </c>
-      <c r="AK21">
-        <v>5.7</v>
-      </c>
-      <c r="AL21">
-        <v>0.6879999999999999</v>
-      </c>
-      <c r="AM21">
-        <v>2.6</v>
-      </c>
-      <c r="AN21">
-        <v>7.9</v>
-      </c>
-      <c r="AO21">
-        <v>10.5</v>
-      </c>
-      <c r="AP21">
-        <v>1.6</v>
-      </c>
-      <c r="AQ21">
-        <v>0.6</v>
-      </c>
-      <c r="AR21">
-        <v>2.3</v>
-      </c>
       <c r="AS21">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="AT21">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="AU21">
-        <v>19</v>
+        <v>16.4</v>
       </c>
       <c r="AV21" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="AW21" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="AX21" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AY21">
-        <v>2002</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="22" spans="1:51">
@@ -4210,154 +4237,154 @@
         <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F22">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="G22">
-        <v>74</v>
+        <v>379</v>
       </c>
       <c r="H22">
-        <v>124</v>
+        <v>605</v>
       </c>
       <c r="I22">
-        <v>0.597</v>
+        <v>0.626</v>
       </c>
       <c r="J22" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K22">
-        <v>17709</v>
+        <v>19306</v>
       </c>
       <c r="L22">
-        <v>3096</v>
+        <v>3363</v>
       </c>
       <c r="M22" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="N22">
-        <v>17709</v>
+        <v>19306</v>
       </c>
       <c r="O22" t="s">
         <v>71</v>
       </c>
       <c r="P22" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q22">
-        <v>1979</v>
+        <v>1981</v>
       </c>
       <c r="R22" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="S22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U22" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="V22" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="W22">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="X22">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Y22">
-        <v>40.1</v>
+        <v>37.9</v>
       </c>
       <c r="Z22">
-        <v>10.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA22">
-        <v>22.4</v>
+        <v>16.9</v>
       </c>
       <c r="AB22">
-        <v>0.457</v>
+        <v>0.485</v>
       </c>
       <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0.1</v>
+      </c>
+      <c r="AE22">
+        <v>0.2</v>
+      </c>
+      <c r="AF22">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG22">
+        <v>16.8</v>
+      </c>
+      <c r="AH22">
+        <v>0.486</v>
+      </c>
+      <c r="AI22">
+        <v>0.485</v>
+      </c>
+      <c r="AJ22">
+        <v>3.7</v>
+      </c>
+      <c r="AK22">
+        <v>4.9</v>
+      </c>
+      <c r="AL22">
+        <v>0.761</v>
+      </c>
+      <c r="AM22">
+        <v>3</v>
+      </c>
+      <c r="AN22">
+        <v>7.5</v>
+      </c>
+      <c r="AO22">
+        <v>10.5</v>
+      </c>
+      <c r="AP22">
+        <v>2</v>
+      </c>
+      <c r="AQ22">
         <v>0.8</v>
       </c>
-      <c r="AD22">
-        <v>2.2</v>
-      </c>
-      <c r="AE22">
-        <v>0.355</v>
-      </c>
-      <c r="AF22">
-        <v>9.5</v>
-      </c>
-      <c r="AG22">
-        <v>20.2</v>
-      </c>
-      <c r="AH22">
-        <v>0.468</v>
-      </c>
-      <c r="AI22">
-        <v>0.474</v>
-      </c>
-      <c r="AJ22">
-        <v>5.6</v>
-      </c>
-      <c r="AK22">
-        <v>7.6</v>
-      </c>
-      <c r="AL22">
-        <v>0.733</v>
-      </c>
-      <c r="AM22">
-        <v>2.5</v>
-      </c>
-      <c r="AN22">
-        <v>5</v>
-      </c>
-      <c r="AO22">
-        <v>7.5</v>
-      </c>
-      <c r="AP22">
-        <v>4.6</v>
-      </c>
-      <c r="AQ22">
-        <v>1.5</v>
-      </c>
       <c r="AR22">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AS22">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AT22">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="AU22">
-        <v>26.8</v>
+        <v>20.1</v>
       </c>
       <c r="AV22" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="AW22" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="AX22" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AY22">
-        <v>2001</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="23" spans="1:51">
@@ -4365,154 +4392,154 @@
         <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D23">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="F23">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G23">
-        <v>32</v>
+        <v>288</v>
       </c>
       <c r="H23">
-        <v>121</v>
+        <v>590</v>
       </c>
       <c r="I23">
-        <v>0.264</v>
+        <v>0.488</v>
       </c>
       <c r="J23" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K23">
-        <v>16939</v>
+        <v>18420</v>
       </c>
       <c r="L23">
-        <v>2867</v>
+        <v>3317</v>
       </c>
       <c r="M23" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="N23">
-        <v>16939</v>
+        <v>18420</v>
       </c>
       <c r="O23" t="s">
         <v>72</v>
       </c>
       <c r="P23" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q23">
-        <v>1972</v>
+        <v>1981</v>
       </c>
       <c r="R23" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="S23">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="T23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U23" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="V23" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="W23">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X23">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y23">
-        <v>37.2</v>
+        <v>35</v>
       </c>
       <c r="Z23">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="AA23">
-        <v>15</v>
+        <v>14.4</v>
       </c>
       <c r="AB23">
-        <v>0.471</v>
+        <v>0.431</v>
       </c>
       <c r="AC23">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AD23">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="AE23">
-        <v>0.393</v>
+        <v>0.348</v>
       </c>
       <c r="AF23">
-        <v>6.1</v>
+        <v>4.9</v>
       </c>
       <c r="AG23">
-        <v>12.5</v>
+        <v>10.6</v>
       </c>
       <c r="AH23">
-        <v>0.486</v>
+        <v>0.461</v>
       </c>
       <c r="AI23">
-        <v>0.503</v>
+        <v>0.478</v>
       </c>
       <c r="AJ23">
+        <v>4.5</v>
+      </c>
+      <c r="AK23">
+        <v>5.7</v>
+      </c>
+      <c r="AL23">
+        <v>0.791</v>
+      </c>
+      <c r="AM23">
+        <v>1.2</v>
+      </c>
+      <c r="AN23">
+        <v>3.5</v>
+      </c>
+      <c r="AO23">
+        <v>4.7</v>
+      </c>
+      <c r="AP23">
+        <v>6.3</v>
+      </c>
+      <c r="AQ23">
+        <v>1.5</v>
+      </c>
+      <c r="AR23">
+        <v>0.2</v>
+      </c>
+      <c r="AS23">
+        <v>3.5</v>
+      </c>
+      <c r="AT23">
         <v>3.2</v>
       </c>
-      <c r="AK23">
-        <v>3.8</v>
-      </c>
-      <c r="AL23">
-        <v>0.827</v>
-      </c>
-      <c r="AM23">
-        <v>0.5</v>
-      </c>
-      <c r="AN23">
-        <v>4.3</v>
-      </c>
-      <c r="AO23">
-        <v>4.8</v>
-      </c>
-      <c r="AP23">
-        <v>4</v>
-      </c>
-      <c r="AQ23">
-        <v>1.1</v>
-      </c>
-      <c r="AR23">
-        <v>0.6</v>
-      </c>
-      <c r="AS23">
-        <v>2.4</v>
-      </c>
-      <c r="AT23">
-        <v>2.9</v>
-      </c>
       <c r="AU23">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AV23" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="AW23" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AX23" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AY23">
-        <v>2000</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="24" spans="1:51">
@@ -4520,154 +4547,154 @@
         <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D24">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F24">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G24">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H24">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="I24">
-        <v>0.458</v>
+        <v>0.413</v>
       </c>
       <c r="J24" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K24">
-        <v>16338</v>
+        <v>17982</v>
       </c>
       <c r="L24">
-        <v>2846</v>
+        <v>2993</v>
       </c>
       <c r="M24" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="N24">
-        <v>16338</v>
+        <v>17982</v>
       </c>
       <c r="O24" t="s">
         <v>73</v>
       </c>
       <c r="P24" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q24">
-        <v>1968</v>
+        <v>1978</v>
       </c>
       <c r="R24" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="S24">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U24" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="V24" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="W24">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="X24">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="Y24">
-        <v>30</v>
+        <v>37.6</v>
       </c>
       <c r="Z24">
-        <v>4.6</v>
+        <v>7.5</v>
       </c>
       <c r="AA24">
-        <v>10.4</v>
+        <v>15.7</v>
       </c>
       <c r="AB24">
-        <v>0.441</v>
+        <v>0.479</v>
       </c>
       <c r="AC24">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AD24">
-        <v>3.8</v>
+        <v>0.2</v>
       </c>
       <c r="AE24">
-        <v>0.365</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="AF24">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="AG24">
-        <v>6.7</v>
+        <v>15.5</v>
       </c>
       <c r="AH24">
-        <v>0.483</v>
+        <v>0.484</v>
       </c>
       <c r="AI24">
-        <v>0.507</v>
+        <v>0.48</v>
       </c>
       <c r="AJ24">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="AK24">
-        <v>3.6</v>
+        <v>5.7</v>
       </c>
       <c r="AL24">
-        <v>0.904</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="AM24">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="AN24">
-        <v>2.5</v>
+        <v>7.9</v>
       </c>
       <c r="AO24">
-        <v>3.6</v>
+        <v>10.5</v>
       </c>
       <c r="AP24">
-        <v>6.7</v>
+        <v>1.6</v>
       </c>
       <c r="AQ24">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="AR24">
-        <v>0.1</v>
+        <v>2.3</v>
       </c>
       <c r="AS24">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="AT24">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="AU24">
-        <v>13.8</v>
+        <v>19</v>
       </c>
       <c r="AV24" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="AW24" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="AX24" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AY24">
-        <v>1999</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="25" spans="1:51">
@@ -4675,154 +4702,154 @@
         <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D25">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F25">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="G25">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="H25">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="I25">
-        <v>0.284</v>
+        <v>0.597</v>
       </c>
       <c r="J25" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K25">
-        <v>15668</v>
+        <v>17709</v>
       </c>
       <c r="L25">
-        <v>2892</v>
+        <v>3096</v>
       </c>
       <c r="M25" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="N25">
-        <v>15668</v>
+        <v>17709</v>
       </c>
       <c r="O25" t="s">
         <v>74</v>
       </c>
       <c r="P25" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q25">
-        <v>1972</v>
+        <v>1979</v>
       </c>
       <c r="R25" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="S25">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="T25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U25" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="V25" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="W25">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="X25">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="Y25">
-        <v>29</v>
+        <v>40.1</v>
       </c>
       <c r="Z25">
-        <v>5.3</v>
+        <v>10.2</v>
       </c>
       <c r="AA25">
-        <v>10.9</v>
+        <v>22.4</v>
       </c>
       <c r="AB25">
-        <v>0.485</v>
+        <v>0.457</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AD25">
-        <v>0.1</v>
+        <v>2.2</v>
       </c>
       <c r="AE25">
-        <v>0.5</v>
+        <v>0.355</v>
       </c>
       <c r="AF25">
-        <v>5.2</v>
+        <v>9.5</v>
       </c>
       <c r="AG25">
-        <v>10.8</v>
+        <v>20.2</v>
       </c>
       <c r="AH25">
-        <v>0.485</v>
+        <v>0.468</v>
       </c>
       <c r="AI25">
-        <v>0.487</v>
+        <v>0.474</v>
       </c>
       <c r="AJ25">
-        <v>3.7</v>
+        <v>5.6</v>
       </c>
       <c r="AK25">
-        <v>5.6</v>
+        <v>7.6</v>
       </c>
       <c r="AL25">
-        <v>0.652</v>
+        <v>0.733</v>
       </c>
       <c r="AM25">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="AN25">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="AO25">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="AP25">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="AQ25">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR25">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AS25">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="AT25">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AU25">
-        <v>14.3</v>
+        <v>26.8</v>
       </c>
       <c r="AV25" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="AW25" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AX25" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AY25">
-        <v>1998</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="26" spans="1:51">
@@ -4830,154 +4857,154 @@
         <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D26">
         <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F26">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G26">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H26">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="I26">
-        <v>0.357</v>
+        <v>0.264</v>
       </c>
       <c r="J26" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K26">
-        <v>15336</v>
+        <v>16939</v>
       </c>
       <c r="L26">
-        <v>2656</v>
+        <v>2867</v>
       </c>
       <c r="M26" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="N26">
-        <v>15336</v>
+        <v>16939</v>
       </c>
       <c r="O26" t="s">
         <v>75</v>
       </c>
       <c r="P26" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q26">
-        <v>1969</v>
+        <v>1972</v>
       </c>
       <c r="R26" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="S26">
         <v>28</v>
       </c>
       <c r="T26">
+        <v>6</v>
+      </c>
+      <c r="U26" t="s">
+        <v>197</v>
+      </c>
+      <c r="V26" t="s">
+        <v>136</v>
+      </c>
+      <c r="W26">
+        <v>80</v>
+      </c>
+      <c r="X26">
+        <v>80</v>
+      </c>
+      <c r="Y26">
+        <v>37.2</v>
+      </c>
+      <c r="Z26">
+        <v>7</v>
+      </c>
+      <c r="AA26">
+        <v>15</v>
+      </c>
+      <c r="AB26">
+        <v>0.471</v>
+      </c>
+      <c r="AC26">
+        <v>1</v>
+      </c>
+      <c r="AD26">
+        <v>2.5</v>
+      </c>
+      <c r="AE26">
+        <v>0.393</v>
+      </c>
+      <c r="AF26">
+        <v>6.1</v>
+      </c>
+      <c r="AG26">
+        <v>12.5</v>
+      </c>
+      <c r="AH26">
+        <v>0.486</v>
+      </c>
+      <c r="AI26">
+        <v>0.503</v>
+      </c>
+      <c r="AJ26">
+        <v>3.2</v>
+      </c>
+      <c r="AK26">
+        <v>3.8</v>
+      </c>
+      <c r="AL26">
+        <v>0.827</v>
+      </c>
+      <c r="AM26">
+        <v>0.5</v>
+      </c>
+      <c r="AN26">
+        <v>4.3</v>
+      </c>
+      <c r="AO26">
+        <v>4.8</v>
+      </c>
+      <c r="AP26">
         <v>4</v>
       </c>
-      <c r="U26" t="s">
-        <v>188</v>
-      </c>
-      <c r="V26" t="s">
-        <v>139</v>
-      </c>
-      <c r="W26">
-        <v>82</v>
-      </c>
-      <c r="X26">
-        <v>17</v>
-      </c>
-      <c r="Y26">
-        <v>22.9</v>
-      </c>
-      <c r="Z26">
-        <v>3.9</v>
-      </c>
-      <c r="AA26">
-        <v>7.8</v>
-      </c>
-      <c r="AB26">
-        <v>0.502</v>
-      </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <v>3.9</v>
-      </c>
-      <c r="AG26">
-        <v>7.8</v>
-      </c>
-      <c r="AH26">
-        <v>0.505</v>
-      </c>
-      <c r="AI26">
-        <v>0.502</v>
-      </c>
-      <c r="AJ26">
-        <v>1.8</v>
-      </c>
-      <c r="AK26">
-        <v>2.8</v>
-      </c>
-      <c r="AL26">
-        <v>0.664</v>
-      </c>
-      <c r="AM26">
-        <v>1.7</v>
-      </c>
-      <c r="AN26">
-        <v>4.2</v>
-      </c>
-      <c r="AO26">
-        <v>5.8</v>
-      </c>
-      <c r="AP26">
-        <v>1.2</v>
-      </c>
       <c r="AQ26">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AR26">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AS26">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AT26">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AU26">
-        <v>9.699999999999999</v>
+        <v>18.2</v>
       </c>
       <c r="AV26" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="AW26" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AX26" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AY26">
-        <v>1997</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="27" spans="1:51">
@@ -4985,154 +5012,154 @@
         <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D27">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F27">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G27">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H27">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I27">
-        <v>0.442</v>
+        <v>0.458</v>
       </c>
       <c r="J27" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K27">
-        <v>14759</v>
+        <v>16338</v>
       </c>
       <c r="L27">
-        <v>2797</v>
+        <v>2846</v>
       </c>
       <c r="M27" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="N27">
-        <v>14759</v>
+        <v>16338</v>
       </c>
       <c r="O27" t="s">
         <v>76</v>
       </c>
       <c r="P27" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q27">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="R27" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="S27">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="T27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U27" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="V27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W27">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="X27">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="Y27">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="Z27">
-        <v>6.1</v>
+        <v>4.6</v>
       </c>
       <c r="AA27">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="AB27">
-        <v>0.584</v>
+        <v>0.441</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>0.365</v>
       </c>
       <c r="AF27">
-        <v>6.1</v>
+        <v>3.2</v>
       </c>
       <c r="AG27">
-        <v>10.5</v>
+        <v>6.7</v>
       </c>
       <c r="AH27">
-        <v>0.585</v>
+        <v>0.483</v>
       </c>
       <c r="AI27">
-        <v>0.584</v>
+        <v>0.507</v>
       </c>
       <c r="AJ27">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="AK27">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AL27">
-        <v>0.619</v>
+        <v>0.904</v>
       </c>
       <c r="AM27">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="AN27">
-        <v>6.3</v>
+        <v>2.5</v>
       </c>
       <c r="AO27">
-        <v>9.6</v>
+        <v>3.6</v>
       </c>
       <c r="AP27">
-        <v>0.7</v>
+        <v>6.7</v>
       </c>
       <c r="AQ27">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="AR27">
-        <v>2.3</v>
+        <v>0.1</v>
       </c>
       <c r="AS27">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="AT27">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="AU27">
-        <v>14.5</v>
+        <v>13.8</v>
       </c>
       <c r="AV27" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="AW27" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AX27" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AY27">
-        <v>1996</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="28" spans="1:51">
@@ -5140,154 +5167,154 @@
         <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D28">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="F28">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G28">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H28">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="I28">
-        <v>0.476</v>
+        <v>0.284</v>
       </c>
       <c r="J28" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K28">
-        <v>14182</v>
+        <v>15668</v>
       </c>
       <c r="L28">
-        <v>2493</v>
+        <v>2892</v>
       </c>
       <c r="M28" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="N28">
-        <v>14182</v>
+        <v>15668</v>
       </c>
       <c r="O28" t="s">
         <v>77</v>
       </c>
       <c r="P28" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q28">
-        <v>1967</v>
+        <v>1972</v>
       </c>
       <c r="R28" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="S28">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="T28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U28" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="V28" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="W28">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="X28">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="Y28">
-        <v>40.5</v>
+        <v>29</v>
       </c>
       <c r="Z28">
-        <v>7</v>
+        <v>5.3</v>
       </c>
       <c r="AA28">
-        <v>14.2</v>
+        <v>10.9</v>
       </c>
       <c r="AB28">
-        <v>0.49</v>
+        <v>0.485</v>
       </c>
       <c r="AC28">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AD28">
+        <v>0.1</v>
+      </c>
+      <c r="AE28">
+        <v>0.5</v>
+      </c>
+      <c r="AF28">
         <v>5.2</v>
       </c>
-      <c r="AE28">
-        <v>0.464</v>
-      </c>
-      <c r="AF28">
-        <v>4.6</v>
-      </c>
       <c r="AG28">
-        <v>9</v>
+        <v>10.8</v>
       </c>
       <c r="AH28">
-        <v>0.505</v>
+        <v>0.485</v>
       </c>
       <c r="AI28">
-        <v>0.575</v>
+        <v>0.487</v>
       </c>
       <c r="AJ28">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="AK28">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="AL28">
-        <v>0.899</v>
+        <v>0.652</v>
       </c>
       <c r="AM28">
-        <v>0.3</v>
+        <v>2.9</v>
       </c>
       <c r="AN28">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AO28">
-        <v>3.3</v>
+        <v>6.4</v>
       </c>
       <c r="AP28">
-        <v>7.5</v>
+        <v>1.1</v>
       </c>
       <c r="AQ28">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="AR28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AS28">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="AT28">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="AU28">
-        <v>20.6</v>
+        <v>14.3</v>
       </c>
       <c r="AV28" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="AW28" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AX28" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AY28">
-        <v>1995</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="29" spans="1:51">
@@ -5295,82 +5322,82 @@
         <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29">
+        <v>27</v>
+      </c>
+      <c r="E29" t="s">
+        <v>147</v>
+      </c>
+      <c r="F29">
+        <v>41</v>
+      </c>
+      <c r="G29">
+        <v>41</v>
+      </c>
+      <c r="H29">
         <v>115</v>
       </c>
-      <c r="D29">
-        <v>24</v>
-      </c>
-      <c r="E29" t="s">
-        <v>140</v>
-      </c>
-      <c r="F29">
-        <v>55</v>
-      </c>
-      <c r="G29">
-        <v>55</v>
-      </c>
-      <c r="H29">
-        <v>101</v>
-      </c>
       <c r="I29">
-        <v>0.545</v>
+        <v>0.357</v>
       </c>
       <c r="J29" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K29">
-        <v>13739</v>
+        <v>15336</v>
       </c>
       <c r="L29">
-        <v>2711</v>
+        <v>2656</v>
       </c>
       <c r="M29" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="N29">
-        <v>13739</v>
+        <v>15336</v>
       </c>
       <c r="O29" t="s">
         <v>78</v>
       </c>
       <c r="P29" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q29">
         <v>1969</v>
       </c>
       <c r="R29" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="S29">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="T29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U29" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="V29" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="W29">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="X29">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="Y29">
-        <v>33.2</v>
+        <v>22.9</v>
       </c>
       <c r="Z29">
-        <v>6.9</v>
+        <v>3.9</v>
       </c>
       <c r="AA29">
-        <v>13.7</v>
+        <v>7.8</v>
       </c>
       <c r="AB29">
         <v>0.502</v>
@@ -5379,70 +5406,70 @@
         <v>0</v>
       </c>
       <c r="AD29">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AE29">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="AF29">
-        <v>6.9</v>
+        <v>3.9</v>
       </c>
       <c r="AG29">
-        <v>13.5</v>
+        <v>7.8</v>
       </c>
       <c r="AH29">
-        <v>0.509</v>
+        <v>0.505</v>
       </c>
       <c r="AI29">
-        <v>0.503</v>
+        <v>0.502</v>
       </c>
       <c r="AJ29">
-        <v>4.4</v>
+        <v>1.8</v>
       </c>
       <c r="AK29">
-        <v>5.3</v>
+        <v>2.8</v>
       </c>
       <c r="AL29">
-        <v>0.824</v>
+        <v>0.664</v>
       </c>
       <c r="AM29">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AN29">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="AO29">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="AP29">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ29">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AS29">
         <v>2</v>
       </c>
       <c r="AT29">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="AU29">
-        <v>18.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AV29" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="AW29" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AX29" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AY29">
-        <v>1994</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="30" spans="1:51">
@@ -5450,154 +5477,154 @@
         <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D30">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F30">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G30">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H30">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="I30">
-        <v>0.255</v>
+        <v>0.442</v>
       </c>
       <c r="J30" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K30">
-        <v>13431</v>
+        <v>14759</v>
       </c>
       <c r="L30">
-        <v>2608</v>
+        <v>2797</v>
       </c>
       <c r="M30" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="N30">
-        <v>13431</v>
+        <v>14759</v>
       </c>
       <c r="O30" t="s">
         <v>79</v>
       </c>
       <c r="P30" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q30">
-        <v>1969</v>
+        <v>1971</v>
       </c>
       <c r="R30" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="S30">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T30">
         <v>3</v>
       </c>
       <c r="U30" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="V30" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="W30">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="X30">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Y30">
-        <v>33.5</v>
+        <v>29.5</v>
       </c>
       <c r="Z30">
-        <v>7.8</v>
+        <v>6.1</v>
       </c>
       <c r="AA30">
-        <v>17.4</v>
+        <v>10.5</v>
       </c>
       <c r="AB30">
-        <v>0.45</v>
+        <v>0.584</v>
       </c>
       <c r="AC30">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AD30">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AE30">
-        <v>0.355</v>
+        <v>0</v>
       </c>
       <c r="AF30">
-        <v>7</v>
+        <v>6.1</v>
       </c>
       <c r="AG30">
-        <v>14.9</v>
+        <v>10.5</v>
       </c>
       <c r="AH30">
-        <v>0.465</v>
+        <v>0.585</v>
       </c>
       <c r="AI30">
-        <v>0.475</v>
+        <v>0.584</v>
       </c>
       <c r="AJ30">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="AK30">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="AL30">
-        <v>0.9350000000000001</v>
+        <v>0.619</v>
       </c>
       <c r="AM30">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="AN30">
-        <v>2.1</v>
+        <v>6.3</v>
       </c>
       <c r="AO30">
-        <v>2.8</v>
+        <v>9.6</v>
       </c>
       <c r="AP30">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AR30">
-        <v>0.1</v>
+        <v>2.3</v>
       </c>
       <c r="AS30">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="AT30">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="AU30">
-        <v>19.2</v>
+        <v>14.5</v>
       </c>
       <c r="AV30" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="AW30" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AX30" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AY30">
-        <v>1993</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="31" spans="1:51">
@@ -5605,154 +5632,154 @@
         <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D31">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E31" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H31">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="I31">
-        <v>0.417</v>
+        <v>0.476</v>
       </c>
       <c r="J31" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K31">
-        <v>13021</v>
+        <v>14182</v>
       </c>
       <c r="L31">
-        <v>2534</v>
+        <v>2493</v>
       </c>
       <c r="M31" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="N31">
-        <v>13021</v>
+        <v>14182</v>
       </c>
       <c r="O31" t="s">
         <v>80</v>
       </c>
       <c r="P31" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q31">
         <v>1967</v>
       </c>
       <c r="R31" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="S31">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="T31">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U31" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="V31" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="W31">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="X31">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="Y31">
-        <v>38</v>
+        <v>40.5</v>
       </c>
       <c r="Z31">
-        <v>8.300000000000001</v>
+        <v>7</v>
       </c>
       <c r="AA31">
-        <v>15.4</v>
+        <v>14.2</v>
       </c>
       <c r="AB31">
-        <v>0.539</v>
+        <v>0.49</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="AE31">
-        <v>0.333</v>
+        <v>0.464</v>
       </c>
       <c r="AF31">
-        <v>8.300000000000001</v>
+        <v>4.6</v>
       </c>
       <c r="AG31">
-        <v>15.3</v>
+        <v>9</v>
       </c>
       <c r="AH31">
-        <v>0.54</v>
+        <v>0.505</v>
       </c>
       <c r="AI31">
-        <v>0.54</v>
+        <v>0.575</v>
       </c>
       <c r="AJ31">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="AK31">
         <v>4.7</v>
       </c>
       <c r="AL31">
-        <v>0.728</v>
+        <v>0.899</v>
       </c>
       <c r="AM31">
+        <v>0.3</v>
+      </c>
+      <c r="AN31">
+        <v>3</v>
+      </c>
+      <c r="AO31">
         <v>3.3</v>
       </c>
-      <c r="AN31">
-        <v>7.9</v>
-      </c>
-      <c r="AO31">
-        <v>11.2</v>
-      </c>
       <c r="AP31">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="AQ31">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="AR31">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AS31">
         <v>3</v>
       </c>
       <c r="AT31">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="AU31">
-        <v>20</v>
+        <v>20.6</v>
       </c>
       <c r="AV31" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="AW31" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="AX31" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AY31">
-        <v>1992</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="32" spans="1:51">
@@ -5760,154 +5787,154 @@
         <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D32">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="F32">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="G32">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="H32">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="I32">
-        <v>0.26</v>
+        <v>0.545</v>
       </c>
       <c r="J32" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K32">
-        <v>12625</v>
+        <v>13739</v>
       </c>
       <c r="L32">
-        <v>2338</v>
+        <v>2711</v>
       </c>
       <c r="M32" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="N32">
-        <v>12625</v>
+        <v>13739</v>
       </c>
       <c r="O32" t="s">
         <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q32">
-        <v>1964</v>
+        <v>1969</v>
       </c>
       <c r="R32" t="s">
+        <v>193</v>
+      </c>
+      <c r="S32">
+        <v>25</v>
+      </c>
+      <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32" t="s">
+        <v>197</v>
+      </c>
+      <c r="V32" t="s">
+        <v>148</v>
+      </c>
+      <c r="W32">
+        <v>75</v>
+      </c>
+      <c r="X32">
+        <v>69</v>
+      </c>
+      <c r="Y32">
+        <v>33.2</v>
+      </c>
+      <c r="Z32">
+        <v>6.9</v>
+      </c>
+      <c r="AA32">
+        <v>13.7</v>
+      </c>
+      <c r="AB32">
+        <v>0.502</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0.3</v>
+      </c>
+      <c r="AE32">
+        <v>0.143</v>
+      </c>
+      <c r="AF32">
+        <v>6.9</v>
+      </c>
+      <c r="AG32">
+        <v>13.5</v>
+      </c>
+      <c r="AH32">
+        <v>0.509</v>
+      </c>
+      <c r="AI32">
+        <v>0.503</v>
+      </c>
+      <c r="AJ32">
+        <v>4.4</v>
+      </c>
+      <c r="AK32">
+        <v>5.3</v>
+      </c>
+      <c r="AL32">
+        <v>0.824</v>
+      </c>
+      <c r="AM32">
+        <v>1.9</v>
+      </c>
+      <c r="AN32">
+        <v>4.4</v>
+      </c>
+      <c r="AO32">
+        <v>6.2</v>
+      </c>
+      <c r="AP32">
+        <v>2.1</v>
+      </c>
+      <c r="AQ32">
+        <v>0.6</v>
+      </c>
+      <c r="AR32">
+        <v>0.3</v>
+      </c>
+      <c r="AS32">
+        <v>2</v>
+      </c>
+      <c r="AT32">
+        <v>2.3</v>
+      </c>
+      <c r="AU32">
+        <v>18.2</v>
+      </c>
+      <c r="AV32" t="s">
         <v>183</v>
       </c>
-      <c r="S32">
-        <v>27</v>
-      </c>
-      <c r="T32">
-        <v>5</v>
-      </c>
-      <c r="U32" t="s">
-        <v>188</v>
-      </c>
-      <c r="V32" t="s">
-        <v>132</v>
-      </c>
-      <c r="W32">
-        <v>79</v>
-      </c>
-      <c r="X32">
-        <v>66</v>
-      </c>
-      <c r="Y32">
-        <v>34.4</v>
-      </c>
-      <c r="Z32">
-        <v>5.8</v>
-      </c>
-      <c r="AA32">
-        <v>13.2</v>
-      </c>
-      <c r="AB32">
-        <v>0.445</v>
-      </c>
-      <c r="AC32">
-        <v>1.2</v>
-      </c>
-      <c r="AD32">
-        <v>2.9</v>
-      </c>
-      <c r="AE32">
-        <v>0.408</v>
-      </c>
-      <c r="AF32">
-        <v>4.7</v>
-      </c>
-      <c r="AG32">
-        <v>10.3</v>
-      </c>
-      <c r="AH32">
-        <v>0.455</v>
-      </c>
-      <c r="AI32">
-        <v>0.489</v>
-      </c>
-      <c r="AJ32">
-        <v>4.3</v>
-      </c>
-      <c r="AK32">
-        <v>4.8</v>
-      </c>
-      <c r="AL32">
-        <v>0.902</v>
-      </c>
-      <c r="AM32">
-        <v>0.7</v>
-      </c>
-      <c r="AN32">
-        <v>2.7</v>
-      </c>
-      <c r="AO32">
-        <v>3.4</v>
-      </c>
-      <c r="AP32">
-        <v>8.4</v>
-      </c>
-      <c r="AQ32">
-        <v>1.1</v>
-      </c>
-      <c r="AR32">
-        <v>0.1</v>
-      </c>
-      <c r="AS32">
-        <v>3.2</v>
-      </c>
-      <c r="AT32">
-        <v>2.4</v>
-      </c>
-      <c r="AU32">
-        <v>17.2</v>
-      </c>
-      <c r="AV32" t="s">
-        <v>175</v>
-      </c>
       <c r="AW32" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AX32" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AY32">
-        <v>1991</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="33" spans="1:51">
@@ -5915,154 +5942,154 @@
         <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D33">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E33" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F33">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G33">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H33">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="I33">
-        <v>0.402</v>
+        <v>0.255</v>
       </c>
       <c r="J33" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K33">
-        <v>12168</v>
+        <v>13431</v>
       </c>
       <c r="L33">
-        <v>2464</v>
+        <v>2608</v>
       </c>
       <c r="M33" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="N33">
-        <v>12168</v>
+        <v>13431</v>
       </c>
       <c r="O33" t="s">
         <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q33">
-        <v>1965</v>
+        <v>1969</v>
       </c>
       <c r="R33" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="S33">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U33" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="V33" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="W33">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="X33">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="Y33">
-        <v>32.6</v>
+        <v>33.5</v>
       </c>
       <c r="Z33">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="AA33">
-        <v>13.1</v>
+        <v>17.4</v>
       </c>
       <c r="AB33">
-        <v>0.502</v>
+        <v>0.45</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AE33">
-        <v>0</v>
+        <v>0.355</v>
       </c>
       <c r="AF33">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AG33">
-        <v>13.1</v>
+        <v>14.9</v>
       </c>
       <c r="AH33">
-        <v>0.503</v>
+        <v>0.465</v>
       </c>
       <c r="AI33">
-        <v>0.502</v>
+        <v>0.475</v>
       </c>
       <c r="AJ33">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="AK33">
-        <v>5.8</v>
+        <v>2.9</v>
       </c>
       <c r="AL33">
-        <v>0.594</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="AM33">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="AN33">
-        <v>6.9</v>
+        <v>2.1</v>
       </c>
       <c r="AO33">
-        <v>10.4</v>
+        <v>2.8</v>
       </c>
       <c r="AP33">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="AQ33">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR33">
-        <v>1.7</v>
+        <v>0.1</v>
       </c>
       <c r="AS33">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="AT33">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="AU33">
-        <v>16.6</v>
+        <v>19.2</v>
       </c>
       <c r="AV33" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="AW33" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="AX33" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AY33">
-        <v>1990</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="34" spans="1:51">
@@ -6070,154 +6097,154 @@
         <v>83</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D34">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E34" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="F34">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G34">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H34">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="I34">
-        <v>0.5649999999999999</v>
+        <v>0.417</v>
       </c>
       <c r="J34" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K34">
-        <v>11605</v>
+        <v>13021</v>
       </c>
       <c r="L34">
-        <v>2371</v>
+        <v>2534</v>
       </c>
       <c r="M34" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="N34">
-        <v>11605</v>
+        <v>13021</v>
       </c>
       <c r="O34" t="s">
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q34">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="R34" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="S34">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="T34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U34" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="V34" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="W34">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="X34">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="Y34">
-        <v>39.2</v>
+        <v>38</v>
       </c>
       <c r="Z34">
-        <v>7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AA34">
-        <v>13.9</v>
+        <v>15.4</v>
       </c>
       <c r="AB34">
-        <v>0.505</v>
+        <v>0.539</v>
       </c>
       <c r="AC34">
         <v>0</v>
       </c>
       <c r="AD34">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AE34">
-        <v>0.091</v>
+        <v>0.333</v>
       </c>
       <c r="AF34">
-        <v>7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AG34">
-        <v>13.7</v>
+        <v>15.3</v>
       </c>
       <c r="AH34">
-        <v>0.514</v>
+        <v>0.54</v>
       </c>
       <c r="AI34">
-        <v>0.506</v>
+        <v>0.54</v>
       </c>
       <c r="AJ34">
-        <v>6.3</v>
+        <v>3.4</v>
       </c>
       <c r="AK34">
-        <v>7.1</v>
+        <v>4.7</v>
       </c>
       <c r="AL34">
-        <v>0.882</v>
+        <v>0.728</v>
       </c>
       <c r="AM34">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="AN34">
-        <v>3.6</v>
+        <v>7.9</v>
       </c>
       <c r="AO34">
-        <v>4.2</v>
+        <v>11.2</v>
       </c>
       <c r="AP34">
-        <v>12.2</v>
+        <v>2.9</v>
       </c>
       <c r="AQ34">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="AR34">
-        <v>0.3</v>
+        <v>2.7</v>
       </c>
       <c r="AS34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT34">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="AU34">
-        <v>20.4</v>
+        <v>20</v>
       </c>
       <c r="AV34" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="AW34" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="AX34" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AY34">
-        <v>1989</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="35" spans="1:51">
@@ -6225,154 +6252,154 @@
         <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D35">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E35" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F35">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G35">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H35">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="I35">
-        <v>0.413</v>
+        <v>0.26</v>
       </c>
       <c r="J35" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K35">
-        <v>11152</v>
+        <v>12625</v>
       </c>
       <c r="L35">
-        <v>2320</v>
+        <v>2338</v>
       </c>
       <c r="M35" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="N35">
-        <v>11152</v>
+        <v>12625</v>
       </c>
       <c r="O35" t="s">
         <v>84</v>
       </c>
       <c r="P35" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q35">
         <v>1964</v>
       </c>
       <c r="R35" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="S35">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="T35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U35" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="V35" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="W35">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X35">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="Y35">
-        <v>28.5</v>
+        <v>34.4</v>
       </c>
       <c r="Z35">
         <v>5.8</v>
       </c>
       <c r="AA35">
-        <v>11.6</v>
+        <v>13.2</v>
       </c>
       <c r="AB35">
-        <v>0.496</v>
+        <v>0.445</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AE35">
-        <v>0</v>
+        <v>0.408</v>
       </c>
       <c r="AF35">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
       <c r="AG35">
-        <v>11.6</v>
+        <v>10.3</v>
       </c>
       <c r="AH35">
-        <v>0.496</v>
+        <v>0.455</v>
       </c>
       <c r="AI35">
-        <v>0.496</v>
+        <v>0.489</v>
       </c>
       <c r="AJ35">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AK35">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="AL35">
-        <v>0.77</v>
+        <v>0.902</v>
       </c>
       <c r="AM35">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="AN35">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="AO35">
-        <v>7.4</v>
+        <v>3.4</v>
       </c>
       <c r="AP35">
-        <v>0.8</v>
+        <v>8.4</v>
       </c>
       <c r="AQ35">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="AR35">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AS35">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="AT35">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="AU35">
-        <v>15.8</v>
+        <v>17.2</v>
       </c>
       <c r="AV35" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="AW35" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AX35" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AY35">
-        <v>1988</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="36" spans="1:51">
@@ -6380,154 +6407,154 @@
         <v>85</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D36">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E36" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F36">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G36">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H36">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I36">
-        <v>0.423</v>
+        <v>0.402</v>
       </c>
       <c r="J36" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K36">
-        <v>10638</v>
+        <v>12168</v>
       </c>
       <c r="L36">
-        <v>2112</v>
+        <v>2464</v>
       </c>
       <c r="M36" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="N36">
-        <v>10638</v>
+        <v>12168</v>
       </c>
       <c r="O36" t="s">
         <v>85</v>
       </c>
       <c r="P36" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q36">
-        <v>1960</v>
+        <v>1965</v>
       </c>
       <c r="R36" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="S36">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U36" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="V36" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="W36">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="X36">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Y36">
-        <v>37.5</v>
+        <v>32.6</v>
       </c>
       <c r="Z36">
-        <v>9.6</v>
+        <v>6.6</v>
       </c>
       <c r="AA36">
-        <v>18.5</v>
+        <v>13.1</v>
       </c>
       <c r="AB36">
-        <v>0.516</v>
+        <v>0.502</v>
       </c>
       <c r="AC36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD36">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="AE36">
-        <v>0.358</v>
+        <v>0</v>
       </c>
       <c r="AF36">
-        <v>8.5</v>
+        <v>6.6</v>
       </c>
       <c r="AG36">
-        <v>15.6</v>
+        <v>13.1</v>
       </c>
       <c r="AH36">
-        <v>0.546</v>
+        <v>0.503</v>
       </c>
       <c r="AI36">
-        <v>0.545</v>
+        <v>0.502</v>
       </c>
       <c r="AJ36">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="AK36">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AL36">
-        <v>0.787</v>
+        <v>0.594</v>
       </c>
       <c r="AM36">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="AN36">
+        <v>6.9</v>
+      </c>
+      <c r="AO36">
+        <v>10.4</v>
+      </c>
+      <c r="AP36">
+        <v>1.1</v>
+      </c>
+      <c r="AQ36">
+        <v>1.1</v>
+      </c>
+      <c r="AR36">
+        <v>1.7</v>
+      </c>
+      <c r="AS36">
         <v>3.2</v>
       </c>
-      <c r="AO36">
-        <v>5.5</v>
-      </c>
-      <c r="AP36">
-        <v>2.9</v>
-      </c>
-      <c r="AQ36">
-        <v>1.3</v>
-      </c>
-      <c r="AR36">
-        <v>0.4</v>
-      </c>
-      <c r="AS36">
-        <v>2.9</v>
-      </c>
       <c r="AT36">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AU36">
-        <v>24.9</v>
+        <v>16.6</v>
       </c>
       <c r="AV36" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="AW36" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="AX36" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AY36">
-        <v>1987</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="37" spans="1:51">
@@ -6535,153 +6562,618 @@
         <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D37">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E37" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F37">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G37">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H37">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I37">
-        <v>0.385</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="J37" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K37">
-        <v>10190</v>
+        <v>11605</v>
       </c>
       <c r="L37">
-        <v>2158</v>
+        <v>2371</v>
       </c>
       <c r="M37" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="N37">
-        <v>10190</v>
+        <v>11605</v>
       </c>
       <c r="O37" t="s">
         <v>86</v>
       </c>
       <c r="P37" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q37">
-        <v>1962</v>
+        <v>1966</v>
       </c>
       <c r="R37" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="S37">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T37">
         <v>2</v>
       </c>
       <c r="U37" t="s">
+        <v>197</v>
+      </c>
+      <c r="V37" t="s">
+        <v>140</v>
+      </c>
+      <c r="W37">
+        <v>81</v>
+      </c>
+      <c r="X37">
+        <v>81</v>
+      </c>
+      <c r="Y37">
+        <v>39.2</v>
+      </c>
+      <c r="Z37">
+        <v>7</v>
+      </c>
+      <c r="AA37">
+        <v>13.9</v>
+      </c>
+      <c r="AB37">
+        <v>0.505</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0.3</v>
+      </c>
+      <c r="AE37">
+        <v>0.091</v>
+      </c>
+      <c r="AF37">
+        <v>7</v>
+      </c>
+      <c r="AG37">
+        <v>13.7</v>
+      </c>
+      <c r="AH37">
+        <v>0.514</v>
+      </c>
+      <c r="AI37">
+        <v>0.506</v>
+      </c>
+      <c r="AJ37">
+        <v>6.3</v>
+      </c>
+      <c r="AK37">
+        <v>7.1</v>
+      </c>
+      <c r="AL37">
+        <v>0.882</v>
+      </c>
+      <c r="AM37">
+        <v>0.6</v>
+      </c>
+      <c r="AN37">
+        <v>3.6</v>
+      </c>
+      <c r="AO37">
+        <v>4.2</v>
+      </c>
+      <c r="AP37">
+        <v>12.2</v>
+      </c>
+      <c r="AQ37">
+        <v>1.7</v>
+      </c>
+      <c r="AR37">
+        <v>0.3</v>
+      </c>
+      <c r="AS37">
+        <v>4</v>
+      </c>
+      <c r="AT37">
+        <v>2.8</v>
+      </c>
+      <c r="AU37">
+        <v>20.4</v>
+      </c>
+      <c r="AV37" t="s">
         <v>188</v>
       </c>
-      <c r="V37" t="s">
-        <v>143</v>
-      </c>
-      <c r="W37">
+      <c r="AW37" t="s">
+        <v>199</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>198</v>
+      </c>
+      <c r="AY37">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="38" spans="1:51">
+      <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38">
+        <v>23</v>
+      </c>
+      <c r="E38" t="s">
+        <v>138</v>
+      </c>
+      <c r="F38">
+        <v>33</v>
+      </c>
+      <c r="G38">
+        <v>33</v>
+      </c>
+      <c r="H38">
+        <v>80</v>
+      </c>
+      <c r="I38">
+        <v>0.413</v>
+      </c>
+      <c r="J38" t="s">
+        <v>152</v>
+      </c>
+      <c r="K38">
+        <v>11152</v>
+      </c>
+      <c r="L38">
+        <v>2320</v>
+      </c>
+      <c r="M38" t="s">
+        <v>189</v>
+      </c>
+      <c r="N38">
+        <v>11152</v>
+      </c>
+      <c r="O38" t="s">
+        <v>87</v>
+      </c>
+      <c r="P38" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q38">
+        <v>1964</v>
+      </c>
+      <c r="R38" t="s">
+        <v>196</v>
+      </c>
+      <c r="S38">
+        <v>24</v>
+      </c>
+      <c r="T38">
+        <v>2</v>
+      </c>
+      <c r="U38" t="s">
+        <v>197</v>
+      </c>
+      <c r="V38" t="s">
+        <v>138</v>
+      </c>
+      <c r="W38">
+        <v>78</v>
+      </c>
+      <c r="X38">
+        <v>50</v>
+      </c>
+      <c r="Y38">
+        <v>28.5</v>
+      </c>
+      <c r="Z38">
+        <v>5.8</v>
+      </c>
+      <c r="AA38">
+        <v>11.6</v>
+      </c>
+      <c r="AB38">
+        <v>0.496</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>5.8</v>
+      </c>
+      <c r="AG38">
+        <v>11.6</v>
+      </c>
+      <c r="AH38">
+        <v>0.496</v>
+      </c>
+      <c r="AI38">
+        <v>0.496</v>
+      </c>
+      <c r="AJ38">
+        <v>4.2</v>
+      </c>
+      <c r="AK38">
+        <v>5.5</v>
+      </c>
+      <c r="AL38">
+        <v>0.77</v>
+      </c>
+      <c r="AM38">
+        <v>2.9</v>
+      </c>
+      <c r="AN38">
+        <v>4.5</v>
+      </c>
+      <c r="AO38">
+        <v>7.4</v>
+      </c>
+      <c r="AP38">
+        <v>0.8</v>
+      </c>
+      <c r="AQ38">
+        <v>0.4</v>
+      </c>
+      <c r="AR38">
+        <v>0.4</v>
+      </c>
+      <c r="AS38">
+        <v>2.3</v>
+      </c>
+      <c r="AT38">
+        <v>3.6</v>
+      </c>
+      <c r="AU38">
+        <v>15.8</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>189</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>198</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>198</v>
+      </c>
+      <c r="AY38">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="39" spans="1:51">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39">
+        <v>26</v>
+      </c>
+      <c r="E39" t="s">
+        <v>150</v>
+      </c>
+      <c r="F39">
+        <v>33</v>
+      </c>
+      <c r="G39">
+        <v>33</v>
+      </c>
+      <c r="H39">
+        <v>78</v>
+      </c>
+      <c r="I39">
+        <v>0.423</v>
+      </c>
+      <c r="J39" t="s">
+        <v>152</v>
+      </c>
+      <c r="K39">
+        <v>10638</v>
+      </c>
+      <c r="L39">
+        <v>2112</v>
+      </c>
+      <c r="M39" t="s">
+        <v>190</v>
+      </c>
+      <c r="N39">
+        <v>10638</v>
+      </c>
+      <c r="O39" t="s">
+        <v>88</v>
+      </c>
+      <c r="P39" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q39">
+        <v>1960</v>
+      </c>
+      <c r="R39" t="s">
+        <v>195</v>
+      </c>
+      <c r="S39">
+        <v>27</v>
+      </c>
+      <c r="T39">
+        <v>4</v>
+      </c>
+      <c r="U39" t="s">
+        <v>197</v>
+      </c>
+      <c r="V39" t="s">
+        <v>150</v>
+      </c>
+      <c r="W39">
         <v>82</v>
       </c>
-      <c r="X37">
+      <c r="X39">
+        <v>76</v>
+      </c>
+      <c r="Y39">
+        <v>37.5</v>
+      </c>
+      <c r="Z39">
+        <v>9.6</v>
+      </c>
+      <c r="AA39">
+        <v>18.5</v>
+      </c>
+      <c r="AB39">
+        <v>0.516</v>
+      </c>
+      <c r="AC39">
+        <v>1</v>
+      </c>
+      <c r="AD39">
+        <v>2.9</v>
+      </c>
+      <c r="AE39">
+        <v>0.358</v>
+      </c>
+      <c r="AF39">
+        <v>8.5</v>
+      </c>
+      <c r="AG39">
+        <v>15.6</v>
+      </c>
+      <c r="AH39">
+        <v>0.546</v>
+      </c>
+      <c r="AI39">
+        <v>0.545</v>
+      </c>
+      <c r="AJ39">
+        <v>4.7</v>
+      </c>
+      <c r="AK39">
+        <v>6</v>
+      </c>
+      <c r="AL39">
+        <v>0.787</v>
+      </c>
+      <c r="AM39">
+        <v>2.3</v>
+      </c>
+      <c r="AN39">
+        <v>3.2</v>
+      </c>
+      <c r="AO39">
+        <v>5.5</v>
+      </c>
+      <c r="AP39">
+        <v>2.9</v>
+      </c>
+      <c r="AQ39">
+        <v>1.3</v>
+      </c>
+      <c r="AR39">
+        <v>0.4</v>
+      </c>
+      <c r="AS39">
+        <v>2.9</v>
+      </c>
+      <c r="AT39">
+        <v>3.3</v>
+      </c>
+      <c r="AU39">
+        <v>24.9</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>190</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>198</v>
+      </c>
+      <c r="AX39" t="s">
+        <v>198</v>
+      </c>
+      <c r="AY39">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="40" spans="1:51">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40">
+        <v>23</v>
+      </c>
+      <c r="E40" t="s">
+        <v>151</v>
+      </c>
+      <c r="F40">
+        <v>30</v>
+      </c>
+      <c r="G40">
+        <v>30</v>
+      </c>
+      <c r="H40">
+        <v>78</v>
+      </c>
+      <c r="I40">
+        <v>0.385</v>
+      </c>
+      <c r="J40" t="s">
+        <v>152</v>
+      </c>
+      <c r="K40">
+        <v>10190</v>
+      </c>
+      <c r="L40">
+        <v>2158</v>
+      </c>
+      <c r="M40" t="s">
+        <v>191</v>
+      </c>
+      <c r="N40">
+        <v>10190</v>
+      </c>
+      <c r="O40" t="s">
+        <v>89</v>
+      </c>
+      <c r="P40" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q40">
+        <v>1962</v>
+      </c>
+      <c r="R40" t="s">
+        <v>195</v>
+      </c>
+      <c r="S40">
+        <v>24</v>
+      </c>
+      <c r="T40">
+        <v>2</v>
+      </c>
+      <c r="U40" t="s">
+        <v>197</v>
+      </c>
+      <c r="V40" t="s">
+        <v>151</v>
+      </c>
+      <c r="W40">
         <v>82</v>
       </c>
-      <c r="Y37">
+      <c r="X40">
+        <v>82</v>
+      </c>
+      <c r="Y40">
         <v>35.1</v>
       </c>
-      <c r="Z37">
+      <c r="Z40">
         <v>6.9</v>
       </c>
-      <c r="AA37">
+      <c r="AA40">
         <v>13.3</v>
       </c>
-      <c r="AB37">
+      <c r="AB40">
         <v>0.514</v>
       </c>
-      <c r="AC37">
+      <c r="AC40">
         <v>0.1</v>
       </c>
-      <c r="AD37">
+      <c r="AD40">
         <v>0.4</v>
       </c>
-      <c r="AE37">
+      <c r="AE40">
         <v>0.276</v>
       </c>
-      <c r="AF37">
+      <c r="AF40">
         <v>6.8</v>
       </c>
-      <c r="AG37">
+      <c r="AG40">
         <v>13</v>
       </c>
-      <c r="AH37">
+      <c r="AH40">
         <v>0.521</v>
       </c>
-      <c r="AI37">
+      <c r="AI40">
         <v>0.518</v>
       </c>
-      <c r="AJ37">
+      <c r="AJ40">
         <v>3.2</v>
       </c>
-      <c r="AK37">
+      <c r="AK40">
         <v>4</v>
       </c>
-      <c r="AL37">
+      <c r="AL40">
         <v>0.795</v>
       </c>
-      <c r="AM37">
+      <c r="AM40">
         <v>2.2</v>
       </c>
-      <c r="AN37">
+      <c r="AN40">
         <v>4</v>
       </c>
-      <c r="AO37">
+      <c r="AO40">
         <v>6.3</v>
       </c>
-      <c r="AP37">
+      <c r="AP40">
         <v>5.5</v>
       </c>
-      <c r="AQ37">
+      <c r="AQ40">
         <v>3.7</v>
       </c>
-      <c r="AR37">
+      <c r="AR40">
         <v>0.5</v>
       </c>
-      <c r="AS37">
+      <c r="AS40">
         <v>3.1</v>
       </c>
-      <c r="AT37">
+      <c r="AT40">
         <v>3.6</v>
       </c>
-      <c r="AU37">
+      <c r="AU40">
         <v>17</v>
       </c>
-      <c r="AV37" t="s">
-        <v>180</v>
-      </c>
-      <c r="AW37" t="s">
-        <v>189</v>
-      </c>
-      <c r="AX37" t="s">
-        <v>189</v>
-      </c>
-      <c r="AY37">
+      <c r="AV40" t="s">
+        <v>191</v>
+      </c>
+      <c r="AW40" t="s">
+        <v>198</v>
+      </c>
+      <c r="AX40" t="s">
+        <v>198</v>
+      </c>
+      <c r="AY40">
         <v>1986</v>
       </c>
     </row>

--- a/mip_winners.xlsx
+++ b/mip_winners.xlsx
@@ -46,19 +46,19 @@
     <t>winner</t>
   </si>
   <si>
-    <t>seas_id_x</t>
-  </si>
-  <si>
-    <t>player_id</t>
+    <t>seas_id</t>
+  </si>
+  <si>
+    <t>player_id_x</t>
   </si>
   <si>
     <t>season_x</t>
   </si>
   <si>
-    <t>seas_id_y</t>
-  </si>
-  <si>
     <t>season_ending_year_y</t>
+  </si>
+  <si>
+    <t>player_id_y</t>
   </si>
   <si>
     <t>player_y</t>
@@ -1172,11 +1172,11 @@
       <c r="M2" t="s">
         <v>153</v>
       </c>
-      <c r="N2">
-        <v>31843</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="N2" t="s">
         <v>51</v>
+      </c>
+      <c r="O2">
+        <v>5025</v>
       </c>
       <c r="P2" t="s">
         <v>91</v>
@@ -1327,11 +1327,11 @@
       <c r="M3" t="s">
         <v>154</v>
       </c>
-      <c r="N3">
-        <v>30871</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="N3" t="s">
         <v>52</v>
+      </c>
+      <c r="O3">
+        <v>3251</v>
       </c>
       <c r="P3" t="s">
         <v>92</v>
@@ -1482,11 +1482,11 @@
       <c r="M4" t="s">
         <v>155</v>
       </c>
-      <c r="N4">
-        <v>29959</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="N4" t="s">
         <v>53</v>
+      </c>
+      <c r="O4">
+        <v>2223</v>
       </c>
       <c r="P4" t="s">
         <v>93</v>
@@ -1637,11 +1637,11 @@
       <c r="M5" t="s">
         <v>156</v>
       </c>
-      <c r="N5">
-        <v>29311</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="N5" t="s">
         <v>54</v>
+      </c>
+      <c r="O5">
+        <v>2936</v>
       </c>
       <c r="P5" t="s">
         <v>94</v>
@@ -1792,11 +1792,11 @@
       <c r="M6" t="s">
         <v>157</v>
       </c>
-      <c r="N6">
-        <v>28348</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="N6" t="s">
         <v>55</v>
+      </c>
+      <c r="O6">
+        <v>609</v>
       </c>
       <c r="P6" t="s">
         <v>95</v>
@@ -1947,11 +1947,11 @@
       <c r="M7" t="s">
         <v>158</v>
       </c>
-      <c r="N7">
-        <v>28100</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="N7" t="s">
         <v>56</v>
+      </c>
+      <c r="O7">
+        <v>3966</v>
       </c>
       <c r="P7" t="s">
         <v>96</v>
@@ -2102,11 +2102,11 @@
       <c r="M8" t="s">
         <v>159</v>
       </c>
-      <c r="N8">
-        <v>27554</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="N8" t="s">
         <v>57</v>
+      </c>
+      <c r="O8">
+        <v>5061</v>
       </c>
       <c r="P8" t="s">
         <v>97</v>
@@ -2257,11 +2257,11 @@
       <c r="M9" t="s">
         <v>160</v>
       </c>
-      <c r="N9">
-        <v>26526</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="N9" t="s">
         <v>58</v>
+      </c>
+      <c r="O9">
+        <v>1947</v>
       </c>
       <c r="P9" t="s">
         <v>98</v>
@@ -2412,11 +2412,11 @@
       <c r="M10" t="s">
         <v>161</v>
       </c>
-      <c r="N10">
-        <v>25847</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="N10" t="s">
         <v>59</v>
+      </c>
+      <c r="O10">
+        <v>718</v>
       </c>
       <c r="P10" t="s">
         <v>99</v>
@@ -2567,11 +2567,11 @@
       <c r="M11" t="s">
         <v>162</v>
       </c>
-      <c r="N11">
-        <v>25402</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="N11" t="s">
         <v>60</v>
+      </c>
+      <c r="O11">
+        <v>2638</v>
       </c>
       <c r="P11" t="s">
         <v>100</v>
@@ -2722,11 +2722,11 @@
       <c r="M12" t="s">
         <v>163</v>
       </c>
-      <c r="N12">
-        <v>24695</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="N12" t="s">
         <v>61</v>
+      </c>
+      <c r="O12">
+        <v>1970</v>
       </c>
       <c r="P12" t="s">
         <v>101</v>
@@ -2877,11 +2877,11 @@
       <c r="M13" t="s">
         <v>164</v>
       </c>
-      <c r="N13">
-        <v>24357</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="N13" t="s">
         <v>62</v>
+      </c>
+      <c r="O13">
+        <v>3994</v>
       </c>
       <c r="P13" t="s">
         <v>102</v>
@@ -3032,11 +3032,11 @@
       <c r="M14" t="s">
         <v>165</v>
       </c>
-      <c r="N14">
-        <v>23823</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="N14" t="s">
         <v>63</v>
+      </c>
+      <c r="O14">
+        <v>4452</v>
       </c>
       <c r="P14" t="s">
         <v>103</v>
@@ -3187,11 +3187,11 @@
       <c r="M15" t="s">
         <v>166</v>
       </c>
-      <c r="N15">
-        <v>23088</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="N15" t="s">
         <v>64</v>
+      </c>
+      <c r="O15">
+        <v>3104</v>
       </c>
       <c r="P15" t="s">
         <v>104</v>
@@ -3342,11 +3342,11 @@
       <c r="M16" t="s">
         <v>167</v>
       </c>
-      <c r="N16">
-        <v>22157</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="N16" t="s">
         <v>65</v>
+      </c>
+      <c r="O16">
+        <v>13</v>
       </c>
       <c r="P16" t="s">
         <v>105</v>
@@ -3497,11 +3497,11 @@
       <c r="M17" t="s">
         <v>168</v>
       </c>
-      <c r="N17">
-        <v>21718</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="N17" t="s">
         <v>66</v>
+      </c>
+      <c r="O17">
+        <v>1142</v>
       </c>
       <c r="P17" t="s">
         <v>106</v>
@@ -3652,11 +3652,11 @@
       <c r="M18" t="s">
         <v>169</v>
       </c>
-      <c r="N18">
-        <v>21195</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="N18" t="s">
         <v>67</v>
+      </c>
+      <c r="O18">
+        <v>2091</v>
       </c>
       <c r="P18" t="s">
         <v>107</v>
@@ -3807,11 +3807,11 @@
       <c r="M19" t="s">
         <v>170</v>
       </c>
-      <c r="N19">
-        <v>20828</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="N19" t="s">
         <v>68</v>
+      </c>
+      <c r="O19">
+        <v>3772</v>
       </c>
       <c r="P19" t="s">
         <v>108</v>
@@ -3962,11 +3962,11 @@
       <c r="M20" t="s">
         <v>171</v>
       </c>
-      <c r="N20">
-        <v>19960</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="N20" t="s">
         <v>69</v>
+      </c>
+      <c r="O20">
+        <v>582</v>
       </c>
       <c r="P20" t="s">
         <v>109</v>
@@ -4117,11 +4117,11 @@
       <c r="M21" t="s">
         <v>172</v>
       </c>
-      <c r="N21">
-        <v>19374</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="N21" t="s">
         <v>70</v>
+      </c>
+      <c r="O21">
+        <v>566</v>
       </c>
       <c r="P21" t="s">
         <v>110</v>
@@ -4272,11 +4272,11 @@
       <c r="M22" t="s">
         <v>173</v>
       </c>
-      <c r="N22">
-        <v>19306</v>
-      </c>
-      <c r="O22" t="s">
+      <c r="N22" t="s">
         <v>71</v>
+      </c>
+      <c r="O22">
+        <v>5265</v>
       </c>
       <c r="P22" t="s">
         <v>111</v>
@@ -4427,11 +4427,11 @@
       <c r="M23" t="s">
         <v>174</v>
       </c>
-      <c r="N23">
-        <v>18420</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="N23" t="s">
         <v>72</v>
+      </c>
+      <c r="O23">
+        <v>1951</v>
       </c>
       <c r="P23" t="s">
         <v>112</v>
@@ -4582,11 +4582,11 @@
       <c r="M24" t="s">
         <v>175</v>
       </c>
-      <c r="N24">
-        <v>17982</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="N24" t="s">
         <v>73</v>
+      </c>
+      <c r="O24">
+        <v>2516</v>
       </c>
       <c r="P24" t="s">
         <v>113</v>
@@ -4737,11 +4737,11 @@
       <c r="M25" t="s">
         <v>176</v>
       </c>
-      <c r="N25">
-        <v>17709</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="N25" t="s">
         <v>74</v>
+      </c>
+      <c r="O25">
+        <v>4941</v>
       </c>
       <c r="P25" t="s">
         <v>114</v>
@@ -4892,11 +4892,11 @@
       <c r="M26" t="s">
         <v>177</v>
       </c>
-      <c r="N26">
-        <v>16939</v>
-      </c>
-      <c r="O26" t="s">
+      <c r="N26" t="s">
         <v>75</v>
+      </c>
+      <c r="O26">
+        <v>2321</v>
       </c>
       <c r="P26" t="s">
         <v>115</v>
@@ -5047,11 +5047,11 @@
       <c r="M27" t="s">
         <v>178</v>
       </c>
-      <c r="N27">
-        <v>16338</v>
-      </c>
-      <c r="O27" t="s">
+      <c r="N27" t="s">
         <v>76</v>
+      </c>
+      <c r="O27">
+        <v>1173</v>
       </c>
       <c r="P27" t="s">
         <v>116</v>
@@ -5202,11 +5202,11 @@
       <c r="M28" t="s">
         <v>179</v>
       </c>
-      <c r="N28">
-        <v>15668</v>
-      </c>
-      <c r="O28" t="s">
+      <c r="N28" t="s">
         <v>77</v>
+      </c>
+      <c r="O28">
+        <v>87</v>
       </c>
       <c r="P28" t="s">
         <v>117</v>
@@ -5357,11 +5357,11 @@
       <c r="M29" t="s">
         <v>180</v>
       </c>
-      <c r="N29">
-        <v>15336</v>
-      </c>
-      <c r="O29" t="s">
+      <c r="N29" t="s">
         <v>78</v>
+      </c>
+      <c r="O29">
+        <v>2174</v>
       </c>
       <c r="P29" t="s">
         <v>118</v>
@@ -5512,11 +5512,11 @@
       <c r="M30" t="s">
         <v>181</v>
       </c>
-      <c r="N30">
-        <v>14759</v>
-      </c>
-      <c r="O30" t="s">
+      <c r="N30" t="s">
         <v>79</v>
+      </c>
+      <c r="O30">
+        <v>1945</v>
       </c>
       <c r="P30" t="s">
         <v>119</v>
@@ -5667,11 +5667,11 @@
       <c r="M31" t="s">
         <v>182</v>
       </c>
-      <c r="N31">
-        <v>14182</v>
-      </c>
-      <c r="O31" t="s">
+      <c r="N31" t="s">
         <v>80</v>
+      </c>
+      <c r="O31">
+        <v>1122</v>
       </c>
       <c r="P31" t="s">
         <v>120</v>
@@ -5822,11 +5822,11 @@
       <c r="M32" t="s">
         <v>183</v>
       </c>
-      <c r="N32">
-        <v>13739</v>
-      </c>
-      <c r="O32" t="s">
+      <c r="N32" t="s">
         <v>81</v>
+      </c>
+      <c r="O32">
+        <v>1461</v>
       </c>
       <c r="P32" t="s">
         <v>121</v>
@@ -5977,11 +5977,11 @@
       <c r="M33" t="s">
         <v>184</v>
       </c>
-      <c r="N33">
-        <v>13431</v>
-      </c>
-      <c r="O33" t="s">
+      <c r="N33" t="s">
         <v>82</v>
+      </c>
+      <c r="O33">
+        <v>3404</v>
       </c>
       <c r="P33" t="s">
         <v>122</v>
@@ -6132,11 +6132,11 @@
       <c r="M34" t="s">
         <v>185</v>
       </c>
-      <c r="N34">
-        <v>13021</v>
-      </c>
-      <c r="O34" t="s">
+      <c r="N34" t="s">
         <v>83</v>
+      </c>
+      <c r="O34">
+        <v>4038</v>
       </c>
       <c r="P34" t="s">
         <v>123</v>
@@ -6287,11 +6287,11 @@
       <c r="M35" t="s">
         <v>186</v>
       </c>
-      <c r="N35">
-        <v>12625</v>
-      </c>
-      <c r="O35" t="s">
+      <c r="N35" t="s">
         <v>84</v>
+      </c>
+      <c r="O35">
+        <v>4525</v>
       </c>
       <c r="P35" t="s">
         <v>124</v>
@@ -6442,11 +6442,11 @@
       <c r="M36" t="s">
         <v>187</v>
       </c>
-      <c r="N36">
-        <v>12168</v>
-      </c>
-      <c r="O36" t="s">
+      <c r="N36" t="s">
         <v>85</v>
+      </c>
+      <c r="O36">
+        <v>4411</v>
       </c>
       <c r="P36" t="s">
         <v>125</v>
@@ -6597,11 +6597,11 @@
       <c r="M37" t="s">
         <v>188</v>
       </c>
-      <c r="N37">
-        <v>11605</v>
-      </c>
-      <c r="O37" t="s">
+      <c r="N37" t="s">
         <v>86</v>
+      </c>
+      <c r="O37">
+        <v>3097</v>
       </c>
       <c r="P37" t="s">
         <v>126</v>
@@ -6752,11 +6752,11 @@
       <c r="M38" t="s">
         <v>189</v>
       </c>
-      <c r="N38">
-        <v>11152</v>
-      </c>
-      <c r="O38" t="s">
+      <c r="N38" t="s">
         <v>87</v>
+      </c>
+      <c r="O38">
+        <v>3088</v>
       </c>
       <c r="P38" t="s">
         <v>127</v>
@@ -6907,11 +6907,11 @@
       <c r="M39" t="s">
         <v>190</v>
       </c>
-      <c r="N39">
-        <v>10638</v>
-      </c>
-      <c r="O39" t="s">
+      <c r="N39" t="s">
         <v>88</v>
+      </c>
+      <c r="O39">
+        <v>1085</v>
       </c>
       <c r="P39" t="s">
         <v>128</v>
@@ -7062,11 +7062,11 @@
       <c r="M40" t="s">
         <v>191</v>
       </c>
-      <c r="N40">
-        <v>10190</v>
-      </c>
-      <c r="O40" t="s">
+      <c r="N40" t="s">
         <v>89</v>
+      </c>
+      <c r="O40">
+        <v>148</v>
       </c>
       <c r="P40" t="s">
         <v>129</v>

--- a/mip_winners.xlsx
+++ b/mip_winners.xlsx
@@ -1176,7 +1176,7 @@
         <v>51</v>
       </c>
       <c r="O2">
-        <v>5025</v>
+        <v>5032</v>
       </c>
       <c r="P2" t="s">
         <v>91</v>
@@ -1331,7 +1331,7 @@
         <v>52</v>
       </c>
       <c r="O3">
-        <v>3251</v>
+        <v>3257</v>
       </c>
       <c r="P3" t="s">
         <v>92</v>
@@ -1486,7 +1486,7 @@
         <v>53</v>
       </c>
       <c r="O4">
-        <v>2223</v>
+        <v>2227</v>
       </c>
       <c r="P4" t="s">
         <v>93</v>
@@ -1641,7 +1641,7 @@
         <v>54</v>
       </c>
       <c r="O5">
-        <v>2936</v>
+        <v>2941</v>
       </c>
       <c r="P5" t="s">
         <v>94</v>
@@ -1796,7 +1796,7 @@
         <v>55</v>
       </c>
       <c r="O6">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="P6" t="s">
         <v>95</v>
@@ -1951,7 +1951,7 @@
         <v>56</v>
       </c>
       <c r="O7">
-        <v>3966</v>
+        <v>3972</v>
       </c>
       <c r="P7" t="s">
         <v>96</v>
@@ -2106,7 +2106,7 @@
         <v>57</v>
       </c>
       <c r="O8">
-        <v>5061</v>
+        <v>5068</v>
       </c>
       <c r="P8" t="s">
         <v>97</v>
@@ -2261,7 +2261,7 @@
         <v>58</v>
       </c>
       <c r="O9">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="P9" t="s">
         <v>98</v>
@@ -2416,7 +2416,7 @@
         <v>59</v>
       </c>
       <c r="O10">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="P10" t="s">
         <v>99</v>
@@ -2571,7 +2571,7 @@
         <v>60</v>
       </c>
       <c r="O11">
-        <v>2638</v>
+        <v>2643</v>
       </c>
       <c r="P11" t="s">
         <v>100</v>
@@ -2726,7 +2726,7 @@
         <v>61</v>
       </c>
       <c r="O12">
-        <v>1970</v>
+        <v>1974</v>
       </c>
       <c r="P12" t="s">
         <v>101</v>
@@ -2881,7 +2881,7 @@
         <v>62</v>
       </c>
       <c r="O13">
-        <v>3994</v>
+        <v>4000</v>
       </c>
       <c r="P13" t="s">
         <v>102</v>
@@ -3036,7 +3036,7 @@
         <v>63</v>
       </c>
       <c r="O14">
-        <v>4452</v>
+        <v>4459</v>
       </c>
       <c r="P14" t="s">
         <v>103</v>
@@ -3191,7 +3191,7 @@
         <v>64</v>
       </c>
       <c r="O15">
-        <v>3104</v>
+        <v>3109</v>
       </c>
       <c r="P15" t="s">
         <v>104</v>
@@ -3501,7 +3501,7 @@
         <v>66</v>
       </c>
       <c r="O17">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="P17" t="s">
         <v>106</v>
@@ -3656,7 +3656,7 @@
         <v>67</v>
       </c>
       <c r="O18">
-        <v>2091</v>
+        <v>2095</v>
       </c>
       <c r="P18" t="s">
         <v>107</v>
@@ -3811,7 +3811,7 @@
         <v>68</v>
       </c>
       <c r="O19">
-        <v>3772</v>
+        <v>3778</v>
       </c>
       <c r="P19" t="s">
         <v>108</v>
@@ -3966,7 +3966,7 @@
         <v>69</v>
       </c>
       <c r="O20">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="P20" t="s">
         <v>109</v>
@@ -4276,7 +4276,7 @@
         <v>71</v>
       </c>
       <c r="O22">
-        <v>5265</v>
+        <v>5272</v>
       </c>
       <c r="P22" t="s">
         <v>111</v>
@@ -4431,7 +4431,7 @@
         <v>72</v>
       </c>
       <c r="O23">
-        <v>1951</v>
+        <v>1955</v>
       </c>
       <c r="P23" t="s">
         <v>112</v>
@@ -4586,7 +4586,7 @@
         <v>73</v>
       </c>
       <c r="O24">
-        <v>2516</v>
+        <v>2521</v>
       </c>
       <c r="P24" t="s">
         <v>113</v>
@@ -4741,7 +4741,7 @@
         <v>74</v>
       </c>
       <c r="O25">
-        <v>4941</v>
+        <v>4948</v>
       </c>
       <c r="P25" t="s">
         <v>114</v>
@@ -4896,7 +4896,7 @@
         <v>75</v>
       </c>
       <c r="O26">
-        <v>2321</v>
+        <v>2325</v>
       </c>
       <c r="P26" t="s">
         <v>115</v>
@@ -5051,7 +5051,7 @@
         <v>76</v>
       </c>
       <c r="O27">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="P27" t="s">
         <v>116</v>
@@ -5361,7 +5361,7 @@
         <v>78</v>
       </c>
       <c r="O29">
-        <v>2174</v>
+        <v>2178</v>
       </c>
       <c r="P29" t="s">
         <v>118</v>
@@ -5516,7 +5516,7 @@
         <v>79</v>
       </c>
       <c r="O30">
-        <v>1945</v>
+        <v>1949</v>
       </c>
       <c r="P30" t="s">
         <v>119</v>
@@ -5671,7 +5671,7 @@
         <v>80</v>
       </c>
       <c r="O31">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="P31" t="s">
         <v>120</v>
@@ -5826,7 +5826,7 @@
         <v>81</v>
       </c>
       <c r="O32">
-        <v>1461</v>
+        <v>1464</v>
       </c>
       <c r="P32" t="s">
         <v>121</v>
@@ -5981,7 +5981,7 @@
         <v>82</v>
       </c>
       <c r="O33">
-        <v>3404</v>
+        <v>3410</v>
       </c>
       <c r="P33" t="s">
         <v>122</v>
@@ -6136,7 +6136,7 @@
         <v>83</v>
       </c>
       <c r="O34">
-        <v>4038</v>
+        <v>4044</v>
       </c>
       <c r="P34" t="s">
         <v>123</v>
@@ -6291,7 +6291,7 @@
         <v>84</v>
       </c>
       <c r="O35">
-        <v>4525</v>
+        <v>4532</v>
       </c>
       <c r="P35" t="s">
         <v>124</v>
@@ -6446,7 +6446,7 @@
         <v>85</v>
       </c>
       <c r="O36">
-        <v>4411</v>
+        <v>4418</v>
       </c>
       <c r="P36" t="s">
         <v>125</v>
@@ -6601,7 +6601,7 @@
         <v>86</v>
       </c>
       <c r="O37">
-        <v>3097</v>
+        <v>3102</v>
       </c>
       <c r="P37" t="s">
         <v>126</v>
@@ -6756,7 +6756,7 @@
         <v>87</v>
       </c>
       <c r="O38">
-        <v>3088</v>
+        <v>3093</v>
       </c>
       <c r="P38" t="s">
         <v>127</v>
@@ -6911,7 +6911,7 @@
         <v>88</v>
       </c>
       <c r="O39">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="P39" t="s">
         <v>128</v>

--- a/mip_winners.xlsx
+++ b/mip_winners.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="209">
   <si>
     <t>season_ending_year_x</t>
   </si>
@@ -592,6 +592,30 @@
     <t>1985-86</t>
   </si>
   <si>
+    <t>JT Thor</t>
+  </si>
+  <si>
+    <t>Pat Connaughton</t>
+  </si>
+  <si>
+    <t>Walt Lemon Jr.</t>
+  </si>
+  <si>
+    <t>Glenn Robinson III</t>
+  </si>
+  <si>
+    <t>Chuck Hayes</t>
+  </si>
+  <si>
+    <t>Paul Millsap</t>
+  </si>
+  <si>
+    <t>Ryan Gomes</t>
+  </si>
+  <si>
+    <t>Scott Williams</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
@@ -608,6 +632,9 @@
   </si>
   <si>
     <t>NBA</t>
+  </si>
+  <si>
+    <t>CHO</t>
   </si>
   <si>
     <t>No</t>
@@ -1176,7 +1203,7 @@
         <v>51</v>
       </c>
       <c r="O2">
-        <v>5032</v>
+        <v>5030</v>
       </c>
       <c r="P2" t="s">
         <v>91</v>
@@ -1185,7 +1212,7 @@
         <v>2000</v>
       </c>
       <c r="R2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="S2">
         <v>24</v>
@@ -1194,7 +1221,7 @@
         <v>4</v>
       </c>
       <c r="U2" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="V2" t="s">
         <v>130</v>
@@ -1278,10 +1305,10 @@
         <v>153</v>
       </c>
       <c r="AW2" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AX2" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY2">
         <v>2024</v>
@@ -1331,7 +1358,7 @@
         <v>52</v>
       </c>
       <c r="O3">
-        <v>3257</v>
+        <v>3258</v>
       </c>
       <c r="P3" t="s">
         <v>92</v>
@@ -1340,7 +1367,7 @@
         <v>1997</v>
       </c>
       <c r="R3" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="S3">
         <v>26</v>
@@ -1349,7 +1376,7 @@
         <v>6</v>
       </c>
       <c r="U3" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="V3" t="s">
         <v>131</v>
@@ -1433,10 +1460,10 @@
         <v>154</v>
       </c>
       <c r="AW3" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AX3" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY3">
         <v>2023</v>
@@ -1486,112 +1513,112 @@
         <v>53</v>
       </c>
       <c r="O4">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="P4" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="Q4">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="R4" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="S4">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U4" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="V4" t="s">
-        <v>132</v>
+        <v>206</v>
       </c>
       <c r="W4">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="X4">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>33.1</v>
+        <v>7.9</v>
       </c>
       <c r="Z4">
-        <v>10.2</v>
+        <v>0.7</v>
       </c>
       <c r="AA4">
-        <v>20.6</v>
+        <v>1.7</v>
       </c>
       <c r="AB4">
-        <v>0.493</v>
+        <v>0.436</v>
       </c>
       <c r="AC4">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="AD4">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="AE4">
-        <v>0.344</v>
+        <v>0.259</v>
       </c>
       <c r="AF4">
-        <v>8.6</v>
+        <v>0.5</v>
       </c>
       <c r="AG4">
-        <v>16.2</v>
+        <v>0.8</v>
       </c>
       <c r="AH4">
-        <v>0.534</v>
+        <v>0.607</v>
       </c>
       <c r="AI4">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AJ4">
-        <v>5.5</v>
+        <v>0.4</v>
       </c>
       <c r="AK4">
-        <v>7.3</v>
+        <v>0.6</v>
       </c>
       <c r="AL4">
-        <v>0.761</v>
+        <v>0.6</v>
       </c>
       <c r="AM4">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="AN4">
-        <v>4.4</v>
+        <v>1</v>
       </c>
       <c r="AO4">
-        <v>5.7</v>
+        <v>1.3</v>
       </c>
       <c r="AP4">
-        <v>6.7</v>
+        <v>0.6</v>
       </c>
       <c r="AQ4">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="AR4">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AS4">
-        <v>3.4</v>
+        <v>0.3</v>
       </c>
       <c r="AT4">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AU4">
-        <v>27.4</v>
+        <v>2</v>
       </c>
       <c r="AV4" t="s">
         <v>155</v>
       </c>
       <c r="AW4" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AX4" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY4">
         <v>2022</v>
@@ -1650,7 +1677,7 @@
         <v>1994</v>
       </c>
       <c r="R5" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="S5">
         <v>27</v>
@@ -1659,7 +1686,7 @@
         <v>7</v>
       </c>
       <c r="U5" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="V5" t="s">
         <v>133</v>
@@ -1743,10 +1770,10 @@
         <v>156</v>
       </c>
       <c r="AW5" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="AX5" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY5">
         <v>2021</v>
@@ -1796,7 +1823,7 @@
         <v>55</v>
       </c>
       <c r="O6">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="P6" t="s">
         <v>95</v>
@@ -1805,7 +1832,7 @@
         <v>1997</v>
       </c>
       <c r="R6" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="S6">
         <v>23</v>
@@ -1814,7 +1841,7 @@
         <v>4</v>
       </c>
       <c r="U6" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="V6" t="s">
         <v>134</v>
@@ -1898,10 +1925,10 @@
         <v>157</v>
       </c>
       <c r="AW6" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AX6" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY6">
         <v>2020</v>
@@ -1951,112 +1978,112 @@
         <v>56</v>
       </c>
       <c r="O7">
-        <v>3972</v>
+        <v>3974</v>
       </c>
       <c r="P7" t="s">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="Q7">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="R7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="S7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="V7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="W7">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="X7">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="Y7">
-        <v>31.9</v>
+        <v>20.7</v>
       </c>
       <c r="Z7">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="AA7">
-        <v>11.8</v>
+        <v>5.7</v>
       </c>
       <c r="AB7">
-        <v>0.549</v>
+        <v>0.466</v>
       </c>
       <c r="AC7">
+        <v>1.1</v>
+      </c>
+      <c r="AD7">
+        <v>3.3</v>
+      </c>
+      <c r="AE7">
+        <v>0.33</v>
+      </c>
+      <c r="AF7">
+        <v>1.6</v>
+      </c>
+      <c r="AG7">
+        <v>2.5</v>
+      </c>
+      <c r="AH7">
+        <v>0.647</v>
+      </c>
+      <c r="AI7">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AJ7">
+        <v>0.5</v>
+      </c>
+      <c r="AK7">
+        <v>0.7</v>
+      </c>
+      <c r="AL7">
+        <v>0.725</v>
+      </c>
+      <c r="AM7">
         <v>1</v>
       </c>
-      <c r="AD7">
-        <v>2.7</v>
-      </c>
-      <c r="AE7">
-        <v>0.369</v>
-      </c>
-      <c r="AF7">
-        <v>5.5</v>
-      </c>
-      <c r="AG7">
-        <v>9.1</v>
-      </c>
-      <c r="AH7">
-        <v>0.602</v>
-      </c>
-      <c r="AI7">
-        <v>0.591</v>
-      </c>
-      <c r="AJ7">
-        <v>3</v>
-      </c>
-      <c r="AK7">
-        <v>3.8</v>
-      </c>
-      <c r="AL7">
-        <v>0.785</v>
-      </c>
-      <c r="AM7">
-        <v>1.6</v>
-      </c>
       <c r="AN7">
-        <v>5.3</v>
+        <v>3.2</v>
       </c>
       <c r="AO7">
+        <v>4.2</v>
+      </c>
+      <c r="AP7">
+        <v>2</v>
+      </c>
+      <c r="AQ7">
+        <v>0.5</v>
+      </c>
+      <c r="AR7">
+        <v>0.4</v>
+      </c>
+      <c r="AS7">
+        <v>0.5</v>
+      </c>
+      <c r="AT7">
+        <v>1.3</v>
+      </c>
+      <c r="AU7">
         <v>6.9</v>
-      </c>
-      <c r="AP7">
-        <v>3.1</v>
-      </c>
-      <c r="AQ7">
-        <v>0.9</v>
-      </c>
-      <c r="AR7">
-        <v>0.7</v>
-      </c>
-      <c r="AS7">
-        <v>1.9</v>
-      </c>
-      <c r="AT7">
-        <v>3</v>
-      </c>
-      <c r="AU7">
-        <v>16.9</v>
       </c>
       <c r="AV7" t="s">
         <v>158</v>
       </c>
       <c r="AW7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AX7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY7">
         <v>2019</v>
@@ -2106,112 +2133,112 @@
         <v>57</v>
       </c>
       <c r="O8">
-        <v>5068</v>
+        <v>5115</v>
       </c>
       <c r="P8" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="Q8">
         <v>1992</v>
       </c>
       <c r="R8" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="S8">
         <v>26</v>
       </c>
       <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8" t="s">
+        <v>205</v>
+      </c>
+      <c r="V8" t="s">
+        <v>134</v>
+      </c>
+      <c r="W8">
         <v>5</v>
       </c>
-      <c r="U8" t="s">
-        <v>197</v>
-      </c>
-      <c r="V8" t="s">
-        <v>136</v>
-      </c>
-      <c r="W8">
-        <v>75</v>
-      </c>
       <c r="X8">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="Z8">
-        <v>8.5</v>
+        <v>1.4</v>
       </c>
       <c r="AA8">
-        <v>17.9</v>
+        <v>3.2</v>
       </c>
       <c r="AB8">
-        <v>0.477</v>
+        <v>0.438</v>
       </c>
       <c r="AC8">
-        <v>2.1</v>
+        <v>0.2</v>
       </c>
       <c r="AD8">
-        <v>5.8</v>
+        <v>0.2</v>
       </c>
       <c r="AE8">
-        <v>0.371</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>6.4</v>
+        <v>1.2</v>
       </c>
       <c r="AG8">
-        <v>12.1</v>
+        <v>3</v>
       </c>
       <c r="AH8">
-        <v>0.528</v>
+        <v>0.4</v>
       </c>
       <c r="AI8">
-        <v>0.537</v>
+        <v>0.469</v>
       </c>
       <c r="AJ8">
-        <v>3.9</v>
+        <v>0.4</v>
       </c>
       <c r="AK8">
-        <v>4.9</v>
+        <v>0.6</v>
       </c>
       <c r="AL8">
-        <v>0.799</v>
+        <v>0.667</v>
       </c>
       <c r="AM8">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AN8">
-        <v>4.6</v>
+        <v>0.4</v>
       </c>
       <c r="AO8">
-        <v>5.2</v>
+        <v>0.4</v>
       </c>
       <c r="AP8">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AR8">
+        <v>0.2</v>
+      </c>
+      <c r="AS8">
         <v>0.8</v>
       </c>
-      <c r="AS8">
-        <v>2.9</v>
-      </c>
       <c r="AT8">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="AU8">
-        <v>23.1</v>
+        <v>3.4</v>
       </c>
       <c r="AV8" t="s">
         <v>159</v>
       </c>
       <c r="AW8" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AX8" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY8">
         <v>2018</v>
@@ -2261,112 +2288,112 @@
         <v>58</v>
       </c>
       <c r="O9">
-        <v>1951</v>
+        <v>1967</v>
       </c>
       <c r="P9" t="s">
-        <v>98</v>
+        <v>195</v>
       </c>
       <c r="Q9">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="R9" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="S9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U9" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="V9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="W9">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="X9">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="Y9">
-        <v>35.6</v>
+        <v>20.7</v>
       </c>
       <c r="Z9">
-        <v>8.199999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="AA9">
-        <v>15.7</v>
+        <v>4.9</v>
       </c>
       <c r="AB9">
-        <v>0.521</v>
+        <v>0.467</v>
       </c>
       <c r="AC9">
+        <v>0.7</v>
+      </c>
+      <c r="AD9">
+        <v>1.8</v>
+      </c>
+      <c r="AE9">
+        <v>0.392</v>
+      </c>
+      <c r="AF9">
+        <v>1.6</v>
+      </c>
+      <c r="AG9">
+        <v>3.1</v>
+      </c>
+      <c r="AH9">
+        <v>0.512</v>
+      </c>
+      <c r="AI9">
+        <v>0.54</v>
+      </c>
+      <c r="AJ9">
+        <v>0.8</v>
+      </c>
+      <c r="AK9">
+        <v>1.1</v>
+      </c>
+      <c r="AL9">
+        <v>0.711</v>
+      </c>
+      <c r="AM9">
+        <v>0.8</v>
+      </c>
+      <c r="AN9">
+        <v>2.7</v>
+      </c>
+      <c r="AO9">
+        <v>3.6</v>
+      </c>
+      <c r="AP9">
+        <v>0.7</v>
+      </c>
+      <c r="AQ9">
         <v>0.6</v>
       </c>
-      <c r="AD9">
-        <v>2.3</v>
-      </c>
-      <c r="AE9">
-        <v>0.272</v>
-      </c>
-      <c r="AF9">
-        <v>7.6</v>
-      </c>
-      <c r="AG9">
-        <v>13.5</v>
-      </c>
-      <c r="AH9">
-        <v>0.5629999999999999</v>
-      </c>
-      <c r="AI9">
-        <v>0.541</v>
-      </c>
-      <c r="AJ9">
-        <v>5.9</v>
-      </c>
-      <c r="AK9">
-        <v>7.7</v>
-      </c>
-      <c r="AL9">
-        <v>0.77</v>
-      </c>
-      <c r="AM9">
-        <v>1.8</v>
-      </c>
-      <c r="AN9">
-        <v>7</v>
-      </c>
-      <c r="AO9">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AP9">
-        <v>5.4</v>
-      </c>
-      <c r="AQ9">
-        <v>1.6</v>
-      </c>
       <c r="AR9">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="AS9">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="AT9">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="AU9">
-        <v>22.9</v>
+        <v>6.1</v>
       </c>
       <c r="AV9" t="s">
         <v>160</v>
       </c>
       <c r="AW9" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AX9" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY9">
         <v>2017</v>
@@ -2416,112 +2443,112 @@
         <v>59</v>
       </c>
       <c r="O10">
-        <v>719</v>
+        <v>934</v>
       </c>
       <c r="P10" t="s">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="Q10">
-        <v>1991</v>
+        <v>1983</v>
       </c>
       <c r="R10" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="S10">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="T10">
+        <v>11</v>
+      </c>
+      <c r="U10" t="s">
+        <v>205</v>
+      </c>
+      <c r="V10" t="s">
+        <v>143</v>
+      </c>
+      <c r="W10">
+        <v>2</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>12</v>
+      </c>
+      <c r="Z10">
+        <v>0.5</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>0.5</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0.5</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>0.5</v>
+      </c>
+      <c r="AI10">
+        <v>0.5</v>
+      </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>4</v>
+      </c>
+      <c r="AO10">
+        <v>4</v>
+      </c>
+      <c r="AP10">
+        <v>1</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>1.5</v>
+      </c>
+      <c r="AT10">
         <v>3</v>
       </c>
-      <c r="U10" t="s">
-        <v>197</v>
-      </c>
-      <c r="V10" t="s">
-        <v>138</v>
-      </c>
-      <c r="W10">
-        <v>80</v>
-      </c>
-      <c r="X10">
-        <v>80</v>
-      </c>
-      <c r="Y10">
-        <v>34.8</v>
-      </c>
-      <c r="Z10">
-        <v>8</v>
-      </c>
-      <c r="AA10">
-        <v>17.9</v>
-      </c>
-      <c r="AB10">
-        <v>0.448</v>
-      </c>
-      <c r="AC10">
-        <v>2.5</v>
-      </c>
-      <c r="AD10">
-        <v>5.9</v>
-      </c>
-      <c r="AE10">
-        <v>0.417</v>
-      </c>
-      <c r="AF10">
-        <v>5.6</v>
-      </c>
-      <c r="AG10">
-        <v>12</v>
-      </c>
-      <c r="AH10">
-        <v>0.463</v>
-      </c>
-      <c r="AI10">
-        <v>0.517</v>
-      </c>
-      <c r="AJ10">
-        <v>2.3</v>
-      </c>
-      <c r="AK10">
-        <v>2.8</v>
-      </c>
-      <c r="AL10">
-        <v>0.827</v>
-      </c>
-      <c r="AM10">
-        <v>0.6</v>
-      </c>
-      <c r="AN10">
-        <v>2.7</v>
-      </c>
-      <c r="AO10">
-        <v>3.2</v>
-      </c>
-      <c r="AP10">
-        <v>4.3</v>
-      </c>
-      <c r="AQ10">
-        <v>1.2</v>
-      </c>
-      <c r="AR10">
-        <v>0.3</v>
-      </c>
-      <c r="AS10">
-        <v>2.5</v>
-      </c>
-      <c r="AT10">
-        <v>2.3</v>
-      </c>
       <c r="AU10">
-        <v>20.8</v>
+        <v>2</v>
       </c>
       <c r="AV10" t="s">
         <v>161</v>
       </c>
       <c r="AW10" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AX10" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY10">
         <v>2016</v>
@@ -2580,7 +2607,7 @@
         <v>1989</v>
       </c>
       <c r="R11" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="S11">
         <v>26</v>
@@ -2589,7 +2616,7 @@
         <v>4</v>
       </c>
       <c r="U11" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="V11" t="s">
         <v>139</v>
@@ -2673,10 +2700,10 @@
         <v>162</v>
       </c>
       <c r="AW11" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AX11" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY11">
         <v>2015</v>
@@ -2726,7 +2753,7 @@
         <v>61</v>
       </c>
       <c r="O12">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="P12" t="s">
         <v>101</v>
@@ -2735,7 +2762,7 @@
         <v>1986</v>
       </c>
       <c r="R12" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="S12">
         <v>28</v>
@@ -2744,7 +2771,7 @@
         <v>6</v>
       </c>
       <c r="U12" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="V12" t="s">
         <v>140</v>
@@ -2828,10 +2855,10 @@
         <v>163</v>
       </c>
       <c r="AW12" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AX12" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY12">
         <v>2014</v>
@@ -2881,112 +2908,112 @@
         <v>62</v>
       </c>
       <c r="O13">
-        <v>4000</v>
+        <v>4011</v>
       </c>
       <c r="P13" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="Q13">
-        <v>1990</v>
+        <v>1985</v>
       </c>
       <c r="R13" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="S13">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="T13">
+        <v>7</v>
+      </c>
+      <c r="U13" t="s">
+        <v>205</v>
+      </c>
+      <c r="V13" t="s">
+        <v>131</v>
+      </c>
+      <c r="W13">
+        <v>78</v>
+      </c>
+      <c r="X13">
+        <v>78</v>
+      </c>
+      <c r="Y13">
+        <v>30.4</v>
+      </c>
+      <c r="Z13">
+        <v>5.5</v>
+      </c>
+      <c r="AA13">
+        <v>11.2</v>
+      </c>
+      <c r="AB13">
+        <v>0.49</v>
+      </c>
+      <c r="AC13">
+        <v>0.2</v>
+      </c>
+      <c r="AD13">
+        <v>0.5</v>
+      </c>
+      <c r="AE13">
+        <v>0.333</v>
+      </c>
+      <c r="AF13">
+        <v>5.3</v>
+      </c>
+      <c r="AG13">
+        <v>10.7</v>
+      </c>
+      <c r="AH13">
+        <v>0.498</v>
+      </c>
+      <c r="AI13">
+        <v>0.498</v>
+      </c>
+      <c r="AJ13">
+        <v>3.4</v>
+      </c>
+      <c r="AK13">
+        <v>4.6</v>
+      </c>
+      <c r="AL13">
+        <v>0.742</v>
+      </c>
+      <c r="AM13">
+        <v>2.3</v>
+      </c>
+      <c r="AN13">
+        <v>4.8</v>
+      </c>
+      <c r="AO13">
+        <v>7.1</v>
+      </c>
+      <c r="AP13">
+        <v>2.6</v>
+      </c>
+      <c r="AQ13">
+        <v>1.3</v>
+      </c>
+      <c r="AR13">
+        <v>1</v>
+      </c>
+      <c r="AS13">
+        <v>1.8</v>
+      </c>
+      <c r="AT13">
         <v>3</v>
       </c>
-      <c r="U13" t="s">
-        <v>197</v>
-      </c>
-      <c r="V13" t="s">
-        <v>136</v>
-      </c>
-      <c r="W13">
-        <v>79</v>
-      </c>
-      <c r="X13">
-        <v>79</v>
-      </c>
-      <c r="Y13">
-        <v>37.6</v>
-      </c>
-      <c r="Z13">
-        <v>6.2</v>
-      </c>
-      <c r="AA13">
-        <v>14.9</v>
-      </c>
-      <c r="AB13">
-        <v>0.419</v>
-      </c>
-      <c r="AC13">
-        <v>2.2</v>
-      </c>
-      <c r="AD13">
-        <v>5.9</v>
-      </c>
-      <c r="AE13">
-        <v>0.362</v>
-      </c>
-      <c r="AF13">
-        <v>4.1</v>
-      </c>
-      <c r="AG13">
-        <v>8.9</v>
-      </c>
-      <c r="AH13">
-        <v>0.457</v>
-      </c>
-      <c r="AI13">
-        <v>0.491</v>
-      </c>
-      <c r="AJ13">
-        <v>2.8</v>
-      </c>
-      <c r="AK13">
-        <v>3.5</v>
-      </c>
-      <c r="AL13">
-        <v>0.8070000000000001</v>
-      </c>
-      <c r="AM13">
-        <v>1.1</v>
-      </c>
-      <c r="AN13">
-        <v>6.5</v>
-      </c>
-      <c r="AO13">
-        <v>7.6</v>
-      </c>
-      <c r="AP13">
-        <v>4.1</v>
-      </c>
-      <c r="AQ13">
-        <v>1.8</v>
-      </c>
-      <c r="AR13">
-        <v>0.6</v>
-      </c>
-      <c r="AS13">
-        <v>2.9</v>
-      </c>
-      <c r="AT13">
-        <v>2.9</v>
-      </c>
       <c r="AU13">
-        <v>17.4</v>
+        <v>14.6</v>
       </c>
       <c r="AV13" t="s">
         <v>164</v>
       </c>
       <c r="AW13" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AX13" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY13">
         <v>2013</v>
@@ -3036,112 +3063,112 @@
         <v>63</v>
       </c>
       <c r="O14">
-        <v>4459</v>
+        <v>4464</v>
       </c>
       <c r="P14" t="s">
-        <v>103</v>
+        <v>198</v>
       </c>
       <c r="Q14">
-        <v>1988</v>
+        <v>1982</v>
       </c>
       <c r="R14" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="S14">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="T14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U14" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="V14" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="W14">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="X14">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="Y14">
-        <v>32.2</v>
+        <v>13.3</v>
       </c>
       <c r="Z14">
-        <v>5.4</v>
+        <v>1</v>
       </c>
       <c r="AA14">
-        <v>12.4</v>
+        <v>3</v>
       </c>
       <c r="AB14">
-        <v>0.439</v>
+        <v>0.326</v>
       </c>
       <c r="AC14">
-        <v>2.7</v>
+        <v>0.1</v>
       </c>
       <c r="AD14">
-        <v>6.9</v>
+        <v>0.9</v>
       </c>
       <c r="AE14">
-        <v>0.393</v>
+        <v>0.138</v>
       </c>
       <c r="AF14">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="AG14">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="AH14">
-        <v>0.496</v>
+        <v>0.409</v>
       </c>
       <c r="AI14">
-        <v>0.548</v>
+        <v>0.347</v>
       </c>
       <c r="AJ14">
-        <v>2.5</v>
+        <v>0.3</v>
       </c>
       <c r="AK14">
-        <v>2.8</v>
+        <v>0.3</v>
       </c>
       <c r="AL14">
-        <v>0.877</v>
+        <v>0.727</v>
       </c>
       <c r="AM14">
-        <v>3.7</v>
+        <v>0.4</v>
       </c>
       <c r="AN14">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="AO14">
-        <v>7.7</v>
+        <v>1.9</v>
       </c>
       <c r="AP14">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="AQ14">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AR14">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="AT14">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="AU14">
-        <v>16.1</v>
+        <v>2.3</v>
       </c>
       <c r="AV14" t="s">
         <v>165</v>
       </c>
       <c r="AW14" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AX14" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY14">
         <v>2012</v>
@@ -3191,7 +3218,7 @@
         <v>64</v>
       </c>
       <c r="O15">
-        <v>3109</v>
+        <v>3110</v>
       </c>
       <c r="P15" t="s">
         <v>104</v>
@@ -3200,7 +3227,7 @@
         <v>1988</v>
       </c>
       <c r="R15" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="S15">
         <v>23</v>
@@ -3209,7 +3236,7 @@
         <v>3</v>
       </c>
       <c r="U15" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="V15" t="s">
         <v>142</v>
@@ -3293,10 +3320,10 @@
         <v>166</v>
       </c>
       <c r="AW15" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="AX15" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY15">
         <v>2011</v>
@@ -3355,7 +3382,7 @@
         <v>1984</v>
       </c>
       <c r="R16" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="S16">
         <v>26</v>
@@ -3364,7 +3391,7 @@
         <v>3</v>
       </c>
       <c r="U16" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="V16" t="s">
         <v>143</v>
@@ -3448,10 +3475,10 @@
         <v>167</v>
       </c>
       <c r="AW16" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AX16" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY16">
         <v>2010</v>
@@ -3501,7 +3528,7 @@
         <v>66</v>
       </c>
       <c r="O17">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="P17" t="s">
         <v>106</v>
@@ -3510,7 +3537,7 @@
         <v>1983</v>
       </c>
       <c r="R17" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="S17">
         <v>26</v>
@@ -3519,7 +3546,7 @@
         <v>4</v>
       </c>
       <c r="U17" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="V17" t="s">
         <v>136</v>
@@ -3603,10 +3630,10 @@
         <v>168</v>
       </c>
       <c r="AW17" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AX17" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY17">
         <v>2009</v>
@@ -3656,7 +3683,7 @@
         <v>67</v>
       </c>
       <c r="O18">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="P18" t="s">
         <v>107</v>
@@ -3665,7 +3692,7 @@
         <v>1979</v>
       </c>
       <c r="R18" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="S18">
         <v>29</v>
@@ -3674,7 +3701,7 @@
         <v>8</v>
       </c>
       <c r="U18" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="V18" t="s">
         <v>141</v>
@@ -3758,10 +3785,10 @@
         <v>169</v>
       </c>
       <c r="AW18" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AX18" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY18">
         <v>2008</v>
@@ -3811,7 +3838,7 @@
         <v>68</v>
       </c>
       <c r="O19">
-        <v>3778</v>
+        <v>3779</v>
       </c>
       <c r="P19" t="s">
         <v>108</v>
@@ -3820,7 +3847,7 @@
         <v>1985</v>
       </c>
       <c r="R19" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="S19">
         <v>22</v>
@@ -3829,7 +3856,7 @@
         <v>2</v>
       </c>
       <c r="U19" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="V19" t="s">
         <v>144</v>
@@ -3913,10 +3940,10 @@
         <v>170</v>
       </c>
       <c r="AW19" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AX19" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY19">
         <v>2007</v>
@@ -3966,7 +3993,7 @@
         <v>69</v>
       </c>
       <c r="O20">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="P20" t="s">
         <v>109</v>
@@ -3975,7 +4002,7 @@
         <v>1982</v>
       </c>
       <c r="R20" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="S20">
         <v>24</v>
@@ -3984,7 +4011,7 @@
         <v>3</v>
       </c>
       <c r="U20" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="V20" t="s">
         <v>140</v>
@@ -4068,10 +4095,10 @@
         <v>171</v>
       </c>
       <c r="AW20" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AX20" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY20">
         <v>2006</v>
@@ -4121,7 +4148,7 @@
         <v>70</v>
       </c>
       <c r="O21">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="P21" t="s">
         <v>110</v>
@@ -4130,7 +4157,7 @@
         <v>1980</v>
       </c>
       <c r="R21" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="S21">
         <v>25</v>
@@ -4139,7 +4166,7 @@
         <v>4</v>
       </c>
       <c r="U21" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="V21" t="s">
         <v>145</v>
@@ -4223,10 +4250,10 @@
         <v>172</v>
       </c>
       <c r="AW21" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AX21" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY21">
         <v>2005</v>
@@ -4276,7 +4303,7 @@
         <v>71</v>
       </c>
       <c r="O22">
-        <v>5272</v>
+        <v>5270</v>
       </c>
       <c r="P22" t="s">
         <v>111</v>
@@ -4285,7 +4312,7 @@
         <v>1981</v>
       </c>
       <c r="R22" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="S22">
         <v>23</v>
@@ -4294,7 +4321,7 @@
         <v>3</v>
       </c>
       <c r="U22" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="V22" t="s">
         <v>138</v>
@@ -4378,10 +4405,10 @@
         <v>173</v>
       </c>
       <c r="AW22" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="AX22" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY22">
         <v>2004</v>
@@ -4431,7 +4458,7 @@
         <v>72</v>
       </c>
       <c r="O23">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="P23" t="s">
         <v>112</v>
@@ -4440,7 +4467,7 @@
         <v>1981</v>
       </c>
       <c r="R23" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="S23">
         <v>22</v>
@@ -4449,7 +4476,7 @@
         <v>2</v>
       </c>
       <c r="U23" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="V23" t="s">
         <v>144</v>
@@ -4533,10 +4560,10 @@
         <v>174</v>
       </c>
       <c r="AW23" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AX23" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY23">
         <v>2003</v>
@@ -4595,7 +4622,7 @@
         <v>1978</v>
       </c>
       <c r="R24" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="S24">
         <v>24</v>
@@ -4604,7 +4631,7 @@
         <v>6</v>
       </c>
       <c r="U24" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="V24" t="s">
         <v>136</v>
@@ -4688,10 +4715,10 @@
         <v>175</v>
       </c>
       <c r="AW24" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="AX24" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY24">
         <v>2002</v>
@@ -4741,7 +4768,7 @@
         <v>74</v>
       </c>
       <c r="O25">
-        <v>4948</v>
+        <v>4947</v>
       </c>
       <c r="P25" t="s">
         <v>114</v>
@@ -4750,7 +4777,7 @@
         <v>1979</v>
       </c>
       <c r="R25" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="S25">
         <v>22</v>
@@ -4759,7 +4786,7 @@
         <v>4</v>
       </c>
       <c r="U25" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="V25" t="s">
         <v>141</v>
@@ -4843,10 +4870,10 @@
         <v>176</v>
       </c>
       <c r="AW25" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AX25" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY25">
         <v>2001</v>
@@ -4905,7 +4932,7 @@
         <v>1972</v>
       </c>
       <c r="R26" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="S26">
         <v>28</v>
@@ -4914,7 +4941,7 @@
         <v>6</v>
       </c>
       <c r="U26" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="V26" t="s">
         <v>136</v>
@@ -4998,10 +5025,10 @@
         <v>177</v>
       </c>
       <c r="AW26" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AX26" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY26">
         <v>2000</v>
@@ -5060,7 +5087,7 @@
         <v>1968</v>
       </c>
       <c r="R27" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="S27">
         <v>31</v>
@@ -5069,7 +5096,7 @@
         <v>5</v>
       </c>
       <c r="U27" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="V27" t="s">
         <v>141</v>
@@ -5153,10 +5180,10 @@
         <v>178</v>
       </c>
       <c r="AW27" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AX27" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY27">
         <v>1999</v>
@@ -5215,7 +5242,7 @@
         <v>1972</v>
       </c>
       <c r="R28" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="S28">
         <v>26</v>
@@ -5224,7 +5251,7 @@
         <v>3</v>
       </c>
       <c r="U28" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="V28" t="s">
         <v>146</v>
@@ -5308,10 +5335,10 @@
         <v>179</v>
       </c>
       <c r="AW28" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AX28" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY28">
         <v>1998</v>
@@ -5361,7 +5388,7 @@
         <v>78</v>
       </c>
       <c r="O29">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="P29" t="s">
         <v>118</v>
@@ -5370,7 +5397,7 @@
         <v>1969</v>
       </c>
       <c r="R29" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="S29">
         <v>28</v>
@@ -5379,7 +5406,7 @@
         <v>4</v>
       </c>
       <c r="U29" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="V29" t="s">
         <v>147</v>
@@ -5463,10 +5490,10 @@
         <v>180</v>
       </c>
       <c r="AW29" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AX29" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY29">
         <v>1997</v>
@@ -5516,7 +5543,7 @@
         <v>79</v>
       </c>
       <c r="O30">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="P30" t="s">
         <v>119</v>
@@ -5525,7 +5552,7 @@
         <v>1971</v>
       </c>
       <c r="R30" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="S30">
         <v>25</v>
@@ -5534,7 +5561,7 @@
         <v>3</v>
       </c>
       <c r="U30" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="V30" t="s">
         <v>148</v>
@@ -5618,10 +5645,10 @@
         <v>181</v>
       </c>
       <c r="AW30" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AX30" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY30">
         <v>1996</v>
@@ -5671,7 +5698,7 @@
         <v>80</v>
       </c>
       <c r="O31">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="P31" t="s">
         <v>120</v>
@@ -5680,7 +5707,7 @@
         <v>1967</v>
       </c>
       <c r="R31" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="S31">
         <v>28</v>
@@ -5689,7 +5716,7 @@
         <v>6</v>
       </c>
       <c r="U31" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="V31" t="s">
         <v>130</v>
@@ -5773,10 +5800,10 @@
         <v>182</v>
       </c>
       <c r="AW31" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AX31" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY31">
         <v>1995</v>
@@ -5826,7 +5853,7 @@
         <v>81</v>
       </c>
       <c r="O32">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="P32" t="s">
         <v>121</v>
@@ -5835,7 +5862,7 @@
         <v>1969</v>
       </c>
       <c r="R32" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="S32">
         <v>25</v>
@@ -5844,7 +5871,7 @@
         <v>2</v>
       </c>
       <c r="U32" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="V32" t="s">
         <v>148</v>
@@ -5928,10 +5955,10 @@
         <v>183</v>
       </c>
       <c r="AW32" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AX32" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY32">
         <v>1994</v>
@@ -5981,7 +6008,7 @@
         <v>82</v>
       </c>
       <c r="O33">
-        <v>3410</v>
+        <v>3411</v>
       </c>
       <c r="P33" t="s">
         <v>122</v>
@@ -5990,7 +6017,7 @@
         <v>1969</v>
       </c>
       <c r="R33" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="S33">
         <v>24</v>
@@ -5999,7 +6026,7 @@
         <v>3</v>
       </c>
       <c r="U33" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="V33" t="s">
         <v>149</v>
@@ -6083,10 +6110,10 @@
         <v>184</v>
       </c>
       <c r="AW33" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AX33" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY33">
         <v>1993</v>
@@ -6145,7 +6172,7 @@
         <v>1967</v>
       </c>
       <c r="R34" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="S34">
         <v>25</v>
@@ -6154,7 +6181,7 @@
         <v>3</v>
       </c>
       <c r="U34" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="V34" t="s">
         <v>148</v>
@@ -6238,10 +6265,10 @@
         <v>185</v>
       </c>
       <c r="AW34" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="AX34" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY34">
         <v>1992</v>
@@ -6291,112 +6318,112 @@
         <v>84</v>
       </c>
       <c r="O35">
-        <v>4532</v>
+        <v>4533</v>
       </c>
       <c r="P35" t="s">
-        <v>124</v>
+        <v>199</v>
       </c>
       <c r="Q35">
-        <v>1964</v>
+        <v>1968</v>
       </c>
       <c r="R35" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="S35">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="T35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U35" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="V35" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="W35">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="X35">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="Y35">
-        <v>34.4</v>
+        <v>6.6</v>
       </c>
       <c r="Z35">
-        <v>5.8</v>
+        <v>1</v>
       </c>
       <c r="AA35">
-        <v>13.2</v>
+        <v>2</v>
       </c>
       <c r="AB35">
-        <v>0.445</v>
+        <v>0.51</v>
       </c>
       <c r="AC35">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AD35">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="AE35">
-        <v>0.408</v>
+        <v>0.5</v>
       </c>
       <c r="AF35">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="AG35">
-        <v>10.3</v>
+        <v>2</v>
       </c>
       <c r="AH35">
-        <v>0.455</v>
+        <v>0.51</v>
       </c>
       <c r="AI35">
-        <v>0.489</v>
+        <v>0.514</v>
       </c>
       <c r="AJ35">
-        <v>4.3</v>
+        <v>0.4</v>
       </c>
       <c r="AK35">
-        <v>4.8</v>
+        <v>0.5</v>
       </c>
       <c r="AL35">
-        <v>0.902</v>
+        <v>0.714</v>
       </c>
       <c r="AM35">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AN35">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="AO35">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="AP35">
-        <v>8.4</v>
+        <v>0.3</v>
       </c>
       <c r="AQ35">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="AR35">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AS35">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="AT35">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="AU35">
-        <v>17.2</v>
+        <v>2.5</v>
       </c>
       <c r="AV35" t="s">
         <v>186</v>
       </c>
       <c r="AW35" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AX35" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY35">
         <v>1991</v>
@@ -6455,7 +6482,7 @@
         <v>1965</v>
       </c>
       <c r="R36" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="S36">
         <v>25</v>
@@ -6464,7 +6491,7 @@
         <v>2</v>
       </c>
       <c r="U36" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="V36" t="s">
         <v>147</v>
@@ -6548,10 +6575,10 @@
         <v>187</v>
       </c>
       <c r="AW36" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="AX36" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY36">
         <v>1990</v>
@@ -6601,7 +6628,7 @@
         <v>86</v>
       </c>
       <c r="O37">
-        <v>3102</v>
+        <v>3103</v>
       </c>
       <c r="P37" t="s">
         <v>126</v>
@@ -6610,7 +6637,7 @@
         <v>1966</v>
       </c>
       <c r="R37" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="S37">
         <v>23</v>
@@ -6619,7 +6646,7 @@
         <v>2</v>
       </c>
       <c r="U37" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="V37" t="s">
         <v>140</v>
@@ -6703,10 +6730,10 @@
         <v>188</v>
       </c>
       <c r="AW37" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="AX37" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY37">
         <v>1989</v>
@@ -6756,7 +6783,7 @@
         <v>87</v>
       </c>
       <c r="O38">
-        <v>3093</v>
+        <v>3094</v>
       </c>
       <c r="P38" t="s">
         <v>127</v>
@@ -6765,7 +6792,7 @@
         <v>1964</v>
       </c>
       <c r="R38" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="S38">
         <v>24</v>
@@ -6774,7 +6801,7 @@
         <v>2</v>
       </c>
       <c r="U38" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="V38" t="s">
         <v>138</v>
@@ -6858,10 +6885,10 @@
         <v>189</v>
       </c>
       <c r="AW38" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AX38" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY38">
         <v>1988</v>
@@ -6911,7 +6938,7 @@
         <v>88</v>
       </c>
       <c r="O39">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="P39" t="s">
         <v>128</v>
@@ -6920,7 +6947,7 @@
         <v>1960</v>
       </c>
       <c r="R39" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="S39">
         <v>27</v>
@@ -6929,7 +6956,7 @@
         <v>4</v>
       </c>
       <c r="U39" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="V39" t="s">
         <v>150</v>
@@ -7013,10 +7040,10 @@
         <v>190</v>
       </c>
       <c r="AW39" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AX39" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY39">
         <v>1987</v>
@@ -7066,7 +7093,7 @@
         <v>89</v>
       </c>
       <c r="O40">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P40" t="s">
         <v>129</v>
@@ -7075,7 +7102,7 @@
         <v>1962</v>
       </c>
       <c r="R40" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="S40">
         <v>24</v>
@@ -7084,7 +7111,7 @@
         <v>2</v>
       </c>
       <c r="U40" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="V40" t="s">
         <v>151</v>
@@ -7168,10 +7195,10 @@
         <v>191</v>
       </c>
       <c r="AW40" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AX40" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AY40">
         <v>1986</v>
